--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906472822878215</v>
+        <v>0.9906472822878198</v>
       </c>
       <c r="D2">
-        <v>1.011072986883796</v>
+        <v>1.011072986883795</v>
       </c>
       <c r="E2">
-        <v>0.9988874210194193</v>
+        <v>0.998887421019418</v>
       </c>
       <c r="F2">
-        <v>0.9993906101580533</v>
+        <v>0.9993906101580523</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.041000018524341</v>
       </c>
       <c r="J2">
-        <v>1.013111376021045</v>
+        <v>1.013111376021044</v>
       </c>
       <c r="K2">
-        <v>1.022380183111994</v>
+        <v>1.022380183111993</v>
       </c>
       <c r="L2">
-        <v>1.010362277626973</v>
+        <v>1.010362277626971</v>
       </c>
       <c r="M2">
-        <v>1.010858441282605</v>
+        <v>1.010858441282603</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000624845888904</v>
+        <v>1.000624845888906</v>
       </c>
       <c r="D3">
-        <v>1.018948217658133</v>
+        <v>1.018948217658135</v>
       </c>
       <c r="E3">
-        <v>1.008317007936611</v>
+        <v>1.008317007936613</v>
       </c>
       <c r="F3">
-        <v>1.009441550254145</v>
+        <v>1.009441550254147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045092578068762</v>
+        <v>1.045092578068763</v>
       </c>
       <c r="J3">
-        <v>1.021098491456835</v>
+        <v>1.021098491456837</v>
       </c>
       <c r="K3">
-        <v>1.029344259745391</v>
+        <v>1.029344259745393</v>
       </c>
       <c r="L3">
-        <v>1.018844565738501</v>
+        <v>1.018844565738503</v>
       </c>
       <c r="M3">
-        <v>1.019955033375318</v>
+        <v>1.01995503337532</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006805718750838</v>
+        <v>1.006805718750837</v>
       </c>
       <c r="D4">
         <v>1.02382971070063</v>
       </c>
       <c r="E4">
-        <v>1.01416387282833</v>
+        <v>1.014163872828329</v>
       </c>
       <c r="F4">
-        <v>1.015678890886424</v>
+        <v>1.015678890886423</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>1.033648793732</v>
       </c>
       <c r="L4">
-        <v>1.024094305885418</v>
+        <v>1.024094305885417</v>
       </c>
       <c r="M4">
         <v>1.025591697888127</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009343395633969</v>
+        <v>1.009343395633972</v>
       </c>
       <c r="D5">
-        <v>1.025834451272455</v>
+        <v>1.025834451272457</v>
       </c>
       <c r="E5">
-        <v>1.016565628173947</v>
+        <v>1.01656562817395</v>
       </c>
       <c r="F5">
-        <v>1.018242311837035</v>
+        <v>1.018242311837037</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048641461757239</v>
+        <v>1.04864146175724</v>
       </c>
       <c r="J5">
-        <v>1.028062174493169</v>
+        <v>1.028062174493171</v>
       </c>
       <c r="K5">
-        <v>1.035413721668002</v>
+        <v>1.035413721668004</v>
       </c>
       <c r="L5">
-        <v>1.026248455698833</v>
+        <v>1.026248455698837</v>
       </c>
       <c r="M5">
-        <v>1.027906234366206</v>
+        <v>1.027906234366208</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009766057154076</v>
+        <v>1.009766057154075</v>
       </c>
       <c r="D6">
         <v>1.026168377740699</v>
@@ -594,7 +594,7 @@
         <v>1.028399351733522</v>
       </c>
       <c r="K6">
-        <v>1.035707535737518</v>
+        <v>1.035707535737517</v>
       </c>
       <c r="L6">
         <v>1.02660716460772</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006839859752695</v>
+        <v>1.006839859752697</v>
       </c>
       <c r="D7">
-        <v>1.023856679790991</v>
+        <v>1.023856679790992</v>
       </c>
       <c r="E7">
-        <v>1.014196180500003</v>
+        <v>1.014196180500004</v>
       </c>
       <c r="F7">
-        <v>1.015713368181574</v>
+        <v>1.015713368181576</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047625225890802</v>
+        <v>1.047625225890803</v>
       </c>
       <c r="J7">
-        <v>1.026064177593805</v>
+        <v>1.026064177593806</v>
       </c>
       <c r="K7">
-        <v>1.033672548009714</v>
+        <v>1.033672548009716</v>
       </c>
       <c r="L7">
-        <v>1.024123292029923</v>
+        <v>1.024123292029925</v>
       </c>
       <c r="M7">
-        <v>1.025622835759249</v>
+        <v>1.025622835759251</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9940795553070606</v>
+        <v>0.9940795553070609</v>
       </c>
       <c r="D8">
         <v>1.013781320262474</v>
@@ -676,7 +676,7 @@
         <v>1.013281162659457</v>
       </c>
       <c r="M8">
-        <v>1.013987286109814</v>
+        <v>1.013987286109813</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9692131206997749</v>
+        <v>0.9692131206997761</v>
       </c>
       <c r="D9">
-        <v>0.9941810968972298</v>
+        <v>0.9941810968972308</v>
       </c>
       <c r="E9">
-        <v>0.9786672161874151</v>
+        <v>0.9786672161874159</v>
       </c>
       <c r="F9">
-        <v>0.9778669905919354</v>
+        <v>0.9778669905919368</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032116534555441</v>
+        <v>1.032116534555442</v>
       </c>
       <c r="J9">
-        <v>0.99590193001197</v>
+        <v>0.9959019300119711</v>
       </c>
       <c r="K9">
         <v>1.007369292548812</v>
       </c>
       <c r="L9">
-        <v>0.9921161526033643</v>
+        <v>0.9921161526033652</v>
       </c>
       <c r="M9">
-        <v>0.9913296664038391</v>
+        <v>0.9913296664038401</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505664429153996</v>
+        <v>0.9505664429153969</v>
       </c>
       <c r="D10">
-        <v>0.9795226050307738</v>
+        <v>0.9795226050307715</v>
       </c>
       <c r="E10">
-        <v>0.9611179784666747</v>
+        <v>0.9611179784666721</v>
       </c>
       <c r="F10">
-        <v>0.9592112868676992</v>
+        <v>0.9592112868676973</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024309872726848</v>
+        <v>1.024309872726846</v>
       </c>
       <c r="J10">
-        <v>0.9808885745873698</v>
+        <v>0.980888574587367</v>
       </c>
       <c r="K10">
-        <v>0.994271697007606</v>
+        <v>0.9942716970076036</v>
       </c>
       <c r="L10">
-        <v>0.9762266335882093</v>
+        <v>0.9762266335882065</v>
       </c>
       <c r="M10">
-        <v>0.9743582306246644</v>
+        <v>0.9743582306246625</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9418622707721038</v>
+        <v>0.9418622707721021</v>
       </c>
       <c r="D11">
-        <v>0.9726939603091873</v>
+        <v>0.9726939603091859</v>
       </c>
       <c r="E11">
-        <v>0.9529395622370288</v>
+        <v>0.9529395622370269</v>
       </c>
       <c r="F11">
-        <v>0.9505232041102016</v>
+        <v>0.9505232041102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020646719346398</v>
+        <v>1.020646719346397</v>
       </c>
       <c r="J11">
-        <v>0.9738709272779879</v>
+        <v>0.9738709272779861</v>
       </c>
       <c r="K11">
-        <v>0.9881498785552857</v>
+        <v>0.9881498785552842</v>
       </c>
       <c r="L11">
-        <v>0.9688071028455991</v>
+        <v>0.9688071028455972</v>
       </c>
       <c r="M11">
-        <v>0.9664426526437706</v>
+        <v>0.9664426526437686</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9385190459545748</v>
+        <v>0.9385190459545711</v>
       </c>
       <c r="D12">
-        <v>0.9700736790791551</v>
+        <v>0.9700736790791518</v>
       </c>
       <c r="E12">
-        <v>0.949800600997118</v>
+        <v>0.9498006009971142</v>
       </c>
       <c r="F12">
-        <v>0.9471894614736268</v>
+        <v>0.9471894614736235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01923703936586</v>
+        <v>1.019237039365857</v>
       </c>
       <c r="J12">
-        <v>0.9711742411566473</v>
+        <v>0.9711742411566439</v>
       </c>
       <c r="K12">
-        <v>0.9857975913746955</v>
+        <v>0.985797591374692</v>
       </c>
       <c r="L12">
-        <v>0.9659571624841483</v>
+        <v>0.9659571624841446</v>
       </c>
       <c r="M12">
-        <v>0.9634035390587316</v>
+        <v>0.9634035390587281</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.939241451668788</v>
+        <v>0.9392414516687871</v>
       </c>
       <c r="D13">
-        <v>0.9706397465843412</v>
+        <v>0.9706397465843407</v>
       </c>
       <c r="E13">
-        <v>0.9504787592481517</v>
+        <v>0.950478759248151</v>
       </c>
       <c r="F13">
-        <v>0.9479096650147835</v>
+        <v>0.9479096650147826</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.019541761253638</v>
       </c>
       <c r="J13">
-        <v>0.9717569952333224</v>
+        <v>0.9717569952333214</v>
       </c>
       <c r="K13">
-        <v>0.9863059118745356</v>
+        <v>0.986305911874535</v>
       </c>
       <c r="L13">
-        <v>0.9665729812656906</v>
+        <v>0.9665729812656897</v>
       </c>
       <c r="M13">
-        <v>0.9640601733698138</v>
+        <v>0.9640601733698131</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9415882679425674</v>
+        <v>0.9415882679425693</v>
       </c>
       <c r="D14">
-        <v>0.9724791534045331</v>
+        <v>0.9724791534045343</v>
       </c>
       <c r="E14">
-        <v>0.9526822515525936</v>
+        <v>0.9526822515525954</v>
       </c>
       <c r="F14">
-        <v>0.9502499101691966</v>
+        <v>0.950249910169198</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020531238269974</v>
       </c>
       <c r="J14">
-        <v>0.9736499372017299</v>
+        <v>0.9736499372017318</v>
       </c>
       <c r="K14">
-        <v>0.987957107714635</v>
+        <v>0.9879571077146364</v>
       </c>
       <c r="L14">
-        <v>0.968573529826932</v>
+        <v>0.9685735298269342</v>
       </c>
       <c r="M14">
-        <v>0.9661935480514116</v>
+        <v>0.9661935480514128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.943019101874192</v>
+        <v>0.9430191018741919</v>
       </c>
       <c r="D15">
-        <v>0.9736009747704347</v>
+        <v>0.9736009747704343</v>
       </c>
       <c r="E15">
-        <v>0.954026015418422</v>
+        <v>0.9540260154184218</v>
       </c>
       <c r="F15">
-        <v>0.9516771773041949</v>
+        <v>0.9516771773041945</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021134169517729</v>
       </c>
       <c r="J15">
-        <v>0.9748038910832274</v>
+        <v>0.9748038910832272</v>
       </c>
       <c r="K15">
-        <v>0.9889637149372973</v>
+        <v>0.9889637149372968</v>
       </c>
       <c r="L15">
-        <v>0.9697932363892764</v>
+        <v>0.9697932363892758</v>
       </c>
       <c r="M15">
-        <v>0.9674944147796525</v>
+        <v>0.9674944147796524</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9511295997016228</v>
+        <v>0.9511295997016204</v>
       </c>
       <c r="D16">
-        <v>0.9799647366717744</v>
+        <v>0.9799647366717725</v>
       </c>
       <c r="E16">
-        <v>0.9616474176043396</v>
+        <v>0.9616474176043371</v>
       </c>
       <c r="F16">
-        <v>0.9597738370115882</v>
+        <v>0.959773837011586</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024546502564566</v>
+        <v>1.024546502564564</v>
       </c>
       <c r="J16">
-        <v>0.9813424340309967</v>
+        <v>0.9813424340309946</v>
       </c>
       <c r="K16">
-        <v>0.99466763497772</v>
+        <v>0.994667634977718</v>
       </c>
       <c r="L16">
-        <v>0.9767066429317524</v>
+        <v>0.9767066429317499</v>
       </c>
       <c r="M16">
-        <v>0.9748705180207169</v>
+        <v>0.9748705180207144</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9560386153368243</v>
+        <v>0.9560386153368251</v>
       </c>
       <c r="D17">
-        <v>0.9838203649470508</v>
+        <v>0.9838203649470514</v>
       </c>
       <c r="E17">
-        <v>0.9662640411292471</v>
+        <v>0.966264041129248</v>
       </c>
       <c r="F17">
-        <v>0.9646798407432771</v>
+        <v>0.9646798407432778</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026607100720569</v>
       </c>
       <c r="J17">
-        <v>0.9852976732344511</v>
+        <v>0.9852976732344516</v>
       </c>
       <c r="K17">
-        <v>0.9981181563895413</v>
+        <v>0.998118156389542</v>
       </c>
       <c r="L17">
-        <v>0.9808906216895114</v>
+        <v>0.9808906216895121</v>
       </c>
       <c r="M17">
-        <v>0.9793368607030388</v>
+        <v>0.9793368607030395</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9588423847381944</v>
+        <v>0.9588423847381975</v>
       </c>
       <c r="D18">
-        <v>0.9860237384188076</v>
+        <v>0.9860237384188101</v>
       </c>
       <c r="E18">
-        <v>0.9689020321077112</v>
+        <v>0.9689020321077145</v>
       </c>
       <c r="F18">
-        <v>0.9674837429348869</v>
+        <v>0.9674837429348899</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027782237147864</v>
+        <v>1.027782237147866</v>
       </c>
       <c r="J18">
-        <v>0.9875558082911272</v>
+        <v>0.9875558082911301</v>
       </c>
       <c r="K18">
-        <v>1.000088161642034</v>
+        <v>1.000088161642036</v>
       </c>
       <c r="L18">
-        <v>0.9832800526563964</v>
+        <v>0.9832800526563996</v>
       </c>
       <c r="M18">
-        <v>0.9818883907974043</v>
+        <v>0.9818883907974075</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9597887040082892</v>
+        <v>0.9597887040082872</v>
       </c>
       <c r="D19">
-        <v>0.9867676123951026</v>
+        <v>0.9867676123951008</v>
       </c>
       <c r="E19">
-        <v>0.9697925977054035</v>
+        <v>0.9697925977054018</v>
       </c>
       <c r="F19">
-        <v>0.9684304148327237</v>
+        <v>0.968430414832722</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028178560903984</v>
+        <v>1.028178560903983</v>
       </c>
       <c r="J19">
-        <v>0.9883178116138355</v>
+        <v>0.9883178116138337</v>
       </c>
       <c r="K19">
-        <v>1.000752937623483</v>
+        <v>1.000752937623481</v>
       </c>
       <c r="L19">
-        <v>0.9840864801278443</v>
+        <v>0.9840864801278424</v>
       </c>
       <c r="M19">
-        <v>0.9827496696963463</v>
+        <v>0.9827496696963445</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.955518186717453</v>
+        <v>0.9555181867174531</v>
       </c>
       <c r="D20">
-        <v>0.9834114783844949</v>
+        <v>0.9834114783844946</v>
       </c>
       <c r="E20">
-        <v>0.9657744812791027</v>
+        <v>0.9657744812791025</v>
       </c>
       <c r="F20">
-        <v>0.9641595366186824</v>
+        <v>0.9641595366186825</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,10 +1126,10 @@
         <v>0.9848784505420359</v>
       </c>
       <c r="K20">
-        <v>0.9977524263487704</v>
+        <v>0.9977524263487701</v>
       </c>
       <c r="L20">
-        <v>0.9804470809685114</v>
+        <v>0.9804470809685112</v>
       </c>
       <c r="M20">
         <v>0.9788632988493126</v>
@@ -1143,7 +1143,7 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9409003717903656</v>
+        <v>0.9409003717903658</v>
       </c>
       <c r="D21">
         <v>0.9719399140954068</v>
@@ -1152,7 +1152,7 @@
         <v>0.9520363001086984</v>
       </c>
       <c r="F21">
-        <v>0.9495638475509911</v>
+        <v>0.9495638475509912</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02024127565066</v>
       </c>
       <c r="J21">
-        <v>0.9730951126216928</v>
+        <v>0.973095112621693</v>
       </c>
       <c r="K21">
-        <v>0.9874731341282017</v>
+        <v>0.9874731341282016</v>
       </c>
       <c r="L21">
-        <v>0.9679871330940514</v>
+        <v>0.9679871330940513</v>
       </c>
       <c r="M21">
-        <v>0.9655681803525249</v>
+        <v>0.965568180352525</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9310617968495559</v>
+        <v>0.9310617968495553</v>
       </c>
       <c r="D22">
-        <v>0.9642343903192975</v>
+        <v>0.9642343903192968</v>
       </c>
       <c r="E22">
-        <v>0.9428036847038131</v>
+        <v>0.9428036847038127</v>
       </c>
       <c r="F22">
-        <v>0.9397598277487226</v>
+        <v>0.939759827748722</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016087920903136</v>
       </c>
       <c r="J22">
-        <v>0.9651570589407457</v>
+        <v>0.965157058940745</v>
       </c>
       <c r="K22">
-        <v>0.9805493012828624</v>
+        <v>0.9805493012828619</v>
       </c>
       <c r="L22">
-        <v>0.959600245705455</v>
+        <v>0.9596002457054547</v>
       </c>
       <c r="M22">
-        <v>0.9566271845561171</v>
+        <v>0.9566271845561166</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9363450457444003</v>
+        <v>0.9363450457444011</v>
       </c>
       <c r="D23">
-        <v>0.968370580370178</v>
+        <v>0.9683705803701788</v>
       </c>
       <c r="E23">
-        <v>0.9477601262367679</v>
+        <v>0.947760126236769</v>
       </c>
       <c r="F23">
-        <v>0.9450225951997688</v>
+        <v>0.9450225951997691</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018319635038014</v>
       </c>
       <c r="J23">
-        <v>0.9694203407440218</v>
+        <v>0.9694203407440226</v>
       </c>
       <c r="K23">
-        <v>0.9842677440250802</v>
+        <v>0.9842677440250809</v>
       </c>
       <c r="L23">
-        <v>0.9641039233142938</v>
+        <v>0.9641039233142947</v>
       </c>
       <c r="M23">
-        <v>0.9614276692477699</v>
+        <v>0.96142766924777</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.955753528988145</v>
+        <v>0.9557535289881465</v>
       </c>
       <c r="D24">
-        <v>0.9835963765423736</v>
+        <v>0.9835963765423752</v>
       </c>
       <c r="E24">
-        <v>0.9659958606448661</v>
+        <v>0.9659958606448676</v>
       </c>
       <c r="F24">
-        <v>0.9643948168328216</v>
+        <v>0.9643948168328226</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026487539357899</v>
       </c>
       <c r="J24">
-        <v>0.985068029407834</v>
+        <v>0.9850680294078352</v>
       </c>
       <c r="K24">
-        <v>0.9979178149550616</v>
+        <v>0.997917814955063</v>
       </c>
       <c r="L24">
-        <v>0.9806476546248997</v>
+        <v>0.980647654624901</v>
       </c>
       <c r="M24">
-        <v>0.9790774457382518</v>
+        <v>0.9790774457382527</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9759666748642833</v>
+        <v>0.9759666748642842</v>
       </c>
       <c r="D25">
-        <v>0.9994990969218064</v>
+        <v>0.9994990969218074</v>
       </c>
       <c r="E25">
-        <v>0.98503283557594</v>
+        <v>0.9850328355759408</v>
       </c>
       <c r="F25">
-        <v>0.9846391958856433</v>
+        <v>0.9846391958856442</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034927419442172</v>
+        <v>1.034927419442173</v>
       </c>
       <c r="J25">
-        <v>1.001330838224282</v>
+        <v>1.001330838224283</v>
       </c>
       <c r="K25">
-        <v>1.012105193745183</v>
+        <v>1.012105193745184</v>
       </c>
       <c r="L25">
-        <v>0.997868027777821</v>
+        <v>0.9978680277778219</v>
       </c>
       <c r="M25">
-        <v>0.9974807427223551</v>
+        <v>0.9974807427223563</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906472822878198</v>
+        <v>0.9906472822878215</v>
       </c>
       <c r="D2">
-        <v>1.011072986883795</v>
+        <v>1.011072986883796</v>
       </c>
       <c r="E2">
-        <v>0.998887421019418</v>
+        <v>0.9988874210194193</v>
       </c>
       <c r="F2">
-        <v>0.9993906101580523</v>
+        <v>0.9993906101580533</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.041000018524341</v>
       </c>
       <c r="J2">
-        <v>1.013111376021044</v>
+        <v>1.013111376021045</v>
       </c>
       <c r="K2">
-        <v>1.022380183111993</v>
+        <v>1.022380183111994</v>
       </c>
       <c r="L2">
-        <v>1.010362277626971</v>
+        <v>1.010362277626973</v>
       </c>
       <c r="M2">
-        <v>1.010858441282603</v>
+        <v>1.010858441282605</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.000624845888906</v>
+        <v>1.000624845888904</v>
       </c>
       <c r="D3">
-        <v>1.018948217658135</v>
+        <v>1.018948217658133</v>
       </c>
       <c r="E3">
-        <v>1.008317007936613</v>
+        <v>1.008317007936611</v>
       </c>
       <c r="F3">
-        <v>1.009441550254147</v>
+        <v>1.009441550254145</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045092578068763</v>
+        <v>1.045092578068762</v>
       </c>
       <c r="J3">
-        <v>1.021098491456837</v>
+        <v>1.021098491456835</v>
       </c>
       <c r="K3">
-        <v>1.029344259745393</v>
+        <v>1.029344259745391</v>
       </c>
       <c r="L3">
-        <v>1.018844565738503</v>
+        <v>1.018844565738501</v>
       </c>
       <c r="M3">
-        <v>1.01995503337532</v>
+        <v>1.019955033375318</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006805718750837</v>
+        <v>1.006805718750838</v>
       </c>
       <c r="D4">
         <v>1.02382971070063</v>
       </c>
       <c r="E4">
-        <v>1.014163872828329</v>
+        <v>1.01416387282833</v>
       </c>
       <c r="F4">
-        <v>1.015678890886423</v>
+        <v>1.015678890886424</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>1.033648793732</v>
       </c>
       <c r="L4">
-        <v>1.024094305885417</v>
+        <v>1.024094305885418</v>
       </c>
       <c r="M4">
         <v>1.025591697888127</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009343395633972</v>
+        <v>1.009343395633969</v>
       </c>
       <c r="D5">
-        <v>1.025834451272457</v>
+        <v>1.025834451272455</v>
       </c>
       <c r="E5">
-        <v>1.01656562817395</v>
+        <v>1.016565628173947</v>
       </c>
       <c r="F5">
-        <v>1.018242311837037</v>
+        <v>1.018242311837035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04864146175724</v>
+        <v>1.048641461757239</v>
       </c>
       <c r="J5">
-        <v>1.028062174493171</v>
+        <v>1.028062174493169</v>
       </c>
       <c r="K5">
-        <v>1.035413721668004</v>
+        <v>1.035413721668002</v>
       </c>
       <c r="L5">
-        <v>1.026248455698837</v>
+        <v>1.026248455698833</v>
       </c>
       <c r="M5">
-        <v>1.027906234366208</v>
+        <v>1.027906234366206</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009766057154075</v>
+        <v>1.009766057154076</v>
       </c>
       <c r="D6">
         <v>1.026168377740699</v>
@@ -594,7 +594,7 @@
         <v>1.028399351733522</v>
       </c>
       <c r="K6">
-        <v>1.035707535737517</v>
+        <v>1.035707535737518</v>
       </c>
       <c r="L6">
         <v>1.02660716460772</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006839859752697</v>
+        <v>1.006839859752695</v>
       </c>
       <c r="D7">
-        <v>1.023856679790992</v>
+        <v>1.023856679790991</v>
       </c>
       <c r="E7">
-        <v>1.014196180500004</v>
+        <v>1.014196180500003</v>
       </c>
       <c r="F7">
-        <v>1.015713368181576</v>
+        <v>1.015713368181574</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047625225890803</v>
+        <v>1.047625225890802</v>
       </c>
       <c r="J7">
-        <v>1.026064177593806</v>
+        <v>1.026064177593805</v>
       </c>
       <c r="K7">
-        <v>1.033672548009716</v>
+        <v>1.033672548009714</v>
       </c>
       <c r="L7">
-        <v>1.024123292029925</v>
+        <v>1.024123292029923</v>
       </c>
       <c r="M7">
-        <v>1.025622835759251</v>
+        <v>1.025622835759249</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9940795553070609</v>
+        <v>0.9940795553070606</v>
       </c>
       <c r="D8">
         <v>1.013781320262474</v>
@@ -676,7 +676,7 @@
         <v>1.013281162659457</v>
       </c>
       <c r="M8">
-        <v>1.013987286109813</v>
+        <v>1.013987286109814</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9692131206997761</v>
+        <v>0.9692131206997749</v>
       </c>
       <c r="D9">
-        <v>0.9941810968972308</v>
+        <v>0.9941810968972298</v>
       </c>
       <c r="E9">
-        <v>0.9786672161874159</v>
+        <v>0.9786672161874151</v>
       </c>
       <c r="F9">
-        <v>0.9778669905919368</v>
+        <v>0.9778669905919354</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032116534555442</v>
+        <v>1.032116534555441</v>
       </c>
       <c r="J9">
-        <v>0.9959019300119711</v>
+        <v>0.99590193001197</v>
       </c>
       <c r="K9">
         <v>1.007369292548812</v>
       </c>
       <c r="L9">
-        <v>0.9921161526033652</v>
+        <v>0.9921161526033643</v>
       </c>
       <c r="M9">
-        <v>0.9913296664038401</v>
+        <v>0.9913296664038391</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505664429153969</v>
+        <v>0.9505664429153996</v>
       </c>
       <c r="D10">
-        <v>0.9795226050307715</v>
+        <v>0.9795226050307738</v>
       </c>
       <c r="E10">
-        <v>0.9611179784666721</v>
+        <v>0.9611179784666747</v>
       </c>
       <c r="F10">
-        <v>0.9592112868676973</v>
+        <v>0.9592112868676992</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024309872726846</v>
+        <v>1.024309872726848</v>
       </c>
       <c r="J10">
-        <v>0.980888574587367</v>
+        <v>0.9808885745873698</v>
       </c>
       <c r="K10">
-        <v>0.9942716970076036</v>
+        <v>0.994271697007606</v>
       </c>
       <c r="L10">
-        <v>0.9762266335882065</v>
+        <v>0.9762266335882093</v>
       </c>
       <c r="M10">
-        <v>0.9743582306246625</v>
+        <v>0.9743582306246644</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9418622707721021</v>
+        <v>0.9418622707721038</v>
       </c>
       <c r="D11">
-        <v>0.9726939603091859</v>
+        <v>0.9726939603091873</v>
       </c>
       <c r="E11">
-        <v>0.9529395622370269</v>
+        <v>0.9529395622370288</v>
       </c>
       <c r="F11">
-        <v>0.9505232041102</v>
+        <v>0.9505232041102016</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020646719346397</v>
+        <v>1.020646719346398</v>
       </c>
       <c r="J11">
-        <v>0.9738709272779861</v>
+        <v>0.9738709272779879</v>
       </c>
       <c r="K11">
-        <v>0.9881498785552842</v>
+        <v>0.9881498785552857</v>
       </c>
       <c r="L11">
-        <v>0.9688071028455972</v>
+        <v>0.9688071028455991</v>
       </c>
       <c r="M11">
-        <v>0.9664426526437686</v>
+        <v>0.9664426526437706</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9385190459545711</v>
+        <v>0.9385190459545748</v>
       </c>
       <c r="D12">
-        <v>0.9700736790791518</v>
+        <v>0.9700736790791551</v>
       </c>
       <c r="E12">
-        <v>0.9498006009971142</v>
+        <v>0.949800600997118</v>
       </c>
       <c r="F12">
-        <v>0.9471894614736235</v>
+        <v>0.9471894614736268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019237039365857</v>
+        <v>1.01923703936586</v>
       </c>
       <c r="J12">
-        <v>0.9711742411566439</v>
+        <v>0.9711742411566473</v>
       </c>
       <c r="K12">
-        <v>0.985797591374692</v>
+        <v>0.9857975913746955</v>
       </c>
       <c r="L12">
-        <v>0.9659571624841446</v>
+        <v>0.9659571624841483</v>
       </c>
       <c r="M12">
-        <v>0.9634035390587281</v>
+        <v>0.9634035390587316</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9392414516687871</v>
+        <v>0.939241451668788</v>
       </c>
       <c r="D13">
-        <v>0.9706397465843407</v>
+        <v>0.9706397465843412</v>
       </c>
       <c r="E13">
-        <v>0.950478759248151</v>
+        <v>0.9504787592481517</v>
       </c>
       <c r="F13">
-        <v>0.9479096650147826</v>
+        <v>0.9479096650147835</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.019541761253638</v>
       </c>
       <c r="J13">
-        <v>0.9717569952333214</v>
+        <v>0.9717569952333224</v>
       </c>
       <c r="K13">
-        <v>0.986305911874535</v>
+        <v>0.9863059118745356</v>
       </c>
       <c r="L13">
-        <v>0.9665729812656897</v>
+        <v>0.9665729812656906</v>
       </c>
       <c r="M13">
-        <v>0.9640601733698131</v>
+        <v>0.9640601733698138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9415882679425693</v>
+        <v>0.9415882679425674</v>
       </c>
       <c r="D14">
-        <v>0.9724791534045343</v>
+        <v>0.9724791534045331</v>
       </c>
       <c r="E14">
-        <v>0.9526822515525954</v>
+        <v>0.9526822515525936</v>
       </c>
       <c r="F14">
-        <v>0.950249910169198</v>
+        <v>0.9502499101691966</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020531238269974</v>
       </c>
       <c r="J14">
-        <v>0.9736499372017318</v>
+        <v>0.9736499372017299</v>
       </c>
       <c r="K14">
-        <v>0.9879571077146364</v>
+        <v>0.987957107714635</v>
       </c>
       <c r="L14">
-        <v>0.9685735298269342</v>
+        <v>0.968573529826932</v>
       </c>
       <c r="M14">
-        <v>0.9661935480514128</v>
+        <v>0.9661935480514116</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9430191018741919</v>
+        <v>0.943019101874192</v>
       </c>
       <c r="D15">
-        <v>0.9736009747704343</v>
+        <v>0.9736009747704347</v>
       </c>
       <c r="E15">
-        <v>0.9540260154184218</v>
+        <v>0.954026015418422</v>
       </c>
       <c r="F15">
-        <v>0.9516771773041945</v>
+        <v>0.9516771773041949</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021134169517729</v>
       </c>
       <c r="J15">
-        <v>0.9748038910832272</v>
+        <v>0.9748038910832274</v>
       </c>
       <c r="K15">
-        <v>0.9889637149372968</v>
+        <v>0.9889637149372973</v>
       </c>
       <c r="L15">
-        <v>0.9697932363892758</v>
+        <v>0.9697932363892764</v>
       </c>
       <c r="M15">
-        <v>0.9674944147796524</v>
+        <v>0.9674944147796525</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9511295997016204</v>
+        <v>0.9511295997016228</v>
       </c>
       <c r="D16">
-        <v>0.9799647366717725</v>
+        <v>0.9799647366717744</v>
       </c>
       <c r="E16">
-        <v>0.9616474176043371</v>
+        <v>0.9616474176043396</v>
       </c>
       <c r="F16">
-        <v>0.959773837011586</v>
+        <v>0.9597738370115882</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024546502564564</v>
+        <v>1.024546502564566</v>
       </c>
       <c r="J16">
-        <v>0.9813424340309946</v>
+        <v>0.9813424340309967</v>
       </c>
       <c r="K16">
-        <v>0.994667634977718</v>
+        <v>0.99466763497772</v>
       </c>
       <c r="L16">
-        <v>0.9767066429317499</v>
+        <v>0.9767066429317524</v>
       </c>
       <c r="M16">
-        <v>0.9748705180207144</v>
+        <v>0.9748705180207169</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9560386153368251</v>
+        <v>0.9560386153368243</v>
       </c>
       <c r="D17">
-        <v>0.9838203649470514</v>
+        <v>0.9838203649470508</v>
       </c>
       <c r="E17">
-        <v>0.966264041129248</v>
+        <v>0.9662640411292471</v>
       </c>
       <c r="F17">
-        <v>0.9646798407432778</v>
+        <v>0.9646798407432771</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026607100720569</v>
       </c>
       <c r="J17">
-        <v>0.9852976732344516</v>
+        <v>0.9852976732344511</v>
       </c>
       <c r="K17">
-        <v>0.998118156389542</v>
+        <v>0.9981181563895413</v>
       </c>
       <c r="L17">
-        <v>0.9808906216895121</v>
+        <v>0.9808906216895114</v>
       </c>
       <c r="M17">
-        <v>0.9793368607030395</v>
+        <v>0.9793368607030388</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9588423847381975</v>
+        <v>0.9588423847381944</v>
       </c>
       <c r="D18">
-        <v>0.9860237384188101</v>
+        <v>0.9860237384188076</v>
       </c>
       <c r="E18">
-        <v>0.9689020321077145</v>
+        <v>0.9689020321077112</v>
       </c>
       <c r="F18">
-        <v>0.9674837429348899</v>
+        <v>0.9674837429348869</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027782237147866</v>
+        <v>1.027782237147864</v>
       </c>
       <c r="J18">
-        <v>0.9875558082911301</v>
+        <v>0.9875558082911272</v>
       </c>
       <c r="K18">
-        <v>1.000088161642036</v>
+        <v>1.000088161642034</v>
       </c>
       <c r="L18">
-        <v>0.9832800526563996</v>
+        <v>0.9832800526563964</v>
       </c>
       <c r="M18">
-        <v>0.9818883907974075</v>
+        <v>0.9818883907974043</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9597887040082872</v>
+        <v>0.9597887040082892</v>
       </c>
       <c r="D19">
-        <v>0.9867676123951008</v>
+        <v>0.9867676123951026</v>
       </c>
       <c r="E19">
-        <v>0.9697925977054018</v>
+        <v>0.9697925977054035</v>
       </c>
       <c r="F19">
-        <v>0.968430414832722</v>
+        <v>0.9684304148327237</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028178560903983</v>
+        <v>1.028178560903984</v>
       </c>
       <c r="J19">
-        <v>0.9883178116138337</v>
+        <v>0.9883178116138355</v>
       </c>
       <c r="K19">
-        <v>1.000752937623481</v>
+        <v>1.000752937623483</v>
       </c>
       <c r="L19">
-        <v>0.9840864801278424</v>
+        <v>0.9840864801278443</v>
       </c>
       <c r="M19">
-        <v>0.9827496696963445</v>
+        <v>0.9827496696963463</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9555181867174531</v>
+        <v>0.955518186717453</v>
       </c>
       <c r="D20">
-        <v>0.9834114783844946</v>
+        <v>0.9834114783844949</v>
       </c>
       <c r="E20">
-        <v>0.9657744812791025</v>
+        <v>0.9657744812791027</v>
       </c>
       <c r="F20">
-        <v>0.9641595366186825</v>
+        <v>0.9641595366186824</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,10 +1126,10 @@
         <v>0.9848784505420359</v>
       </c>
       <c r="K20">
-        <v>0.9977524263487701</v>
+        <v>0.9977524263487704</v>
       </c>
       <c r="L20">
-        <v>0.9804470809685112</v>
+        <v>0.9804470809685114</v>
       </c>
       <c r="M20">
         <v>0.9788632988493126</v>
@@ -1143,7 +1143,7 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9409003717903658</v>
+        <v>0.9409003717903656</v>
       </c>
       <c r="D21">
         <v>0.9719399140954068</v>
@@ -1152,7 +1152,7 @@
         <v>0.9520363001086984</v>
       </c>
       <c r="F21">
-        <v>0.9495638475509912</v>
+        <v>0.9495638475509911</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.02024127565066</v>
       </c>
       <c r="J21">
-        <v>0.973095112621693</v>
+        <v>0.9730951126216928</v>
       </c>
       <c r="K21">
-        <v>0.9874731341282016</v>
+        <v>0.9874731341282017</v>
       </c>
       <c r="L21">
-        <v>0.9679871330940513</v>
+        <v>0.9679871330940514</v>
       </c>
       <c r="M21">
-        <v>0.965568180352525</v>
+        <v>0.9655681803525249</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9310617968495553</v>
+        <v>0.9310617968495559</v>
       </c>
       <c r="D22">
-        <v>0.9642343903192968</v>
+        <v>0.9642343903192975</v>
       </c>
       <c r="E22">
-        <v>0.9428036847038127</v>
+        <v>0.9428036847038131</v>
       </c>
       <c r="F22">
-        <v>0.939759827748722</v>
+        <v>0.9397598277487226</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016087920903136</v>
       </c>
       <c r="J22">
-        <v>0.965157058940745</v>
+        <v>0.9651570589407457</v>
       </c>
       <c r="K22">
-        <v>0.9805493012828619</v>
+        <v>0.9805493012828624</v>
       </c>
       <c r="L22">
-        <v>0.9596002457054547</v>
+        <v>0.959600245705455</v>
       </c>
       <c r="M22">
-        <v>0.9566271845561166</v>
+        <v>0.9566271845561171</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9363450457444011</v>
+        <v>0.9363450457444003</v>
       </c>
       <c r="D23">
-        <v>0.9683705803701788</v>
+        <v>0.968370580370178</v>
       </c>
       <c r="E23">
-        <v>0.947760126236769</v>
+        <v>0.9477601262367679</v>
       </c>
       <c r="F23">
-        <v>0.9450225951997691</v>
+        <v>0.9450225951997688</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018319635038014</v>
       </c>
       <c r="J23">
-        <v>0.9694203407440226</v>
+        <v>0.9694203407440218</v>
       </c>
       <c r="K23">
-        <v>0.9842677440250809</v>
+        <v>0.9842677440250802</v>
       </c>
       <c r="L23">
-        <v>0.9641039233142947</v>
+        <v>0.9641039233142938</v>
       </c>
       <c r="M23">
-        <v>0.96142766924777</v>
+        <v>0.9614276692477699</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9557535289881465</v>
+        <v>0.955753528988145</v>
       </c>
       <c r="D24">
-        <v>0.9835963765423752</v>
+        <v>0.9835963765423736</v>
       </c>
       <c r="E24">
-        <v>0.9659958606448676</v>
+        <v>0.9659958606448661</v>
       </c>
       <c r="F24">
-        <v>0.9643948168328226</v>
+        <v>0.9643948168328216</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026487539357899</v>
       </c>
       <c r="J24">
-        <v>0.9850680294078352</v>
+        <v>0.985068029407834</v>
       </c>
       <c r="K24">
-        <v>0.997917814955063</v>
+        <v>0.9979178149550616</v>
       </c>
       <c r="L24">
-        <v>0.980647654624901</v>
+        <v>0.9806476546248997</v>
       </c>
       <c r="M24">
-        <v>0.9790774457382527</v>
+        <v>0.9790774457382518</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9759666748642842</v>
+        <v>0.9759666748642833</v>
       </c>
       <c r="D25">
-        <v>0.9994990969218074</v>
+        <v>0.9994990969218064</v>
       </c>
       <c r="E25">
-        <v>0.9850328355759408</v>
+        <v>0.98503283557594</v>
       </c>
       <c r="F25">
-        <v>0.9846391958856442</v>
+        <v>0.9846391958856433</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034927419442173</v>
+        <v>1.034927419442172</v>
       </c>
       <c r="J25">
-        <v>1.001330838224283</v>
+        <v>1.001330838224282</v>
       </c>
       <c r="K25">
-        <v>1.012105193745184</v>
+        <v>1.012105193745183</v>
       </c>
       <c r="L25">
-        <v>0.9978680277778219</v>
+        <v>0.997868027777821</v>
       </c>
       <c r="M25">
-        <v>0.9974807427223563</v>
+        <v>0.9974807427223551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906472822878215</v>
+        <v>0.9907147520458762</v>
       </c>
       <c r="D2">
-        <v>1.011072986883796</v>
+        <v>1.011128428011024</v>
       </c>
       <c r="E2">
-        <v>0.9988874210194193</v>
+        <v>0.998954414282659</v>
       </c>
       <c r="F2">
-        <v>0.9993906101580533</v>
+        <v>0.9994485488195217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041000018524341</v>
+        <v>1.041032348332233</v>
       </c>
       <c r="J2">
-        <v>1.013111376021045</v>
+        <v>1.013176775047215</v>
       </c>
       <c r="K2">
-        <v>1.022380183111994</v>
+        <v>1.022434873046585</v>
       </c>
       <c r="L2">
-        <v>1.010362277626973</v>
+        <v>1.010428335020531</v>
       </c>
       <c r="M2">
-        <v>1.010858441282605</v>
+        <v>1.010915571582747</v>
+      </c>
+      <c r="N2">
+        <v>1.003685300336567</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000624845888904</v>
+        <v>1.00067758447768</v>
       </c>
       <c r="D3">
-        <v>1.018948217658133</v>
+        <v>1.018991627229781</v>
       </c>
       <c r="E3">
-        <v>1.008317007936611</v>
+        <v>1.00836944542638</v>
       </c>
       <c r="F3">
-        <v>1.009441550254145</v>
+        <v>1.009486742273638</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045092578068762</v>
+        <v>1.04511791794794</v>
       </c>
       <c r="J3">
-        <v>1.021098491456835</v>
+        <v>1.02114979488502</v>
       </c>
       <c r="K3">
-        <v>1.029344259745391</v>
+        <v>1.029387139303526</v>
       </c>
       <c r="L3">
-        <v>1.018844565738501</v>
+        <v>1.018896346054897</v>
       </c>
       <c r="M3">
-        <v>1.019955033375318</v>
+        <v>1.019999660592069</v>
+      </c>
+      <c r="N3">
+        <v>1.010098788600441</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006805718750838</v>
+        <v>1.006849710861631</v>
       </c>
       <c r="D4">
-        <v>1.02382971070063</v>
+        <v>1.023865957345314</v>
       </c>
       <c r="E4">
-        <v>1.01416387282833</v>
+        <v>1.014207648886882</v>
       </c>
       <c r="F4">
-        <v>1.015678890886424</v>
+        <v>1.015716539471756</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047611351107258</v>
+        <v>1.047632523662337</v>
       </c>
       <c r="J4">
-        <v>1.026036921299161</v>
+        <v>1.026079808586427</v>
       </c>
       <c r="K4">
-        <v>1.033648793732</v>
+        <v>1.033684627697744</v>
       </c>
       <c r="L4">
-        <v>1.024094305885418</v>
+        <v>1.024137571730015</v>
       </c>
       <c r="M4">
-        <v>1.025591697888127</v>
+        <v>1.025628909289153</v>
+      </c>
+      <c r="N4">
+        <v>1.014045099368135</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009343395633969</v>
+        <v>1.009383875722238</v>
       </c>
       <c r="D5">
-        <v>1.025834451272455</v>
+        <v>1.025867817681351</v>
       </c>
       <c r="E5">
-        <v>1.016565628173947</v>
+        <v>1.016605922364447</v>
       </c>
       <c r="F5">
-        <v>1.018242311837035</v>
+        <v>1.018276936761928</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048641461757239</v>
+        <v>1.048660957271313</v>
       </c>
       <c r="J5">
-        <v>1.028062174493169</v>
+        <v>1.028101672337358</v>
       </c>
       <c r="K5">
-        <v>1.035413721668002</v>
+        <v>1.035446719442095</v>
       </c>
       <c r="L5">
-        <v>1.026248455698833</v>
+        <v>1.026288294661856</v>
       </c>
       <c r="M5">
-        <v>1.027906234366206</v>
+        <v>1.027940469695245</v>
+      </c>
+      <c r="N5">
+        <v>1.01565888439881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009766057154076</v>
+        <v>1.009805956637879</v>
       </c>
       <c r="D6">
-        <v>1.026168377740699</v>
+        <v>1.026201267766892</v>
       </c>
       <c r="E6">
-        <v>1.01696572007737</v>
+        <v>1.017005438428557</v>
       </c>
       <c r="F6">
-        <v>1.01866940960073</v>
+        <v>1.018703534951789</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04881279284253</v>
+        <v>1.048832010901368</v>
       </c>
       <c r="J6">
-        <v>1.028399351733522</v>
+        <v>1.028438288677447</v>
       </c>
       <c r="K6">
-        <v>1.035707535737518</v>
+        <v>1.035740064237086</v>
       </c>
       <c r="L6">
-        <v>1.02660716460772</v>
+        <v>1.026646436595899</v>
       </c>
       <c r="M6">
-        <v>1.028291746219473</v>
+        <v>1.028325489637775</v>
+      </c>
+      <c r="N6">
+        <v>1.015927286854625</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006839859752695</v>
+        <v>1.006883804314821</v>
       </c>
       <c r="D7">
-        <v>1.023856679790991</v>
+        <v>1.02389288745623</v>
       </c>
       <c r="E7">
-        <v>1.014196180500003</v>
+        <v>1.014239909433408</v>
       </c>
       <c r="F7">
-        <v>1.015713368181574</v>
+        <v>1.015750975809692</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047625225890802</v>
+        <v>1.047646375755077</v>
       </c>
       <c r="J7">
-        <v>1.026064177593805</v>
+        <v>1.026107019030733</v>
       </c>
       <c r="K7">
-        <v>1.033672548009714</v>
+        <v>1.033708343604241</v>
       </c>
       <c r="L7">
-        <v>1.024123292029923</v>
+        <v>1.024166511509398</v>
       </c>
       <c r="M7">
-        <v>1.025622835759249</v>
+        <v>1.025660006861454</v>
+      </c>
+      <c r="N7">
+        <v>1.014066836305815</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9940795553070606</v>
+        <v>0.9941418686644908</v>
       </c>
       <c r="D8">
-        <v>1.013781320262474</v>
+        <v>1.013832554573072</v>
       </c>
       <c r="E8">
-        <v>1.002129966022788</v>
+        <v>1.002191868869681</v>
       </c>
       <c r="F8">
-        <v>1.00284572448113</v>
+        <v>1.002899195528842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042411320780072</v>
+        <v>1.042441207908318</v>
       </c>
       <c r="J8">
-        <v>1.015860902179881</v>
+        <v>1.015921378420937</v>
       </c>
       <c r="K8">
-        <v>1.02477779537528</v>
+        <v>1.024828359172493</v>
       </c>
       <c r="L8">
-        <v>1.013281162659457</v>
+        <v>1.013342231532832</v>
       </c>
       <c r="M8">
-        <v>1.013987286109814</v>
+        <v>1.014040038063944</v>
+      </c>
+      <c r="N8">
+        <v>1.005897192962345</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9692131206997749</v>
+        <v>0.9693151391617034</v>
       </c>
       <c r="D9">
-        <v>0.9941810968972298</v>
+        <v>0.9942645973887421</v>
       </c>
       <c r="E9">
-        <v>0.9786672161874151</v>
+        <v>0.9787681896169653</v>
       </c>
       <c r="F9">
-        <v>0.9778669905919354</v>
+        <v>0.9779550190018167</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032116534555441</v>
+        <v>1.032165124687821</v>
       </c>
       <c r="J9">
-        <v>0.99590193001197</v>
+        <v>0.9960000154678339</v>
       </c>
       <c r="K9">
-        <v>1.007369292548812</v>
+        <v>1.007451417974783</v>
       </c>
       <c r="L9">
-        <v>0.9921161526033643</v>
+        <v>0.9922153944423794</v>
       </c>
       <c r="M9">
-        <v>0.9913296664038391</v>
+        <v>0.9914161819955962</v>
+      </c>
+      <c r="N9">
+        <v>0.9897557213337231</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9505664429153996</v>
+        <v>0.9507023576446942</v>
       </c>
       <c r="D10">
-        <v>0.9795226050307738</v>
+        <v>0.9796334259112452</v>
       </c>
       <c r="E10">
-        <v>0.9611179784666747</v>
+        <v>0.9612520819531276</v>
       </c>
       <c r="F10">
-        <v>0.9592112868676992</v>
+        <v>0.9593290827080327</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024309872726848</v>
+        <v>1.024374249883088</v>
       </c>
       <c r="J10">
-        <v>0.9808885745873698</v>
+        <v>0.9810182594063058</v>
       </c>
       <c r="K10">
-        <v>0.994271697007606</v>
+        <v>0.9943804063529935</v>
       </c>
       <c r="L10">
-        <v>0.9762266335882093</v>
+        <v>0.9763580516383473</v>
       </c>
       <c r="M10">
-        <v>0.9743582306246644</v>
+        <v>0.974473655178046</v>
+      </c>
+      <c r="N10">
+        <v>0.9775033179350985</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9418622707721038</v>
+        <v>0.9420154663588436</v>
       </c>
       <c r="D11">
-        <v>0.9726939603091873</v>
+        <v>0.9728186329332801</v>
       </c>
       <c r="E11">
-        <v>0.9529395622370288</v>
+        <v>0.9530904797680394</v>
       </c>
       <c r="F11">
-        <v>0.9505232041102016</v>
+        <v>0.9506562616658396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020646719346398</v>
+        <v>1.020719086786469</v>
       </c>
       <c r="J11">
-        <v>0.9738709272779879</v>
+        <v>0.9740165571914756</v>
       </c>
       <c r="K11">
-        <v>0.9881498785552857</v>
+        <v>0.9882720233007893</v>
       </c>
       <c r="L11">
-        <v>0.9688071028455991</v>
+        <v>0.9689547899589133</v>
       </c>
       <c r="M11">
-        <v>0.9664426526437706</v>
+        <v>0.9665728427652914</v>
+      </c>
+      <c r="N11">
+        <v>0.9717500470568909</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9385190459545748</v>
+        <v>0.9386791557646748</v>
       </c>
       <c r="D12">
-        <v>0.9700736790791551</v>
+        <v>0.9702038798615346</v>
       </c>
       <c r="E12">
-        <v>0.949800600997118</v>
+        <v>0.9499582320526266</v>
       </c>
       <c r="F12">
-        <v>0.9471894614736268</v>
+        <v>0.9473286406206226</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.01923703936586</v>
+        <v>1.019312593383182</v>
       </c>
       <c r="J12">
-        <v>0.9711742411566473</v>
+        <v>0.971326221457902</v>
       </c>
       <c r="K12">
-        <v>0.9857975913746955</v>
+        <v>0.9859250907034444</v>
       </c>
       <c r="L12">
-        <v>0.9659571624841483</v>
+        <v>0.9661113348201568</v>
       </c>
       <c r="M12">
-        <v>0.9634035390587316</v>
+        <v>0.9635396418358557</v>
+      </c>
+      <c r="N12">
+        <v>0.9695353299505901</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.939241451668788</v>
+        <v>0.9394000538606622</v>
       </c>
       <c r="D13">
-        <v>0.9706397465843412</v>
+        <v>0.9707687426497764</v>
       </c>
       <c r="E13">
-        <v>0.9504787592481517</v>
+        <v>0.9506349271155997</v>
       </c>
       <c r="F13">
-        <v>0.9479096650147835</v>
+        <v>0.9480475086491695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019541761253638</v>
+        <v>1.019616620946906</v>
       </c>
       <c r="J13">
-        <v>0.9717569952333224</v>
+        <v>0.9719075922571867</v>
       </c>
       <c r="K13">
-        <v>0.9863059118745356</v>
+        <v>0.9864322446613207</v>
       </c>
       <c r="L13">
-        <v>0.9665729812656906</v>
+        <v>0.9667257406780481</v>
       </c>
       <c r="M13">
-        <v>0.9640601733698138</v>
+        <v>0.9641949866880449</v>
+      </c>
+      <c r="N13">
+        <v>0.9700141050572471</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9415882679425674</v>
+        <v>0.9417420242218036</v>
       </c>
       <c r="D14">
-        <v>0.9724791534045331</v>
+        <v>0.9726042746175132</v>
       </c>
       <c r="E14">
-        <v>0.9526822515525936</v>
+        <v>0.9528337137940315</v>
       </c>
       <c r="F14">
-        <v>0.9502499101691966</v>
+        <v>0.9503834638223794</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020531238269974</v>
+        <v>1.020603864335776</v>
       </c>
       <c r="J14">
-        <v>0.9736499372017299</v>
+        <v>0.9737960826991813</v>
       </c>
       <c r="K14">
-        <v>0.987957107714635</v>
+        <v>0.9880796871177561</v>
       </c>
       <c r="L14">
-        <v>0.968573529826932</v>
+        <v>0.9687217433500672</v>
       </c>
       <c r="M14">
-        <v>0.9661935480514116</v>
+        <v>0.9663242175452371</v>
+      </c>
+      <c r="N14">
+        <v>0.971568632047721</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.943019101874192</v>
+        <v>0.9431699418015204</v>
       </c>
       <c r="D15">
-        <v>0.9736009747704347</v>
+        <v>0.9737237621463978</v>
       </c>
       <c r="E15">
-        <v>0.954026015418422</v>
+        <v>0.9541746438674367</v>
       </c>
       <c r="F15">
-        <v>0.9516771773041949</v>
+        <v>0.9518081512058894</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021134169517729</v>
+        <v>1.021205449959563</v>
       </c>
       <c r="J15">
-        <v>0.9748038910832274</v>
+        <v>0.9749473536574579</v>
       </c>
       <c r="K15">
-        <v>0.9889637149372973</v>
+        <v>0.9890840326817898</v>
       </c>
       <c r="L15">
-        <v>0.9697932363892764</v>
+        <v>0.969938710891704</v>
       </c>
       <c r="M15">
-        <v>0.9674944147796525</v>
+        <v>0.9676225910914014</v>
+      </c>
+      <c r="N15">
+        <v>0.9725157779653598</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9511295997016228</v>
+        <v>0.951264430519923</v>
       </c>
       <c r="D16">
-        <v>0.9799647366717744</v>
+        <v>0.9800746870309637</v>
       </c>
       <c r="E16">
-        <v>0.9616474176043396</v>
+        <v>0.9617804647769347</v>
       </c>
       <c r="F16">
-        <v>0.9597738370115882</v>
+        <v>0.9598906774522271</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024546502564566</v>
+        <v>1.024610377276085</v>
       </c>
       <c r="J16">
-        <v>0.9813424340309967</v>
+        <v>0.9814711151348582</v>
       </c>
       <c r="K16">
-        <v>0.99466763497772</v>
+        <v>0.9947754990475534</v>
       </c>
       <c r="L16">
-        <v>0.9767066429317524</v>
+        <v>0.9768370375887151</v>
       </c>
       <c r="M16">
-        <v>0.9748705180207169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9749850170217002</v>
+      </c>
+      <c r="N16">
+        <v>0.9778748735785587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9560386153368243</v>
+        <v>0.9561641643037161</v>
       </c>
       <c r="D17">
-        <v>0.9838203649470508</v>
+        <v>0.9839228524570135</v>
       </c>
       <c r="E17">
-        <v>0.9662640411292471</v>
+        <v>0.9663880345047048</v>
       </c>
       <c r="F17">
-        <v>0.9646798407432771</v>
+        <v>0.9647885090939652</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026607100720569</v>
+        <v>1.026666666553349</v>
       </c>
       <c r="J17">
-        <v>0.9852976732344511</v>
+        <v>0.9854177414000982</v>
       </c>
       <c r="K17">
-        <v>0.9981181563895413</v>
+        <v>0.998218769395163</v>
       </c>
       <c r="L17">
-        <v>0.9808906216895114</v>
+        <v>0.9810122381238552</v>
       </c>
       <c r="M17">
-        <v>0.9793368607030388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9794434368785391</v>
+      </c>
+      <c r="N17">
+        <v>0.9811099634470113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9588423847381944</v>
+        <v>0.958962762405542</v>
       </c>
       <c r="D18">
-        <v>0.9860237384188076</v>
+        <v>0.9861220615569913</v>
       </c>
       <c r="E18">
-        <v>0.9689020321077112</v>
+        <v>0.9690209747626869</v>
       </c>
       <c r="F18">
-        <v>0.9674837429348869</v>
+        <v>0.9675878656092856</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027782237147864</v>
+        <v>1.027839397363115</v>
       </c>
       <c r="J18">
-        <v>0.9875558082911272</v>
+        <v>0.9876710637703355</v>
       </c>
       <c r="K18">
-        <v>1.000088161642034</v>
+        <v>1.000184724758116</v>
       </c>
       <c r="L18">
-        <v>0.9832800526563964</v>
+        <v>0.9833967668773006</v>
       </c>
       <c r="M18">
-        <v>0.9818883907974043</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.981990555178945</v>
+      </c>
+      <c r="N18">
+        <v>0.9829545362296315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9597887040082892</v>
+        <v>0.9599073569319782</v>
       </c>
       <c r="D19">
-        <v>0.9867676123951026</v>
+        <v>0.9868645455776729</v>
       </c>
       <c r="E19">
-        <v>0.9697925977054035</v>
+        <v>0.9699098547923456</v>
       </c>
       <c r="F19">
-        <v>0.9684304148327237</v>
+        <v>0.9685330226091635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028178560903984</v>
+        <v>1.02823491798962</v>
       </c>
       <c r="J19">
-        <v>0.9883178116138355</v>
+        <v>0.9884314596804322</v>
       </c>
       <c r="K19">
-        <v>1.000752937623483</v>
+        <v>1.000848148391789</v>
       </c>
       <c r="L19">
-        <v>0.9840864801278443</v>
+        <v>0.9842015574933928</v>
       </c>
       <c r="M19">
-        <v>0.9827496696963463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.982850363024984</v>
+      </c>
+      <c r="N19">
+        <v>0.9835765737116758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.955518186717453</v>
+        <v>0.9556447057982674</v>
       </c>
       <c r="D20">
-        <v>0.9834114783844949</v>
+        <v>0.9835147465916499</v>
       </c>
       <c r="E20">
-        <v>0.9657744812791027</v>
+        <v>0.9658994216295053</v>
       </c>
       <c r="F20">
-        <v>0.9641595366186824</v>
+        <v>0.9642690583084204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026388829904791</v>
+        <v>1.026448846622303</v>
       </c>
       <c r="J20">
-        <v>0.9848784505420359</v>
+        <v>0.9849994204168188</v>
       </c>
       <c r="K20">
-        <v>0.9977524263487704</v>
+        <v>0.9978537982912641</v>
       </c>
       <c r="L20">
-        <v>0.9804470809685114</v>
+        <v>0.9805696161132617</v>
       </c>
       <c r="M20">
-        <v>0.9788632988493126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9789707028467302</v>
+      </c>
+      <c r="N20">
+        <v>0.9807673220689062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9409003717903656</v>
+        <v>0.9410555403749493</v>
       </c>
       <c r="D21">
-        <v>0.9719399140954068</v>
+        <v>0.9720661650083127</v>
       </c>
       <c r="E21">
-        <v>0.9520363001086984</v>
+        <v>0.9521891341688856</v>
       </c>
       <c r="F21">
-        <v>0.9495638475509911</v>
+        <v>0.9496986510542962</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02024127565066</v>
+        <v>1.020314552987031</v>
       </c>
       <c r="J21">
-        <v>0.9730951126216928</v>
+        <v>0.9732425563194602</v>
       </c>
       <c r="K21">
-        <v>0.9874731341282017</v>
+        <v>0.9875968080264538</v>
       </c>
       <c r="L21">
-        <v>0.9679871330940514</v>
+        <v>0.9681366721715716</v>
       </c>
       <c r="M21">
-        <v>0.9655681803525249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9657000573966408</v>
+      </c>
+      <c r="N21">
+        <v>0.9711131036361637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9310617968495559</v>
+        <v>0.9312379265510581</v>
       </c>
       <c r="D22">
-        <v>0.9642343903192975</v>
+        <v>0.9643773694287677</v>
       </c>
       <c r="E22">
-        <v>0.9428036847038131</v>
+        <v>0.9429768408546341</v>
       </c>
       <c r="F22">
-        <v>0.9397598277487226</v>
+        <v>0.9399132223401517</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016087920903136</v>
+        <v>1.016170836056603</v>
       </c>
       <c r="J22">
-        <v>0.9651570589407457</v>
+        <v>0.9653236908309494</v>
       </c>
       <c r="K22">
-        <v>0.9805493012828624</v>
+        <v>0.9806891624364292</v>
       </c>
       <c r="L22">
-        <v>0.959600245705455</v>
+        <v>0.9597693928622651</v>
       </c>
       <c r="M22">
-        <v>0.9566271845561171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9567769967191457</v>
+      </c>
+      <c r="N22">
+        <v>0.9645863999361236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9363450457444003</v>
+        <v>0.9365097387548192</v>
       </c>
       <c r="D23">
-        <v>0.968370580370178</v>
+        <v>0.9685044412274442</v>
       </c>
       <c r="E23">
-        <v>0.9477601262367679</v>
+        <v>0.9479222031512438</v>
       </c>
       <c r="F23">
-        <v>0.9450225951997688</v>
+        <v>0.9451658367916655</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018319635038014</v>
+        <v>1.018397298138662</v>
       </c>
       <c r="J23">
-        <v>0.9694203407440218</v>
+        <v>0.9695765215120388</v>
       </c>
       <c r="K23">
-        <v>0.9842677440250802</v>
+        <v>0.9843987862754154</v>
       </c>
       <c r="L23">
-        <v>0.9641039233142938</v>
+        <v>0.9642623870718396</v>
       </c>
       <c r="M23">
-        <v>0.9614276692477699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9615676927861053</v>
+      </c>
+      <c r="N23">
+        <v>0.9680938051937762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.955753528988145</v>
+        <v>0.9558796089738385</v>
       </c>
       <c r="D24">
-        <v>0.9835963765423736</v>
+        <v>0.9836992914089748</v>
       </c>
       <c r="E24">
-        <v>0.9659958606448661</v>
+        <v>0.966120372393607</v>
       </c>
       <c r="F24">
-        <v>0.9643948168328216</v>
+        <v>0.9645039522594121</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026487539357899</v>
+        <v>1.026547352010487</v>
       </c>
       <c r="J24">
-        <v>0.985068029407834</v>
+        <v>0.9851885911930162</v>
       </c>
       <c r="K24">
-        <v>0.9979178149550616</v>
+        <v>0.9980188434172097</v>
       </c>
       <c r="L24">
-        <v>0.9806476546248997</v>
+        <v>0.9807697739768826</v>
       </c>
       <c r="M24">
-        <v>0.9790774457382518</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9791844750377608</v>
+      </c>
+      <c r="N24">
+        <v>0.9809222772273392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9759666748642833</v>
+        <v>0.9760573431904148</v>
       </c>
       <c r="D25">
-        <v>0.9994990969218064</v>
+        <v>0.9995734033498662</v>
       </c>
       <c r="E25">
-        <v>0.98503283557594</v>
+        <v>0.9851226697336853</v>
       </c>
       <c r="F25">
-        <v>0.9846391958856433</v>
+        <v>0.9847173098719635</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034927419442172</v>
+        <v>1.034970687381208</v>
       </c>
       <c r="J25">
-        <v>1.001330838224282</v>
+        <v>1.001418240943219</v>
       </c>
       <c r="K25">
-        <v>1.012105193745183</v>
+        <v>1.012178345293436</v>
       </c>
       <c r="L25">
-        <v>0.997868027777821</v>
+        <v>0.9979564126312195</v>
       </c>
       <c r="M25">
-        <v>0.9974807427223551</v>
+        <v>0.9975575951742892</v>
+      </c>
+      <c r="N25">
+        <v>0.9941646483019662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9907147520458762</v>
+        <v>1.0170552769194</v>
       </c>
       <c r="D2">
-        <v>1.011128428011024</v>
+        <v>1.032943600086071</v>
       </c>
       <c r="E2">
-        <v>0.998954414282659</v>
+        <v>1.034175098929429</v>
       </c>
       <c r="F2">
-        <v>0.9994485488195217</v>
+        <v>1.039812262673643</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041032348332233</v>
+        <v>1.054711102914416</v>
       </c>
       <c r="J2">
-        <v>1.013176775047215</v>
+        <v>1.038737564992171</v>
       </c>
       <c r="K2">
-        <v>1.022434873046585</v>
+        <v>1.043962291467137</v>
       </c>
       <c r="L2">
-        <v>1.010428335020531</v>
+        <v>1.045177998756531</v>
       </c>
       <c r="M2">
-        <v>1.010915571582747</v>
+        <v>1.050743472908512</v>
       </c>
       <c r="N2">
-        <v>1.003685300336567</v>
+        <v>1.040212691479324</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00067758447768</v>
+        <v>1.027622427821369</v>
       </c>
       <c r="D3">
-        <v>1.018991627229781</v>
+        <v>1.041232436680189</v>
       </c>
       <c r="E3">
-        <v>1.00836944542638</v>
+        <v>1.044326646772799</v>
       </c>
       <c r="F3">
-        <v>1.009486742273638</v>
+        <v>1.050071978037389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04511791794794</v>
+        <v>1.05872984702293</v>
       </c>
       <c r="J3">
-        <v>1.02114979488502</v>
+        <v>1.047387389668176</v>
       </c>
       <c r="K3">
-        <v>1.029387139303526</v>
+        <v>1.05136358268537</v>
       </c>
       <c r="L3">
-        <v>1.018896346054897</v>
+        <v>1.054422115371644</v>
       </c>
       <c r="M3">
-        <v>1.019999660592069</v>
+        <v>1.060101888394424</v>
       </c>
       <c r="N3">
-        <v>1.010098788600441</v>
+        <v>1.048874799898518</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006849710861631</v>
+        <v>1.034170918560012</v>
       </c>
       <c r="D4">
-        <v>1.023865957345314</v>
+        <v>1.046371442924491</v>
       </c>
       <c r="E4">
-        <v>1.014207648886882</v>
+        <v>1.050623872349914</v>
       </c>
       <c r="F4">
-        <v>1.015716539471756</v>
+        <v>1.056438675034148</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047632523662337</v>
+        <v>1.061203391743071</v>
       </c>
       <c r="J4">
-        <v>1.026079808586427</v>
+        <v>1.052739155514935</v>
       </c>
       <c r="K4">
-        <v>1.033684627697744</v>
+        <v>1.055940653540431</v>
       </c>
       <c r="L4">
-        <v>1.024137571730015</v>
+        <v>1.060147418205156</v>
       </c>
       <c r="M4">
-        <v>1.025628909289153</v>
+        <v>1.065900506366406</v>
       </c>
       <c r="N4">
-        <v>1.014045099368135</v>
+        <v>1.054234165866635</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009383875722238</v>
+        <v>1.036860164249968</v>
       </c>
       <c r="D5">
-        <v>1.025867817681351</v>
+        <v>1.048482263275843</v>
       </c>
       <c r="E5">
-        <v>1.016605922364447</v>
+        <v>1.053211336720048</v>
       </c>
       <c r="F5">
-        <v>1.018276936761928</v>
+        <v>1.059055238316877</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048660957271313</v>
+        <v>1.062215067792764</v>
       </c>
       <c r="J5">
-        <v>1.028101672337358</v>
+        <v>1.054934832088137</v>
       </c>
       <c r="K5">
-        <v>1.035446719442095</v>
+        <v>1.057817917870556</v>
       </c>
       <c r="L5">
-        <v>1.026288294661856</v>
+        <v>1.062497736644149</v>
       </c>
       <c r="M5">
-        <v>1.027940469695245</v>
+        <v>1.068281512997866</v>
       </c>
       <c r="N5">
-        <v>1.01565888439881</v>
+        <v>1.056432960552419</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009805956637879</v>
+        <v>1.037308109365366</v>
       </c>
       <c r="D6">
-        <v>1.026201267766892</v>
+        <v>1.048833879669234</v>
       </c>
       <c r="E6">
-        <v>1.017005438428557</v>
+        <v>1.053642408106517</v>
       </c>
       <c r="F6">
-        <v>1.018703534951789</v>
+        <v>1.059491189751943</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048832010901368</v>
+        <v>1.062383336824061</v>
       </c>
       <c r="J6">
-        <v>1.028438288677447</v>
+        <v>1.055300437746828</v>
       </c>
       <c r="K6">
-        <v>1.035740064237086</v>
+        <v>1.058130468938085</v>
       </c>
       <c r="L6">
-        <v>1.026646436595899</v>
+        <v>1.06288917351597</v>
       </c>
       <c r="M6">
-        <v>1.028325489637775</v>
+        <v>1.068678095283334</v>
       </c>
       <c r="N6">
-        <v>1.015927286854625</v>
+        <v>1.05679908541308</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006883804314821</v>
+        <v>1.034207096111885</v>
       </c>
       <c r="D7">
-        <v>1.02389288745623</v>
+        <v>1.046399837723627</v>
       </c>
       <c r="E7">
-        <v>1.014239909433408</v>
+        <v>1.050658675224053</v>
       </c>
       <c r="F7">
-        <v>1.015750975809692</v>
+        <v>1.056473867127314</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047646375755077</v>
+        <v>1.061217017961542</v>
       </c>
       <c r="J7">
-        <v>1.026107019030733</v>
+        <v>1.052768701708884</v>
       </c>
       <c r="K7">
-        <v>1.033708343604241</v>
+        <v>1.05596591735949</v>
       </c>
       <c r="L7">
-        <v>1.024166511509398</v>
+        <v>1.060179039836324</v>
       </c>
       <c r="M7">
-        <v>1.025660006861454</v>
+        <v>1.065932538553602</v>
       </c>
       <c r="N7">
-        <v>1.014066836305815</v>
+        <v>1.054263754019569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9941418686644908</v>
+        <v>1.020689904013254</v>
       </c>
       <c r="D8">
-        <v>1.013832554573072</v>
+        <v>1.035793966764615</v>
       </c>
       <c r="E8">
-        <v>1.002191868869681</v>
+        <v>1.037665370590026</v>
       </c>
       <c r="F8">
-        <v>1.002899195528842</v>
+        <v>1.04333920900242</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042441207908318</v>
+        <v>1.056096917054967</v>
       </c>
       <c r="J8">
-        <v>1.015921378420937</v>
+        <v>1.041714498073506</v>
       </c>
       <c r="K8">
-        <v>1.024828359172493</v>
+        <v>1.046509968678505</v>
       </c>
       <c r="L8">
-        <v>1.013342231532832</v>
+        <v>1.048358211438778</v>
       </c>
       <c r="M8">
-        <v>1.014040038063944</v>
+        <v>1.053962459929196</v>
       </c>
       <c r="N8">
-        <v>1.005897192962345</v>
+        <v>1.043193852147093</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9693151391617034</v>
+        <v>0.994364453034282</v>
       </c>
       <c r="D9">
-        <v>0.9942645973887421</v>
+        <v>1.015168118141293</v>
       </c>
       <c r="E9">
-        <v>0.9787681896169653</v>
+        <v>1.012418669533393</v>
       </c>
       <c r="F9">
-        <v>0.9779550190018167</v>
+        <v>1.017838532939595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032165124687821</v>
+        <v>1.045988107870645</v>
       </c>
       <c r="J9">
-        <v>0.9960000154678339</v>
+        <v>1.020117798655726</v>
       </c>
       <c r="K9">
-        <v>1.007451417974783</v>
+        <v>1.028019804970338</v>
       </c>
       <c r="L9">
-        <v>0.9922153944423794</v>
+        <v>1.025313425194231</v>
       </c>
       <c r="M9">
-        <v>0.9914161819955962</v>
+        <v>1.030648673540522</v>
       </c>
       <c r="N9">
-        <v>0.9897557213337231</v>
+        <v>1.021566482938965</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9507023576446942</v>
+        <v>0.9746269600040759</v>
       </c>
       <c r="D10">
-        <v>0.9796334259112452</v>
+        <v>0.9997410244583914</v>
       </c>
       <c r="E10">
-        <v>0.9612520819531276</v>
+        <v>0.9935406523330368</v>
       </c>
       <c r="F10">
-        <v>0.9593290827080327</v>
+        <v>0.9987864112356373</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024374249883088</v>
+        <v>1.038321013161213</v>
       </c>
       <c r="J10">
-        <v>0.9810182594063058</v>
+        <v>1.003884731954997</v>
       </c>
       <c r="K10">
-        <v>0.9943804063529935</v>
+        <v>1.014114956363451</v>
       </c>
       <c r="L10">
-        <v>0.9763580516383473</v>
+        <v>1.008027519964506</v>
       </c>
       <c r="M10">
-        <v>0.974473655178046</v>
+        <v>1.013177612028349</v>
       </c>
       <c r="N10">
-        <v>0.9775033179350985</v>
+        <v>1.005310363421561</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9420154663588436</v>
+        <v>0.9654117141223649</v>
       </c>
       <c r="D11">
-        <v>0.9728186329332801</v>
+        <v>0.9925519196519788</v>
       </c>
       <c r="E11">
-        <v>0.9530904797680394</v>
+        <v>0.9847417763297864</v>
       </c>
       <c r="F11">
-        <v>0.9506562616658396</v>
+        <v>0.9899105869321271</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020719086786469</v>
+        <v>1.034722262291515</v>
       </c>
       <c r="J11">
-        <v>0.9740165571914756</v>
+        <v>0.9962977187229006</v>
       </c>
       <c r="K11">
-        <v>0.9882720233007893</v>
+        <v>1.007615676142312</v>
       </c>
       <c r="L11">
-        <v>0.9689547899589133</v>
+        <v>0.9999572933527713</v>
       </c>
       <c r="M11">
-        <v>0.9665728427652914</v>
+        <v>1.005025316503956</v>
       </c>
       <c r="N11">
-        <v>0.9717500470568909</v>
+        <v>0.9977125757604329</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9386791557646748</v>
+        <v>0.9618715738610616</v>
       </c>
       <c r="D12">
-        <v>0.9702038798615346</v>
+        <v>0.9897927100100322</v>
       </c>
       <c r="E12">
-        <v>0.9499582320526266</v>
+        <v>0.9813641796240833</v>
       </c>
       <c r="F12">
-        <v>0.9473286406206226</v>
+        <v>0.9865041288083362</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019312593383182</v>
+        <v>1.033337105868537</v>
       </c>
       <c r="J12">
-        <v>0.971326221457902</v>
+        <v>0.9933820888022157</v>
       </c>
       <c r="K12">
-        <v>0.9859250907034444</v>
+        <v>1.005118113619964</v>
       </c>
       <c r="L12">
-        <v>0.9661113348201568</v>
+        <v>0.9968573387600315</v>
       </c>
       <c r="M12">
-        <v>0.9635396418358557</v>
+        <v>1.001894537817356</v>
       </c>
       <c r="N12">
-        <v>0.9695353299505901</v>
+        <v>0.9947928053108328</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9394000538606622</v>
+        <v>0.9626365634290448</v>
       </c>
       <c r="D13">
-        <v>0.9707687426497764</v>
+        <v>0.9903888232335606</v>
       </c>
       <c r="E13">
-        <v>0.9506349271155997</v>
+        <v>0.9820939225741918</v>
       </c>
       <c r="F13">
-        <v>0.9480475086491695</v>
+        <v>0.9872400760993892</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019616620946906</v>
+        <v>1.033636540339131</v>
       </c>
       <c r="J13">
-        <v>0.9719075922571867</v>
+        <v>0.994012168802679</v>
       </c>
       <c r="K13">
-        <v>0.9864322446613207</v>
+        <v>1.005657842520548</v>
       </c>
       <c r="L13">
-        <v>0.9667257406780481</v>
+        <v>0.9975271897076664</v>
       </c>
       <c r="M13">
-        <v>0.9641949866880449</v>
+        <v>1.002571017048463</v>
       </c>
       <c r="N13">
-        <v>0.9700141050572471</v>
+        <v>0.9954237800971681</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9417420242218036</v>
+        <v>0.9651215872848297</v>
       </c>
       <c r="D14">
-        <v>0.9726042746175132</v>
+        <v>0.9923257377167429</v>
       </c>
       <c r="E14">
-        <v>0.9528337137940315</v>
+        <v>0.9844649161463678</v>
       </c>
       <c r="F14">
-        <v>0.9503834638223794</v>
+        <v>0.9896313470482387</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020603864335776</v>
+        <v>1.034608796126969</v>
       </c>
       <c r="J14">
-        <v>0.9737960826991813</v>
+        <v>0.9960587914074693</v>
       </c>
       <c r="K14">
-        <v>0.9880796871177561</v>
+        <v>1.007411006212449</v>
       </c>
       <c r="L14">
-        <v>0.9687217433500672</v>
+        <v>0.9997032332777112</v>
       </c>
       <c r="M14">
-        <v>0.9663242175452371</v>
+        <v>1.004768715800274</v>
       </c>
       <c r="N14">
-        <v>0.971568632047721</v>
+        <v>0.9974733091408083</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9431699418015204</v>
+        <v>0.9666365931782807</v>
       </c>
       <c r="D15">
-        <v>0.9737237621463978</v>
+        <v>0.9935069382962011</v>
       </c>
       <c r="E15">
-        <v>0.9541746438674367</v>
+        <v>0.98591075194222</v>
       </c>
       <c r="F15">
-        <v>0.9518081512058894</v>
+        <v>0.9910896378777649</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021205449959563</v>
+        <v>1.035201196265837</v>
       </c>
       <c r="J15">
-        <v>0.9749473536574579</v>
+        <v>0.9973064010167328</v>
       </c>
       <c r="K15">
-        <v>0.9890840326817898</v>
+        <v>1.008479736848337</v>
       </c>
       <c r="L15">
-        <v>0.969938710891704</v>
+        <v>1.001029917386289</v>
       </c>
       <c r="M15">
-        <v>0.9676225910914014</v>
+        <v>1.006108695459611</v>
       </c>
       <c r="N15">
-        <v>0.9725157779653598</v>
+        <v>0.9987226904988197</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.951264430519923</v>
+        <v>0.975223119536176</v>
       </c>
       <c r="D16">
-        <v>0.9800746870309637</v>
+        <v>1.000206426451911</v>
       </c>
       <c r="E16">
-        <v>0.9617804647769347</v>
+        <v>0.9941102091004491</v>
       </c>
       <c r="F16">
-        <v>0.9598906774522271</v>
+        <v>0.999361038302146</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024610377276085</v>
+        <v>1.038553453400461</v>
       </c>
       <c r="J16">
-        <v>0.9814711151348582</v>
+        <v>1.004375409969349</v>
       </c>
       <c r="K16">
-        <v>0.9947754990475534</v>
+        <v>1.014535288016537</v>
       </c>
       <c r="L16">
-        <v>0.9768370375887151</v>
+        <v>1.008549632968325</v>
       </c>
       <c r="M16">
-        <v>0.9749850170217002</v>
+        <v>1.013705127291654</v>
       </c>
       <c r="N16">
-        <v>0.9778748735785587</v>
+        <v>1.005801738254976</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9561641643037161</v>
+        <v>0.9804195825890893</v>
       </c>
       <c r="D17">
-        <v>0.9839228524570135</v>
+        <v>1.004264696912366</v>
       </c>
       <c r="E17">
-        <v>0.9663880345047048</v>
+        <v>0.999076491547604</v>
       </c>
       <c r="F17">
-        <v>0.9647885090939652</v>
+        <v>1.004372002156347</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026666666553349</v>
+        <v>1.04057744041251</v>
       </c>
       <c r="J17">
-        <v>0.9854177414000982</v>
+        <v>1.008651573688118</v>
       </c>
       <c r="K17">
-        <v>0.998218769395163</v>
+        <v>1.018198361468151</v>
       </c>
       <c r="L17">
-        <v>0.9810122381238552</v>
+        <v>1.013100732611182</v>
       </c>
       <c r="M17">
-        <v>0.9794434368785391</v>
+        <v>1.018303806141667</v>
       </c>
       <c r="N17">
-        <v>0.9811099634470113</v>
+        <v>1.010083974616708</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.958962762405542</v>
+        <v>0.983387378314032</v>
       </c>
       <c r="D18">
-        <v>0.9861220615569913</v>
+        <v>1.006583671331826</v>
       </c>
       <c r="E18">
-        <v>0.9690209747626869</v>
+        <v>1.0019141939011</v>
       </c>
       <c r="F18">
-        <v>0.9675878656092856</v>
+        <v>1.007235619376934</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027839397363115</v>
+        <v>1.041731605593498</v>
       </c>
       <c r="J18">
-        <v>0.9876710637703355</v>
+        <v>1.011093022230802</v>
       </c>
       <c r="K18">
-        <v>1.000184724758116</v>
+        <v>1.020289721546027</v>
       </c>
       <c r="L18">
-        <v>0.9833967668773006</v>
+        <v>1.015699967466656</v>
       </c>
       <c r="M18">
-        <v>0.981990555178945</v>
+        <v>1.020930614589685</v>
       </c>
       <c r="N18">
-        <v>0.9829545362296315</v>
+        <v>1.012528890296361</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9599073569319782</v>
+        <v>0.9843890419728462</v>
       </c>
       <c r="D19">
-        <v>0.9868645455776729</v>
+        <v>1.007366544604251</v>
       </c>
       <c r="E19">
-        <v>0.9699098547923456</v>
+        <v>1.002872173192978</v>
       </c>
       <c r="F19">
-        <v>0.9685330226091635</v>
+        <v>1.008202411253206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02823491798962</v>
+        <v>1.042120843226796</v>
       </c>
       <c r="J19">
-        <v>0.9884314596804322</v>
+        <v>1.011916906056116</v>
       </c>
       <c r="K19">
-        <v>1.000848148391789</v>
+        <v>1.020995454107045</v>
       </c>
       <c r="L19">
-        <v>0.9842015574933928</v>
+        <v>1.016577234349727</v>
       </c>
       <c r="M19">
-        <v>0.982850363024984</v>
+        <v>1.021817254564143</v>
       </c>
       <c r="N19">
-        <v>0.9835765737116758</v>
+        <v>1.013353944131207</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9556447057982674</v>
+        <v>0.9798686977065471</v>
       </c>
       <c r="D20">
-        <v>0.9835147465916499</v>
+        <v>1.003834342934661</v>
       </c>
       <c r="E20">
-        <v>0.9658994216295053</v>
+        <v>0.9985498638813837</v>
       </c>
       <c r="F20">
-        <v>0.9642690583084204</v>
+        <v>1.003840596104063</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026448846622303</v>
+        <v>1.040363057858205</v>
       </c>
       <c r="J20">
-        <v>0.9849994204168188</v>
+        <v>1.008198327792433</v>
       </c>
       <c r="K20">
-        <v>0.9978537982912641</v>
+        <v>1.017810103464121</v>
       </c>
       <c r="L20">
-        <v>0.9805696161132617</v>
+        <v>1.012618260201706</v>
       </c>
       <c r="M20">
-        <v>0.9789707028467302</v>
+        <v>1.017816247764767</v>
       </c>
       <c r="N20">
-        <v>0.9807673220689062</v>
+        <v>1.009630085059863</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9410555403749493</v>
+        <v>0.9643931999211485</v>
       </c>
       <c r="D21">
-        <v>0.9720661650083127</v>
+        <v>0.9917579323339414</v>
       </c>
       <c r="E21">
-        <v>0.9521891341688856</v>
+        <v>0.9837698785210616</v>
       </c>
       <c r="F21">
-        <v>0.9496986510542962</v>
+        <v>0.9889303463620507</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020314552987031</v>
+        <v>1.034323888205968</v>
       </c>
       <c r="J21">
-        <v>0.9732425563194602</v>
+        <v>0.9954589295236443</v>
       </c>
       <c r="K21">
-        <v>0.9875968080264538</v>
+        <v>1.006897153921003</v>
       </c>
       <c r="L21">
-        <v>0.9681366721715716</v>
+        <v>0.9990654004856672</v>
       </c>
       <c r="M21">
-        <v>0.9657000573966408</v>
+        <v>1.004124515989656</v>
       </c>
       <c r="N21">
-        <v>0.9711131036361637</v>
+        <v>0.9968725953843028</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9312379265510581</v>
+        <v>0.9539734649573497</v>
       </c>
       <c r="D22">
-        <v>0.9643773694287677</v>
+        <v>0.9836423139391681</v>
       </c>
       <c r="E22">
-        <v>0.9429768408546341</v>
+        <v>0.9738339489871072</v>
       </c>
       <c r="F22">
-        <v>0.9399132223401517</v>
+        <v>0.9789108682146025</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016170836056603</v>
+        <v>1.030242140068554</v>
       </c>
       <c r="J22">
-        <v>0.9653236908309494</v>
+        <v>0.9868756974707154</v>
       </c>
       <c r="K22">
-        <v>0.9806891624364292</v>
+        <v>0.9995449369423346</v>
       </c>
       <c r="L22">
-        <v>0.9597693928622651</v>
+        <v>0.9899422135523561</v>
       </c>
       <c r="M22">
-        <v>0.9567769967191457</v>
+        <v>0.9949120100855164</v>
       </c>
       <c r="N22">
-        <v>0.9645863999361236</v>
+        <v>0.9882771741573484</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9365097387548192</v>
+        <v>0.9595692993583181</v>
       </c>
       <c r="D23">
-        <v>0.9685044412274442</v>
+        <v>0.9879990996454155</v>
       </c>
       <c r="E23">
-        <v>0.9479222031512438</v>
+        <v>0.9791683905664265</v>
       </c>
       <c r="F23">
-        <v>0.9451658367916655</v>
+        <v>0.9842897741819556</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018397298138662</v>
+        <v>1.032435571955296</v>
       </c>
       <c r="J23">
-        <v>0.9695765215120388</v>
+        <v>0.9914857040887105</v>
       </c>
       <c r="K23">
-        <v>0.9843987862754154</v>
+        <v>1.003493683182428</v>
       </c>
       <c r="L23">
-        <v>0.9642623870718396</v>
+        <v>0.9948414577662832</v>
       </c>
       <c r="M23">
-        <v>0.9615676927861053</v>
+        <v>0.9998588158917517</v>
       </c>
       <c r="N23">
-        <v>0.9680938051937762</v>
+        <v>0.9928937275135163</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9558796089738385</v>
+        <v>0.9801178129997582</v>
       </c>
       <c r="D24">
-        <v>0.9836992914089748</v>
+        <v>1.00402894925453</v>
       </c>
       <c r="E24">
-        <v>0.966120372393607</v>
+        <v>0.9987880055957608</v>
       </c>
       <c r="F24">
-        <v>0.9645039522594121</v>
+        <v>1.004080897416544</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026547352010487</v>
+        <v>1.04046000918926</v>
       </c>
       <c r="J24">
-        <v>0.9851885911930162</v>
+        <v>1.00840329216697</v>
       </c>
       <c r="K24">
-        <v>0.9980188434172097</v>
+        <v>1.017985679530492</v>
       </c>
       <c r="L24">
-        <v>0.9807697739768826</v>
+        <v>1.012836438696743</v>
       </c>
       <c r="M24">
-        <v>0.9791844750377608</v>
+        <v>1.01803672493732</v>
       </c>
       <c r="N24">
-        <v>0.9809222772273392</v>
+        <v>1.009835340507321</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9760573431904148</v>
+        <v>1.001513070050725</v>
       </c>
       <c r="D25">
-        <v>0.9995734033498662</v>
+        <v>1.02076415156294</v>
       </c>
       <c r="E25">
-        <v>0.9851226697336853</v>
+        <v>1.019266740551126</v>
       </c>
       <c r="F25">
-        <v>0.9847173098719635</v>
+        <v>1.024752982301599</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034970687381208</v>
+        <v>1.048748282440049</v>
       </c>
       <c r="J25">
-        <v>1.001418240943219</v>
+        <v>1.02598962042803</v>
       </c>
       <c r="K25">
-        <v>1.012178345293436</v>
+        <v>1.033048460611942</v>
       </c>
       <c r="L25">
-        <v>0.9979564126312195</v>
+        <v>1.031573150342179</v>
       </c>
       <c r="M25">
-        <v>0.9975575951742892</v>
+        <v>1.036978818866123</v>
       </c>
       <c r="N25">
-        <v>0.9941646483019662</v>
+        <v>1.027446643371692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0170552769194</v>
+        <v>1.080720601621814</v>
       </c>
       <c r="D2">
-        <v>1.032943600086071</v>
+        <v>1.088033289539022</v>
       </c>
       <c r="E2">
-        <v>1.034175098929429</v>
+        <v>1.097177276071964</v>
       </c>
       <c r="F2">
-        <v>1.039812262673643</v>
+        <v>1.101215914590875</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054711102914416</v>
+        <v>1.092171862536918</v>
       </c>
       <c r="J2">
-        <v>1.038737564992171</v>
+        <v>1.100728642024547</v>
       </c>
       <c r="K2">
-        <v>1.043962291467137</v>
+        <v>1.098388710038765</v>
       </c>
       <c r="L2">
-        <v>1.045177998756531</v>
+        <v>1.107430535719122</v>
       </c>
       <c r="M2">
-        <v>1.050743472908512</v>
+        <v>1.111424716216834</v>
       </c>
       <c r="N2">
-        <v>1.040212691479324</v>
+        <v>1.102291802951562</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027622427821369</v>
+        <v>1.088731414408139</v>
       </c>
       <c r="D3">
-        <v>1.041232436680189</v>
+        <v>1.094713059928934</v>
       </c>
       <c r="E3">
-        <v>1.044326646772799</v>
+        <v>1.104701456263853</v>
       </c>
       <c r="F3">
-        <v>1.050071978037389</v>
+        <v>1.108579216930616</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05872984702293</v>
+        <v>1.09606571247787</v>
       </c>
       <c r="J3">
-        <v>1.047387389668176</v>
+        <v>1.107064296241389</v>
       </c>
       <c r="K3">
-        <v>1.05136358268537</v>
+        <v>1.104262200107265</v>
       </c>
       <c r="L3">
-        <v>1.054422115371644</v>
+        <v>1.114149498856893</v>
       </c>
       <c r="M3">
-        <v>1.060101888394424</v>
+        <v>1.117988607253805</v>
       </c>
       <c r="N3">
-        <v>1.048874799898518</v>
+        <v>1.108636454524102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034170918560012</v>
+        <v>1.093747534201663</v>
       </c>
       <c r="D4">
-        <v>1.046371442924491</v>
+        <v>1.098893065274027</v>
       </c>
       <c r="E4">
-        <v>1.050623872349914</v>
+        <v>1.109416146051463</v>
       </c>
       <c r="F4">
-        <v>1.056438675034148</v>
+        <v>1.113192372376106</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061203391743071</v>
+        <v>1.098489554832354</v>
       </c>
       <c r="J4">
-        <v>1.052739155514935</v>
+        <v>1.111023282466474</v>
       </c>
       <c r="K4">
-        <v>1.055940653540431</v>
+        <v>1.107928296058023</v>
       </c>
       <c r="L4">
-        <v>1.060147418205156</v>
+        <v>1.118351737004066</v>
       </c>
       <c r="M4">
-        <v>1.065900506366406</v>
+        <v>1.122092761423351</v>
       </c>
       <c r="N4">
-        <v>1.054234165866635</v>
+        <v>1.112601062963728</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036860164249968</v>
+        <v>1.095818600462636</v>
       </c>
       <c r="D5">
-        <v>1.048482263275843</v>
+        <v>1.100618222506486</v>
       </c>
       <c r="E5">
-        <v>1.053211336720048</v>
+        <v>1.111363494613735</v>
       </c>
       <c r="F5">
-        <v>1.059055238316877</v>
+        <v>1.115097602063819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062215067792764</v>
+        <v>1.099486842103142</v>
       </c>
       <c r="J5">
-        <v>1.054934832088137</v>
+        <v>1.112655879591371</v>
       </c>
       <c r="K5">
-        <v>1.057817917870556</v>
+        <v>1.109439124534545</v>
       </c>
       <c r="L5">
-        <v>1.062497736644149</v>
+        <v>1.12008553688337</v>
       </c>
       <c r="M5">
-        <v>1.068281512997866</v>
+        <v>1.123785825846989</v>
       </c>
       <c r="N5">
-        <v>1.056432960552419</v>
+        <v>1.114235978563804</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037308109365366</v>
+        <v>1.096164195137916</v>
       </c>
       <c r="D6">
-        <v>1.048833879669234</v>
+        <v>1.10090605379339</v>
       </c>
       <c r="E6">
-        <v>1.053642408106517</v>
+        <v>1.111688486738595</v>
       </c>
       <c r="F6">
-        <v>1.059491189751943</v>
+        <v>1.115415554138727</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062383336824061</v>
+        <v>1.0996530523082</v>
       </c>
       <c r="J6">
-        <v>1.055300437746828</v>
+        <v>1.112928189468854</v>
       </c>
       <c r="K6">
-        <v>1.058130468938085</v>
+        <v>1.109691065731553</v>
       </c>
       <c r="L6">
-        <v>1.06288917351597</v>
+        <v>1.120374779240302</v>
       </c>
       <c r="M6">
-        <v>1.068678095283334</v>
+        <v>1.124068256669421</v>
       </c>
       <c r="N6">
-        <v>1.05679908541308</v>
+        <v>1.114508675152547</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034207096111885</v>
+        <v>1.093775353094432</v>
       </c>
       <c r="D7">
-        <v>1.046399837723627</v>
+        <v>1.098916240672694</v>
       </c>
       <c r="E7">
-        <v>1.050658675224053</v>
+        <v>1.109442300292272</v>
       </c>
       <c r="F7">
-        <v>1.056473867127314</v>
+        <v>1.113217961657602</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061217017961542</v>
+        <v>1.098502964347358</v>
       </c>
       <c r="J7">
-        <v>1.052768701708884</v>
+        <v>1.111045219720594</v>
       </c>
       <c r="K7">
-        <v>1.05596591735949</v>
+        <v>1.107948601021215</v>
       </c>
       <c r="L7">
-        <v>1.060179039836324</v>
+        <v>1.118375030596827</v>
       </c>
       <c r="M7">
-        <v>1.065932538553602</v>
+        <v>1.122115508798085</v>
       </c>
       <c r="N7">
-        <v>1.054263754019569</v>
+        <v>1.112623031371265</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020689904013254</v>
+        <v>1.08346405308561</v>
       </c>
       <c r="D8">
-        <v>1.035793966764615</v>
+        <v>1.090321427722166</v>
       </c>
       <c r="E8">
-        <v>1.037665370590026</v>
+        <v>1.099753344223694</v>
       </c>
       <c r="F8">
-        <v>1.04333920900242</v>
+        <v>1.103737052119325</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056096917054967</v>
+        <v>1.093508403841079</v>
       </c>
       <c r="J8">
-        <v>1.041714498073506</v>
+        <v>1.102900119774804</v>
       </c>
       <c r="K8">
-        <v>1.046509968678505</v>
+        <v>1.100402650521311</v>
       </c>
       <c r="L8">
-        <v>1.048358211438778</v>
+        <v>1.109732595268169</v>
       </c>
       <c r="M8">
-        <v>1.053962459929196</v>
+        <v>1.113673874617138</v>
       </c>
       <c r="N8">
-        <v>1.043193852147093</v>
+        <v>1.104466364449296</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.994364453034282</v>
+        <v>1.063892811562261</v>
       </c>
       <c r="D9">
-        <v>1.015168118141293</v>
+        <v>1.073989287630029</v>
       </c>
       <c r="E9">
-        <v>1.012418669533393</v>
+        <v>1.081392844190841</v>
       </c>
       <c r="F9">
-        <v>1.017838532939595</v>
+        <v>1.085765213815884</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045988107870645</v>
+        <v>1.083912511663328</v>
       </c>
       <c r="J9">
-        <v>1.020117798655726</v>
+        <v>1.087374904852209</v>
       </c>
       <c r="K9">
-        <v>1.028019804970338</v>
+        <v>1.085986068332521</v>
       </c>
       <c r="L9">
-        <v>1.025313425194231</v>
+        <v>1.093290298847059</v>
       </c>
       <c r="M9">
-        <v>1.030648673540522</v>
+        <v>1.097604806624311</v>
       </c>
       <c r="N9">
-        <v>1.021566482938965</v>
+        <v>1.088919101940744</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9746269600040759</v>
+        <v>1.049712502091764</v>
       </c>
       <c r="D10">
-        <v>0.9997410244583914</v>
+        <v>1.062147534297796</v>
       </c>
       <c r="E10">
-        <v>0.9935406523330368</v>
+        <v>1.068114275079782</v>
       </c>
       <c r="F10">
-        <v>0.9987864112356373</v>
+        <v>1.072764471921157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038321013161213</v>
+        <v>1.076882496626829</v>
       </c>
       <c r="J10">
-        <v>1.003884731954997</v>
+        <v>1.07608370624702</v>
       </c>
       <c r="K10">
-        <v>1.014114956363451</v>
+        <v>1.075478574960283</v>
       </c>
       <c r="L10">
-        <v>1.008027519964506</v>
+        <v>1.081353744589739</v>
       </c>
       <c r="M10">
-        <v>1.013177612028349</v>
+        <v>1.085933474636841</v>
       </c>
       <c r="N10">
-        <v>1.005310363421561</v>
+        <v>1.077611868538417</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9654117141223649</v>
+        <v>1.043252483283425</v>
       </c>
       <c r="D11">
-        <v>0.9925519196519788</v>
+        <v>1.056752095213274</v>
       </c>
       <c r="E11">
-        <v>0.9847417763297864</v>
+        <v>1.062072019224158</v>
       </c>
       <c r="F11">
-        <v>0.9899105869321271</v>
+        <v>1.066848011187213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034722262291515</v>
+        <v>1.073662013480141</v>
       </c>
       <c r="J11">
-        <v>0.9962977187229006</v>
+        <v>1.070930389663831</v>
       </c>
       <c r="K11">
-        <v>1.007615676142312</v>
+        <v>1.070677636165516</v>
       </c>
       <c r="L11">
-        <v>0.9999572933527713</v>
+        <v>1.07591116697922</v>
       </c>
       <c r="M11">
-        <v>1.005025316503956</v>
+        <v>1.08061053974573</v>
       </c>
       <c r="N11">
-        <v>0.9977125757604329</v>
+        <v>1.072451233654587</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9618715738610616</v>
+        <v>1.040799742859999</v>
       </c>
       <c r="D12">
-        <v>0.9897927100100322</v>
+        <v>1.054703556002339</v>
       </c>
       <c r="E12">
-        <v>0.9813641796240833</v>
+        <v>1.059779053209367</v>
       </c>
       <c r="F12">
-        <v>0.9865041288083362</v>
+        <v>1.064602703460251</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033337105868537</v>
+        <v>1.072436626048244</v>
       </c>
       <c r="J12">
-        <v>0.9933820888022157</v>
+        <v>1.068972417156558</v>
       </c>
       <c r="K12">
-        <v>1.005118113619964</v>
+        <v>1.068852756587057</v>
       </c>
       <c r="L12">
-        <v>0.9968573387600315</v>
+        <v>1.073844098702474</v>
       </c>
       <c r="M12">
-        <v>1.001894537817356</v>
+        <v>1.078588725161349</v>
       </c>
       <c r="N12">
-        <v>0.9947928053108328</v>
+        <v>1.070490480601771</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626365634290448</v>
+        <v>1.041328362708377</v>
       </c>
       <c r="D13">
-        <v>0.9903888232335606</v>
+        <v>1.055145059404417</v>
       </c>
       <c r="E13">
-        <v>0.9820939225741918</v>
+        <v>1.060273183945328</v>
       </c>
       <c r="F13">
-        <v>0.9872400760993892</v>
+        <v>1.065086567235704</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033636540339131</v>
+        <v>1.072700842092501</v>
       </c>
       <c r="J13">
-        <v>0.994012168802679</v>
+        <v>1.069394463870929</v>
       </c>
       <c r="K13">
-        <v>1.005657842520548</v>
+        <v>1.069246150294271</v>
       </c>
       <c r="L13">
-        <v>0.9975271897076664</v>
+        <v>1.074289624674045</v>
       </c>
       <c r="M13">
-        <v>1.002571017048463</v>
+        <v>1.079024505635294</v>
       </c>
       <c r="N13">
-        <v>0.9954237800971681</v>
+        <v>1.070913126670885</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9651215872848297</v>
+        <v>1.043050856846989</v>
       </c>
       <c r="D14">
-        <v>0.9923257377167429</v>
+        <v>1.056583695190389</v>
       </c>
       <c r="E14">
-        <v>0.9844649161463678</v>
+        <v>1.061883502818481</v>
       </c>
       <c r="F14">
-        <v>0.9896313470482387</v>
+        <v>1.066663414530996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034608796126969</v>
+        <v>1.073561334091874</v>
       </c>
       <c r="J14">
-        <v>0.9960587914074693</v>
+        <v>1.070769462584712</v>
       </c>
       <c r="K14">
-        <v>1.007411006212449</v>
+        <v>1.070527664062659</v>
       </c>
       <c r="L14">
-        <v>0.9997032332777112</v>
+        <v>1.07574125680949</v>
       </c>
       <c r="M14">
-        <v>1.004768715800274</v>
+        <v>1.080444353091018</v>
       </c>
       <c r="N14">
-        <v>0.9974733091408083</v>
+        <v>1.072290078040556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9666365931782807</v>
+        <v>1.044104925374715</v>
       </c>
       <c r="D15">
-        <v>0.9935069382962011</v>
+        <v>1.057464062515614</v>
       </c>
       <c r="E15">
-        <v>0.98591075194222</v>
+        <v>1.062869082055006</v>
       </c>
       <c r="F15">
-        <v>0.9910896378777649</v>
+        <v>1.06762849786066</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035201196265837</v>
+        <v>1.074087562120938</v>
       </c>
       <c r="J15">
-        <v>0.9973064010167328</v>
+        <v>1.07161070698633</v>
       </c>
       <c r="K15">
-        <v>1.008479736848337</v>
+        <v>1.07131160940086</v>
       </c>
       <c r="L15">
-        <v>1.001029917386289</v>
+        <v>1.076629493055268</v>
       </c>
       <c r="M15">
-        <v>1.006108695459611</v>
+        <v>1.081313116479532</v>
       </c>
       <c r="N15">
-        <v>0.9987226904988197</v>
+        <v>1.073132517105717</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.975223119536176</v>
+        <v>1.050134071210952</v>
       </c>
       <c r="D16">
-        <v>1.000206426451911</v>
+        <v>1.062499624372338</v>
       </c>
       <c r="E16">
-        <v>0.9941102091004491</v>
+        <v>1.068508734503199</v>
       </c>
       <c r="F16">
-        <v>0.999361038302146</v>
+        <v>1.073150707244329</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038553453400461</v>
+        <v>1.077092294819044</v>
       </c>
       <c r="J16">
-        <v>1.004375409969349</v>
+        <v>1.076419811916791</v>
       </c>
       <c r="K16">
-        <v>1.014535288016537</v>
+        <v>1.075791589188895</v>
       </c>
       <c r="L16">
-        <v>1.008549632968325</v>
+        <v>1.081708826237656</v>
       </c>
       <c r="M16">
-        <v>1.013705127291654</v>
+        <v>1.086280724647158</v>
       </c>
       <c r="N16">
-        <v>1.005801738254976</v>
+        <v>1.077948451516791</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9804195825890893</v>
+        <v>1.053826960671856</v>
       </c>
       <c r="D17">
-        <v>1.004264696912366</v>
+        <v>1.065583811594211</v>
       </c>
       <c r="E17">
-        <v>0.999076491547604</v>
+        <v>1.071964941442168</v>
       </c>
       <c r="F17">
-        <v>1.004372002156347</v>
+        <v>1.076534786609352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04057744041251</v>
+        <v>1.078928095251942</v>
       </c>
       <c r="J17">
-        <v>1.008651573688118</v>
+        <v>1.079362994844212</v>
       </c>
       <c r="K17">
-        <v>1.018198361468151</v>
+        <v>1.078531971480951</v>
       </c>
       <c r="L17">
-        <v>1.013100732611182</v>
+        <v>1.084818771023352</v>
       </c>
       <c r="M17">
-        <v>1.018303806141667</v>
+        <v>1.089321932927986</v>
       </c>
       <c r="N17">
-        <v>1.010083974616708</v>
+        <v>1.080895814101556</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.983387378314032</v>
+        <v>1.055950485104163</v>
       </c>
       <c r="D18">
-        <v>1.006583671331826</v>
+        <v>1.067357232338976</v>
       </c>
       <c r="E18">
-        <v>1.0019141939011</v>
+        <v>1.073953009906066</v>
       </c>
       <c r="F18">
-        <v>1.007235619376934</v>
+        <v>1.078481306336074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041731605593498</v>
+        <v>1.07998206082765</v>
       </c>
       <c r="J18">
-        <v>1.011093022230802</v>
+        <v>1.081054524690642</v>
       </c>
       <c r="K18">
-        <v>1.020289721546027</v>
+        <v>1.080106449673405</v>
       </c>
       <c r="L18">
-        <v>1.015699967466656</v>
+        <v>1.086606636143274</v>
       </c>
       <c r="M18">
-        <v>1.020930614589685</v>
+        <v>1.091070161405275</v>
       </c>
       <c r="N18">
-        <v>1.012528890296361</v>
+        <v>1.08258974611439</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9843890419728462</v>
+        <v>1.056669527029212</v>
       </c>
       <c r="D19">
-        <v>1.007366544604251</v>
+        <v>1.067957709398495</v>
       </c>
       <c r="E19">
-        <v>1.002872173192978</v>
+        <v>1.074626291511905</v>
       </c>
       <c r="F19">
-        <v>1.008202411253206</v>
+        <v>1.079140506463454</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042120843226796</v>
+        <v>1.08033865612923</v>
       </c>
       <c r="J19">
-        <v>1.011916906056116</v>
+        <v>1.081627137167049</v>
       </c>
       <c r="K19">
-        <v>1.020995454107045</v>
+        <v>1.080639353736894</v>
       </c>
       <c r="L19">
-        <v>1.016577234349727</v>
+        <v>1.087211942966543</v>
       </c>
       <c r="M19">
-        <v>1.021817254564143</v>
+        <v>1.091662027968823</v>
       </c>
       <c r="N19">
-        <v>1.013353944131207</v>
+        <v>1.083163171766193</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9798686977065471</v>
+        <v>1.053433935577964</v>
       </c>
       <c r="D20">
-        <v>1.003834342934661</v>
+        <v>1.065255576841713</v>
       </c>
       <c r="E20">
-        <v>0.9985498638813837</v>
+        <v>1.071597038191924</v>
       </c>
       <c r="F20">
-        <v>1.003840596104063</v>
+        <v>1.076174567246523</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040363057858205</v>
+        <v>1.078732889507224</v>
       </c>
       <c r="J20">
-        <v>1.008198327792433</v>
+        <v>1.079049851358544</v>
       </c>
       <c r="K20">
-        <v>1.017810103464121</v>
+        <v>1.078240456813048</v>
       </c>
       <c r="L20">
-        <v>1.012618260201706</v>
+        <v>1.084487833379533</v>
       </c>
       <c r="M20">
-        <v>1.017816247764767</v>
+        <v>1.088998322254262</v>
       </c>
       <c r="N20">
-        <v>1.009630085059863</v>
+        <v>1.080582225916221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9643931999211485</v>
+        <v>1.04254513914337</v>
       </c>
       <c r="D21">
-        <v>0.9917579323339414</v>
+        <v>1.056161316148327</v>
       </c>
       <c r="E21">
-        <v>0.9837698785210616</v>
+        <v>1.061410686594981</v>
       </c>
       <c r="F21">
-        <v>0.9889303463620507</v>
+        <v>1.066200428170325</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034323888205968</v>
+        <v>1.073308768775358</v>
       </c>
       <c r="J21">
-        <v>0.9954589295236443</v>
+        <v>1.07036580502209</v>
       </c>
       <c r="K21">
-        <v>1.006897153921003</v>
+        <v>1.070151472468274</v>
       </c>
       <c r="L21">
-        <v>0.9990654004856672</v>
+        <v>1.075315079746596</v>
       </c>
       <c r="M21">
-        <v>1.004124515989656</v>
+        <v>1.080027512568895</v>
       </c>
       <c r="N21">
-        <v>0.9968725953843028</v>
+        <v>1.071885847237896</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9539734649573497</v>
+        <v>1.035387957995634</v>
       </c>
       <c r="D22">
-        <v>0.9836423139391681</v>
+        <v>1.050183759276786</v>
       </c>
       <c r="E22">
-        <v>0.9738339489871072</v>
+        <v>1.054722075546239</v>
       </c>
       <c r="F22">
-        <v>0.9789108682146025</v>
+        <v>1.059650704190959</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030242140068554</v>
+        <v>1.069728098461715</v>
       </c>
       <c r="J22">
-        <v>0.9868756974707154</v>
+        <v>1.064649862458782</v>
       </c>
       <c r="K22">
-        <v>0.9995449369423346</v>
+        <v>1.0648225731955</v>
       </c>
       <c r="L22">
-        <v>0.9899422135523561</v>
+        <v>1.069282205814802</v>
       </c>
       <c r="M22">
-        <v>0.9949120100855164</v>
+        <v>1.074126369632381</v>
       </c>
       <c r="N22">
-        <v>0.9882771741573484</v>
+        <v>1.06616178738052</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9595692993583181</v>
+        <v>1.039213523101115</v>
       </c>
       <c r="D23">
-        <v>0.9879990996454155</v>
+        <v>1.053378755211146</v>
       </c>
       <c r="E23">
-        <v>0.9791683905664265</v>
+        <v>1.058296503521875</v>
       </c>
       <c r="F23">
-        <v>0.9842897741819556</v>
+        <v>1.063150947521234</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032435571955296</v>
+        <v>1.071643416036421</v>
       </c>
       <c r="J23">
-        <v>0.9914857040887105</v>
+        <v>1.067705795183005</v>
       </c>
       <c r="K23">
-        <v>1.003493683182428</v>
+        <v>1.067672010932234</v>
       </c>
       <c r="L23">
-        <v>0.9948414577662832</v>
+        <v>1.0725071316875</v>
       </c>
       <c r="M23">
-        <v>0.9998588158917517</v>
+        <v>1.077280976492352</v>
       </c>
       <c r="N23">
-        <v>0.9928937275135163</v>
+        <v>1.069222059879732</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9801178129997582</v>
+        <v>1.053611620498134</v>
       </c>
       <c r="D24">
-        <v>1.00402894925453</v>
+        <v>1.065403970594101</v>
       </c>
       <c r="E24">
-        <v>0.9987880055957608</v>
+        <v>1.071763363643721</v>
       </c>
       <c r="F24">
-        <v>1.004080897416544</v>
+        <v>1.076337419074925</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04046000918926</v>
+        <v>1.078821146381296</v>
       </c>
       <c r="J24">
-        <v>1.00840329216697</v>
+        <v>1.079191424926691</v>
       </c>
       <c r="K24">
-        <v>1.017985679530492</v>
+        <v>1.078372253440207</v>
       </c>
       <c r="L24">
-        <v>1.012836438696743</v>
+        <v>1.084637450235455</v>
       </c>
       <c r="M24">
-        <v>1.01803672493732</v>
+        <v>1.089144626964774</v>
       </c>
       <c r="N24">
-        <v>1.009835340507321</v>
+        <v>1.080724000535073</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001513070050725</v>
+        <v>1.069136663260855</v>
       </c>
       <c r="D25">
-        <v>1.02076415156294</v>
+        <v>1.078367024702424</v>
       </c>
       <c r="E25">
-        <v>1.019266740551126</v>
+        <v>1.08630847931571</v>
       </c>
       <c r="F25">
-        <v>1.024752982301599</v>
+        <v>1.090577387845018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048748282440049</v>
+        <v>1.086496839761212</v>
       </c>
       <c r="J25">
-        <v>1.02598962042803</v>
+        <v>1.09154203877971</v>
       </c>
       <c r="K25">
-        <v>1.033048460611942</v>
+        <v>1.089859467209734</v>
       </c>
       <c r="L25">
-        <v>1.031573150342179</v>
+        <v>1.097699974309031</v>
       </c>
       <c r="M25">
-        <v>1.036978818866123</v>
+        <v>1.101915375994668</v>
       </c>
       <c r="N25">
-        <v>1.027446643371692</v>
+        <v>1.093092153676398</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.080720601621814</v>
+        <v>1.10696588652695</v>
       </c>
       <c r="D2">
-        <v>1.088033289539022</v>
+        <v>1.103790675055804</v>
       </c>
       <c r="E2">
-        <v>1.097177276071964</v>
+        <v>1.118845340676255</v>
       </c>
       <c r="F2">
-        <v>1.101215914590875</v>
+        <v>1.121568073169455</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.092171862536918</v>
+        <v>1.081720913106794</v>
       </c>
       <c r="J2">
-        <v>1.100728642024547</v>
+        <v>1.111717419885484</v>
       </c>
       <c r="K2">
-        <v>1.098388710038765</v>
+        <v>1.10640445931726</v>
       </c>
       <c r="L2">
-        <v>1.107430535719122</v>
+        <v>1.121422090403256</v>
       </c>
       <c r="M2">
-        <v>1.111424716216834</v>
+        <v>1.124138239079049</v>
       </c>
       <c r="N2">
-        <v>1.102291802951562</v>
+        <v>1.113296186137492</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.088731414408139</v>
+        <v>1.108478968642181</v>
       </c>
       <c r="D3">
-        <v>1.094713059928934</v>
+        <v>1.10503660068001</v>
       </c>
       <c r="E3">
-        <v>1.104701456263853</v>
+        <v>1.120300600433435</v>
       </c>
       <c r="F3">
-        <v>1.108579216930616</v>
+        <v>1.122984388689149</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.09606571247787</v>
+        <v>1.082343583847421</v>
       </c>
       <c r="J3">
-        <v>1.107064296241389</v>
+        <v>1.112899011937741</v>
       </c>
       <c r="K3">
-        <v>1.104262200107265</v>
+        <v>1.107471934304521</v>
       </c>
       <c r="L3">
-        <v>1.114149498856893</v>
+        <v>1.122701109465684</v>
       </c>
       <c r="M3">
-        <v>1.117988607253805</v>
+        <v>1.12537887942661</v>
       </c>
       <c r="N3">
-        <v>1.108636454524102</v>
+        <v>1.114479456185993</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>1.093747534201663</v>
+        <v>1.109455724566376</v>
       </c>
       <c r="D4">
-        <v>1.098893065274027</v>
+        <v>1.105840245082653</v>
       </c>
       <c r="E4">
-        <v>1.109416146051463</v>
+        <v>1.121240186983429</v>
       </c>
       <c r="F4">
-        <v>1.113192372376106</v>
+        <v>1.12389869487757</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.098489554832354</v>
+        <v>1.082743845440841</v>
       </c>
       <c r="J4">
-        <v>1.111023282466474</v>
+        <v>1.113660765335917</v>
       </c>
       <c r="K4">
-        <v>1.107928296058023</v>
+        <v>1.108159539556617</v>
       </c>
       <c r="L4">
-        <v>1.118351737004066</v>
+        <v>1.123526121475147</v>
       </c>
       <c r="M4">
-        <v>1.122092761423351</v>
+        <v>1.126178969145299</v>
       </c>
       <c r="N4">
-        <v>1.112601062963728</v>
+        <v>1.115242291361369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.095818600462636</v>
+        <v>1.109865809461273</v>
       </c>
       <c r="D5">
-        <v>1.100618222506486</v>
+        <v>1.106177493925995</v>
       </c>
       <c r="E5">
-        <v>1.111363494613735</v>
+        <v>1.121634703797054</v>
       </c>
       <c r="F5">
-        <v>1.115097602063819</v>
+        <v>1.124282564266744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.099486842103142</v>
+        <v>1.08291148620298</v>
       </c>
       <c r="J5">
-        <v>1.112655879591371</v>
+        <v>1.113980340265914</v>
       </c>
       <c r="K5">
-        <v>1.109439124534545</v>
+        <v>1.108447868790934</v>
       </c>
       <c r="L5">
-        <v>1.12008553688337</v>
+        <v>1.12387234255061</v>
       </c>
       <c r="M5">
-        <v>1.123785825846989</v>
+        <v>1.126514691488388</v>
       </c>
       <c r="N5">
-        <v>1.114235978563804</v>
+        <v>1.115562320124423</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.096164195137916</v>
+        <v>1.109934632937402</v>
       </c>
       <c r="D6">
-        <v>1.10090605379339</v>
+        <v>1.106234084342918</v>
       </c>
       <c r="E6">
-        <v>1.111688486738595</v>
+        <v>1.121700916695494</v>
       </c>
       <c r="F6">
-        <v>1.115415554138727</v>
+        <v>1.124346988262704</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0996530523082</v>
+        <v>1.082939597063999</v>
       </c>
       <c r="J6">
-        <v>1.112928189468854</v>
+        <v>1.114033959464463</v>
       </c>
       <c r="K6">
-        <v>1.109691065731553</v>
+        <v>1.108496237360358</v>
       </c>
       <c r="L6">
-        <v>1.120374779240302</v>
+        <v>1.123930438825946</v>
       </c>
       <c r="M6">
-        <v>1.124068256669421</v>
+        <v>1.126571023720533</v>
       </c>
       <c r="N6">
-        <v>1.114508675152547</v>
+        <v>1.115616015468384</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.093775353094432</v>
+        <v>1.109461206263725</v>
       </c>
       <c r="D7">
-        <v>1.098916240672694</v>
+        <v>1.105844753778848</v>
       </c>
       <c r="E7">
-        <v>1.109442300292272</v>
+        <v>1.121245460432781</v>
       </c>
       <c r="F7">
-        <v>1.113217961657602</v>
+        <v>1.123903826132632</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.098502964347358</v>
+        <v>1.082746087931434</v>
       </c>
       <c r="J7">
-        <v>1.111045219720594</v>
+        <v>1.11366503811972</v>
       </c>
       <c r="K7">
-        <v>1.107948601021215</v>
+        <v>1.108163395124406</v>
       </c>
       <c r="L7">
-        <v>1.118375030596827</v>
+        <v>1.123530750100443</v>
       </c>
       <c r="M7">
-        <v>1.122115508798085</v>
+        <v>1.126183457570319</v>
       </c>
       <c r="N7">
-        <v>1.112623031371265</v>
+        <v>1.115246570213015</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.08346405308561</v>
+        <v>1.107477723668662</v>
       </c>
       <c r="D8">
-        <v>1.090321427722166</v>
+        <v>1.104212274786645</v>
       </c>
       <c r="E8">
-        <v>1.099753344223694</v>
+        <v>1.119337585116112</v>
       </c>
       <c r="F8">
-        <v>1.103737052119325</v>
+        <v>1.122047172833906</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.093508403841079</v>
+        <v>1.08193189874433</v>
       </c>
       <c r="J8">
-        <v>1.102900119774804</v>
+        <v>1.112117332215126</v>
       </c>
       <c r="K8">
-        <v>1.100402650521311</v>
+        <v>1.10676586854504</v>
       </c>
       <c r="L8">
-        <v>1.109732595268169</v>
+        <v>1.121854883944944</v>
       </c>
       <c r="M8">
-        <v>1.113673874617138</v>
+        <v>1.124558080618436</v>
       </c>
       <c r="N8">
-        <v>1.104466364449296</v>
+        <v>1.113696666388512</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.063892811562261</v>
+        <v>1.103964455667371</v>
       </c>
       <c r="D9">
-        <v>1.073989287630029</v>
+        <v>1.101315731857145</v>
       </c>
       <c r="E9">
-        <v>1.081392844190841</v>
+        <v>1.115959466189741</v>
       </c>
       <c r="F9">
-        <v>1.085765213815884</v>
+        <v>1.118758703880666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.083912511663328</v>
+        <v>1.080476699661862</v>
       </c>
       <c r="J9">
-        <v>1.087374904852209</v>
+        <v>1.109368157036057</v>
       </c>
       <c r="K9">
-        <v>1.085986068332521</v>
+        <v>1.104278995774293</v>
       </c>
       <c r="L9">
-        <v>1.093290298847059</v>
+        <v>1.118881520304149</v>
       </c>
       <c r="M9">
-        <v>1.097604806624311</v>
+        <v>1.121673013617593</v>
       </c>
       <c r="N9">
-        <v>1.088919101940744</v>
+        <v>1.110943587065354</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.049712502091764</v>
+        <v>1.101609489364928</v>
       </c>
       <c r="D10">
-        <v>1.062147534297796</v>
+        <v>1.099370819742478</v>
       </c>
       <c r="E10">
-        <v>1.068114275079782</v>
+        <v>1.113695943744549</v>
       </c>
       <c r="F10">
-        <v>1.072764471921157</v>
+        <v>1.116554551161839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.076882496626829</v>
+        <v>1.079492488198634</v>
       </c>
       <c r="J10">
-        <v>1.07608370624702</v>
+        <v>1.107520136796509</v>
       </c>
       <c r="K10">
-        <v>1.075478574960283</v>
+        <v>1.102604298979394</v>
       </c>
       <c r="L10">
-        <v>1.081353744589739</v>
+        <v>1.116885127805522</v>
       </c>
       <c r="M10">
-        <v>1.085933474636841</v>
+        <v>1.119735044404867</v>
       </c>
       <c r="N10">
-        <v>1.077611868538417</v>
+        <v>1.109092942425095</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.043252483283425</v>
+        <v>1.100586594177711</v>
       </c>
       <c r="D11">
-        <v>1.056752095213274</v>
+        <v>1.098525246274916</v>
       </c>
       <c r="E11">
-        <v>1.062072019224158</v>
+        <v>1.112712975614104</v>
       </c>
       <c r="F11">
-        <v>1.066848011187213</v>
+        <v>1.115597199533686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.073662013480141</v>
+        <v>1.079062907157615</v>
       </c>
       <c r="J11">
-        <v>1.070930389663831</v>
+        <v>1.106716197717674</v>
       </c>
       <c r="K11">
-        <v>1.070677636165516</v>
+        <v>1.101875049734831</v>
       </c>
       <c r="L11">
-        <v>1.07591116697922</v>
+        <v>1.116017195135485</v>
       </c>
       <c r="M11">
-        <v>1.08061053974573</v>
+        <v>1.118892307377779</v>
       </c>
       <c r="N11">
-        <v>1.072451233654587</v>
+        <v>1.108287861660556</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.040799742859999</v>
+        <v>1.10020615592443</v>
       </c>
       <c r="D12">
-        <v>1.054703556002339</v>
+        <v>1.098210640012821</v>
       </c>
       <c r="E12">
-        <v>1.059779053209367</v>
+        <v>1.112347418844308</v>
       </c>
       <c r="F12">
-        <v>1.064602703460251</v>
+        <v>1.115241144453077</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.072436626048244</v>
+        <v>1.078902823292175</v>
       </c>
       <c r="J12">
-        <v>1.068972417156558</v>
+        <v>1.106417008192202</v>
       </c>
       <c r="K12">
-        <v>1.068852756587057</v>
+        <v>1.101603549653959</v>
       </c>
       <c r="L12">
-        <v>1.073844098702474</v>
+        <v>1.115694273097265</v>
       </c>
       <c r="M12">
-        <v>1.078588725161349</v>
+        <v>1.118578728996673</v>
       </c>
       <c r="N12">
-        <v>1.070490480601771</v>
+        <v>1.10798824725164</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.041328362708377</v>
+        <v>1.100287783559762</v>
       </c>
       <c r="D13">
-        <v>1.055145059404417</v>
+        <v>1.098278147931714</v>
       </c>
       <c r="E13">
-        <v>1.060273183945328</v>
+        <v>1.112425852035663</v>
       </c>
       <c r="F13">
-        <v>1.065086567235704</v>
+        <v>1.115317540103134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.072700842092501</v>
+        <v>1.078937185375695</v>
       </c>
       <c r="J13">
-        <v>1.069394463870929</v>
+        <v>1.106481211346486</v>
       </c>
       <c r="K13">
-        <v>1.069246150294271</v>
+        <v>1.101661815750409</v>
       </c>
       <c r="L13">
-        <v>1.074289624674045</v>
+        <v>1.115763565262902</v>
       </c>
       <c r="M13">
-        <v>1.079024505635294</v>
+        <v>1.118646017597391</v>
       </c>
       <c r="N13">
-        <v>1.070913126670885</v>
+        <v>1.108052541581767</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.043050856846989</v>
+        <v>1.100555157085982</v>
       </c>
       <c r="D14">
-        <v>1.056583695190389</v>
+        <v>1.09849925154138</v>
       </c>
       <c r="E14">
-        <v>1.061883502818481</v>
+        <v>1.112682767588227</v>
       </c>
       <c r="F14">
-        <v>1.066663414530996</v>
+        <v>1.115567777192727</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.073561334091874</v>
+        <v>1.07904968518354</v>
       </c>
       <c r="J14">
-        <v>1.070769462584712</v>
+        <v>1.106691478318141</v>
       </c>
       <c r="K14">
-        <v>1.070527664062659</v>
+        <v>1.101852620245945</v>
       </c>
       <c r="L14">
-        <v>1.07574125680949</v>
+        <v>1.115990513235178</v>
       </c>
       <c r="M14">
-        <v>1.080444353091018</v>
+        <v>1.118866398134487</v>
       </c>
       <c r="N14">
-        <v>1.072290078040556</v>
+        <v>1.10826310715664</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.044104925374715</v>
+        <v>1.10071982953017</v>
       </c>
       <c r="D15">
-        <v>1.057464062515614</v>
+        <v>1.098635411225871</v>
       </c>
       <c r="E15">
-        <v>1.062869082055006</v>
+        <v>1.112841003291653</v>
       </c>
       <c r="F15">
-        <v>1.06762849786066</v>
+        <v>1.115721896303843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.074087562120938</v>
+        <v>1.079118931166236</v>
       </c>
       <c r="J15">
-        <v>1.07161070698633</v>
+        <v>1.106820954815111</v>
       </c>
       <c r="K15">
-        <v>1.07131160940086</v>
+        <v>1.101970098168882</v>
       </c>
       <c r="L15">
-        <v>1.076629493055268</v>
+        <v>1.116130272412007</v>
       </c>
       <c r="M15">
-        <v>1.081313116479532</v>
+        <v>1.119002108899403</v>
       </c>
       <c r="N15">
-        <v>1.073132517105717</v>
+        <v>1.108392767525087</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.050134071210952</v>
+        <v>1.101677307562886</v>
       </c>
       <c r="D16">
-        <v>1.062499624372338</v>
+        <v>1.099426864915441</v>
       </c>
       <c r="E16">
-        <v>1.068508734503199</v>
+        <v>1.113761119182181</v>
       </c>
       <c r="F16">
-        <v>1.073150707244329</v>
+        <v>1.116618024620884</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.077092294819044</v>
+        <v>1.079520925711646</v>
       </c>
       <c r="J16">
-        <v>1.076419811916791</v>
+        <v>1.107573412082079</v>
       </c>
       <c r="K16">
-        <v>1.075791589188895</v>
+        <v>1.102652609792965</v>
       </c>
       <c r="L16">
-        <v>1.081708826237656</v>
+        <v>1.116942655423243</v>
       </c>
       <c r="M16">
-        <v>1.086280724647158</v>
+        <v>1.119790897738358</v>
       </c>
       <c r="N16">
-        <v>1.077948451516791</v>
+        <v>1.109146293367681</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.053826960671856</v>
+        <v>1.102277048774934</v>
       </c>
       <c r="D17">
-        <v>1.065583811594211</v>
+        <v>1.099922402104445</v>
       </c>
       <c r="E17">
-        <v>1.071964941442168</v>
+        <v>1.11433751352169</v>
       </c>
       <c r="F17">
-        <v>1.076534786609352</v>
+        <v>1.117179348005921</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.078928095251942</v>
+        <v>1.079772168920801</v>
       </c>
       <c r="J17">
-        <v>1.079362994844212</v>
+        <v>1.108044402064794</v>
       </c>
       <c r="K17">
-        <v>1.078531971480951</v>
+        <v>1.103079628562561</v>
       </c>
       <c r="L17">
-        <v>1.084818771023352</v>
+        <v>1.117451302589558</v>
       </c>
       <c r="M17">
-        <v>1.089321932927986</v>
+        <v>1.120284717730454</v>
       </c>
       <c r="N17">
-        <v>1.080895814101556</v>
+        <v>1.109617952210195</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.055950485104163</v>
+        <v>1.102626561729409</v>
       </c>
       <c r="D18">
-        <v>1.067357232338976</v>
+        <v>1.100211111856211</v>
       </c>
       <c r="E18">
-        <v>1.073953009906066</v>
+        <v>1.114673440532749</v>
       </c>
       <c r="F18">
-        <v>1.078481306336074</v>
+        <v>1.117506475588988</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.07998206082765</v>
+        <v>1.079918386123905</v>
       </c>
       <c r="J18">
-        <v>1.081054524690642</v>
+        <v>1.108318762928385</v>
       </c>
       <c r="K18">
-        <v>1.080106449673405</v>
+        <v>1.103328306960869</v>
       </c>
       <c r="L18">
-        <v>1.086606636143274</v>
+        <v>1.11774765264777</v>
       </c>
       <c r="M18">
-        <v>1.091070161405275</v>
+        <v>1.120572409491115</v>
       </c>
       <c r="N18">
-        <v>1.08258974611439</v>
+        <v>1.109892702697683</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.056669527029212</v>
+        <v>1.102745685075506</v>
       </c>
       <c r="D19">
-        <v>1.067957709398495</v>
+        <v>1.10030949895989</v>
       </c>
       <c r="E19">
-        <v>1.074626291511905</v>
+        <v>1.114787936801705</v>
       </c>
       <c r="F19">
-        <v>1.079140506463454</v>
+        <v>1.117617969981082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.08033865612923</v>
+        <v>1.079968186833498</v>
       </c>
       <c r="J19">
-        <v>1.081627137167049</v>
+        <v>1.108412252187434</v>
       </c>
       <c r="K19">
-        <v>1.080639353736894</v>
+        <v>1.103413033246492</v>
       </c>
       <c r="L19">
-        <v>1.087211942966543</v>
+        <v>1.117848643803744</v>
       </c>
       <c r="M19">
-        <v>1.091662027968823</v>
+        <v>1.12067044671327</v>
       </c>
       <c r="N19">
-        <v>1.083163171766193</v>
+        <v>1.109986324722202</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.053433935577964</v>
+        <v>1.102212733949659</v>
       </c>
       <c r="D20">
-        <v>1.065255576841713</v>
+        <v>1.099869269724046</v>
       </c>
       <c r="E20">
-        <v>1.071597038191924</v>
+        <v>1.114275700288685</v>
       </c>
       <c r="F20">
-        <v>1.076174567246523</v>
+        <v>1.117119152651637</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.078732889507224</v>
+        <v>1.079745246944738</v>
       </c>
       <c r="J20">
-        <v>1.079049851358544</v>
+        <v>1.107993906565222</v>
       </c>
       <c r="K20">
-        <v>1.078240456813048</v>
+        <v>1.103033854354315</v>
       </c>
       <c r="L20">
-        <v>1.084487833379533</v>
+        <v>1.117396764309949</v>
       </c>
       <c r="M20">
-        <v>1.088998322254262</v>
+        <v>1.120231771284484</v>
       </c>
       <c r="N20">
-        <v>1.080582225916221</v>
+        <v>1.109567385001223</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.04254513914337</v>
+        <v>1.100476435852724</v>
       </c>
       <c r="D21">
-        <v>1.056161316148327</v>
+        <v>1.098434156545121</v>
       </c>
       <c r="E21">
-        <v>1.061410686594981</v>
+        <v>1.112607124557015</v>
       </c>
       <c r="F21">
-        <v>1.066200428170325</v>
+        <v>1.115494101170865</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.073308768775358</v>
+        <v>1.079016571150323</v>
       </c>
       <c r="J21">
-        <v>1.07036580502209</v>
+        <v>1.106629575770173</v>
       </c>
       <c r="K21">
-        <v>1.070151472468274</v>
+        <v>1.10179645039041</v>
       </c>
       <c r="L21">
-        <v>1.075315079746596</v>
+        <v>1.115923697514708</v>
       </c>
       <c r="M21">
-        <v>1.080027512568895</v>
+        <v>1.118801516775925</v>
       </c>
       <c r="N21">
-        <v>1.071885847237896</v>
+        <v>1.108201116699954</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.035387957995634</v>
+        <v>1.099381918675029</v>
       </c>
       <c r="D22">
-        <v>1.050183759276786</v>
+        <v>1.097528815266636</v>
       </c>
       <c r="E22">
-        <v>1.054722075546239</v>
+        <v>1.111555481527888</v>
       </c>
       <c r="F22">
-        <v>1.059650704190959</v>
+        <v>1.114469746044366</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.069728098461715</v>
+        <v>1.078555421849973</v>
       </c>
       <c r="J22">
-        <v>1.064649862458782</v>
+        <v>1.105768459732584</v>
       </c>
       <c r="K22">
-        <v>1.0648225731955</v>
+        <v>1.101014827910708</v>
       </c>
       <c r="L22">
-        <v>1.069282205814802</v>
+        <v>1.114994431931211</v>
       </c>
       <c r="M22">
-        <v>1.074126369632381</v>
+        <v>1.117899081560147</v>
       </c>
       <c r="N22">
-        <v>1.06616178738052</v>
+        <v>1.10733877777882</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.039213523101115</v>
+        <v>1.099962415882054</v>
       </c>
       <c r="D23">
-        <v>1.053378755211146</v>
+        <v>1.098009044173164</v>
       </c>
       <c r="E23">
-        <v>1.058296503521875</v>
+        <v>1.112113222085683</v>
       </c>
       <c r="F23">
-        <v>1.063150947521234</v>
+        <v>1.115013028033319</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.071643416036421</v>
+        <v>1.078800172342692</v>
       </c>
       <c r="J23">
-        <v>1.067705795183005</v>
+        <v>1.106225270391864</v>
       </c>
       <c r="K23">
-        <v>1.067672010932234</v>
+        <v>1.10142952679817</v>
       </c>
       <c r="L23">
-        <v>1.0725071316875</v>
+        <v>1.115487349507625</v>
       </c>
       <c r="M23">
-        <v>1.077280976492352</v>
+        <v>1.11837778406924</v>
       </c>
       <c r="N23">
-        <v>1.069222059879732</v>
+        <v>1.107796237161633</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.053611620498134</v>
+        <v>1.10224179599623</v>
       </c>
       <c r="D24">
-        <v>1.065403970594101</v>
+        <v>1.099893278975456</v>
       </c>
       <c r="E24">
-        <v>1.071763363643721</v>
+        <v>1.114303631874878</v>
       </c>
       <c r="F24">
-        <v>1.076337419074925</v>
+        <v>1.117146353215253</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.078821146381296</v>
+        <v>1.079757412842596</v>
       </c>
       <c r="J24">
-        <v>1.079191424926691</v>
+        <v>1.1080167244192</v>
       </c>
       <c r="K24">
-        <v>1.078372253440207</v>
+        <v>1.103054538967483</v>
       </c>
       <c r="L24">
-        <v>1.084637450235455</v>
+        <v>1.117421408846839</v>
       </c>
       <c r="M24">
-        <v>1.089144626964774</v>
+        <v>1.12025569657073</v>
       </c>
       <c r="N24">
-        <v>1.080724000535073</v>
+        <v>1.10959023525917</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.069136663260855</v>
+        <v>1.104874928805633</v>
       </c>
       <c r="D25">
-        <v>1.078367024702424</v>
+        <v>1.102066967777391</v>
       </c>
       <c r="E25">
-        <v>1.08630847931571</v>
+        <v>1.116834767057989</v>
       </c>
       <c r="F25">
-        <v>1.090577387845018</v>
+        <v>1.11961089900434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.086496839761212</v>
+        <v>1.080855362815084</v>
       </c>
       <c r="J25">
-        <v>1.09154203877971</v>
+        <v>1.110081533414651</v>
       </c>
       <c r="K25">
-        <v>1.089859467209734</v>
+        <v>1.104924834721541</v>
       </c>
       <c r="L25">
-        <v>1.097699974309031</v>
+        <v>1.119652661744362</v>
       </c>
       <c r="M25">
-        <v>1.101915375994668</v>
+        <v>1.122421406791084</v>
       </c>
       <c r="N25">
-        <v>1.093092153676398</v>
+        <v>1.111657976520231</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.10696588652695</v>
+        <v>1.080720601621814</v>
       </c>
       <c r="D2">
-        <v>1.103790675055804</v>
+        <v>1.088033289539021</v>
       </c>
       <c r="E2">
-        <v>1.118845340676255</v>
+        <v>1.097177276071963</v>
       </c>
       <c r="F2">
-        <v>1.121568073169455</v>
+        <v>1.101215914590875</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.081720913106794</v>
+        <v>1.092171862536917</v>
       </c>
       <c r="J2">
-        <v>1.111717419885484</v>
+        <v>1.100728642024546</v>
       </c>
       <c r="K2">
-        <v>1.10640445931726</v>
+        <v>1.098388710038764</v>
       </c>
       <c r="L2">
-        <v>1.121422090403256</v>
+        <v>1.107430535719121</v>
       </c>
       <c r="M2">
-        <v>1.124138239079049</v>
+        <v>1.111424716216834</v>
       </c>
       <c r="N2">
-        <v>1.113296186137492</v>
+        <v>1.102291802951561</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.108478968642181</v>
+        <v>1.088731414408136</v>
       </c>
       <c r="D3">
-        <v>1.10503660068001</v>
+        <v>1.094713059928931</v>
       </c>
       <c r="E3">
-        <v>1.120300600433435</v>
+        <v>1.10470145626385</v>
       </c>
       <c r="F3">
-        <v>1.122984388689149</v>
+        <v>1.108579216930613</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.082343583847421</v>
+        <v>1.096065712477869</v>
       </c>
       <c r="J3">
-        <v>1.112899011937741</v>
+        <v>1.107064296241387</v>
       </c>
       <c r="K3">
-        <v>1.107471934304521</v>
+        <v>1.104262200107263</v>
       </c>
       <c r="L3">
-        <v>1.122701109465684</v>
+        <v>1.11414949885689</v>
       </c>
       <c r="M3">
-        <v>1.12537887942661</v>
+        <v>1.117988607253803</v>
       </c>
       <c r="N3">
-        <v>1.114479456185993</v>
+        <v>1.108636454524099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.109455724566376</v>
+        <v>1.093747534201663</v>
       </c>
       <c r="D4">
-        <v>1.105840245082653</v>
+        <v>1.098893065274027</v>
       </c>
       <c r="E4">
-        <v>1.121240186983429</v>
+        <v>1.109416146051463</v>
       </c>
       <c r="F4">
-        <v>1.12389869487757</v>
+        <v>1.113192372376106</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.082743845440841</v>
+        <v>1.098489554832354</v>
       </c>
       <c r="J4">
-        <v>1.113660765335917</v>
+        <v>1.111023282466474</v>
       </c>
       <c r="K4">
-        <v>1.108159539556617</v>
+        <v>1.107928296058023</v>
       </c>
       <c r="L4">
-        <v>1.123526121475147</v>
+        <v>1.118351737004067</v>
       </c>
       <c r="M4">
-        <v>1.126178969145299</v>
+        <v>1.122092761423351</v>
       </c>
       <c r="N4">
-        <v>1.115242291361369</v>
+        <v>1.112601062963728</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.109865809461273</v>
+        <v>1.095818600462638</v>
       </c>
       <c r="D5">
-        <v>1.106177493925995</v>
+        <v>1.100618222506487</v>
       </c>
       <c r="E5">
-        <v>1.121634703797054</v>
+        <v>1.111363494613737</v>
       </c>
       <c r="F5">
-        <v>1.124282564266744</v>
+        <v>1.115097602063822</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.08291148620298</v>
+        <v>1.099486842103143</v>
       </c>
       <c r="J5">
-        <v>1.113980340265914</v>
+        <v>1.112655879591373</v>
       </c>
       <c r="K5">
-        <v>1.108447868790934</v>
+        <v>1.109439124534546</v>
       </c>
       <c r="L5">
-        <v>1.12387234255061</v>
+        <v>1.120085536883372</v>
       </c>
       <c r="M5">
-        <v>1.126514691488388</v>
+        <v>1.123785825846991</v>
       </c>
       <c r="N5">
-        <v>1.115562320124423</v>
+        <v>1.114235978563806</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.109934632937402</v>
+        <v>1.096164195137917</v>
       </c>
       <c r="D6">
-        <v>1.106234084342918</v>
+        <v>1.100906053793391</v>
       </c>
       <c r="E6">
-        <v>1.121700916695494</v>
+        <v>1.111688486738596</v>
       </c>
       <c r="F6">
-        <v>1.124346988262704</v>
+        <v>1.115415554138728</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.082939597063999</v>
+        <v>1.0996530523082</v>
       </c>
       <c r="J6">
-        <v>1.114033959464463</v>
+        <v>1.112928189468854</v>
       </c>
       <c r="K6">
-        <v>1.108496237360358</v>
+        <v>1.109691065731554</v>
       </c>
       <c r="L6">
-        <v>1.123930438825946</v>
+        <v>1.120374779240303</v>
       </c>
       <c r="M6">
-        <v>1.126571023720533</v>
+        <v>1.124068256669421</v>
       </c>
       <c r="N6">
-        <v>1.115616015468384</v>
+        <v>1.114508675152547</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.109461206263725</v>
+        <v>1.093775353094432</v>
       </c>
       <c r="D7">
-        <v>1.105844753778848</v>
+        <v>1.098916240672694</v>
       </c>
       <c r="E7">
-        <v>1.121245460432781</v>
+        <v>1.109442300292271</v>
       </c>
       <c r="F7">
-        <v>1.123903826132632</v>
+        <v>1.113217961657602</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.082746087931434</v>
+        <v>1.098502964347358</v>
       </c>
       <c r="J7">
-        <v>1.11366503811972</v>
+        <v>1.111045219720594</v>
       </c>
       <c r="K7">
-        <v>1.108163395124406</v>
+        <v>1.107948601021215</v>
       </c>
       <c r="L7">
-        <v>1.123530750100443</v>
+        <v>1.118375030596826</v>
       </c>
       <c r="M7">
-        <v>1.126183457570319</v>
+        <v>1.122115508798085</v>
       </c>
       <c r="N7">
-        <v>1.115246570213015</v>
+        <v>1.112623031371265</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.107477723668662</v>
+        <v>1.083464053085609</v>
       </c>
       <c r="D8">
-        <v>1.104212274786645</v>
+        <v>1.090321427722165</v>
       </c>
       <c r="E8">
-        <v>1.119337585116112</v>
+        <v>1.099753344223694</v>
       </c>
       <c r="F8">
-        <v>1.122047172833906</v>
+        <v>1.103737052119324</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.08193189874433</v>
+        <v>1.093508403841079</v>
       </c>
       <c r="J8">
-        <v>1.112117332215126</v>
+        <v>1.102900119774803</v>
       </c>
       <c r="K8">
-        <v>1.10676586854504</v>
+        <v>1.10040265052131</v>
       </c>
       <c r="L8">
-        <v>1.121854883944944</v>
+        <v>1.109732595268169</v>
       </c>
       <c r="M8">
-        <v>1.124558080618436</v>
+        <v>1.113673874617136</v>
       </c>
       <c r="N8">
-        <v>1.113696666388512</v>
+        <v>1.104466364449296</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.103964455667371</v>
+        <v>1.063892811562262</v>
       </c>
       <c r="D9">
-        <v>1.101315731857145</v>
+        <v>1.07398928763003</v>
       </c>
       <c r="E9">
-        <v>1.115959466189741</v>
+        <v>1.081392844190843</v>
       </c>
       <c r="F9">
-        <v>1.118758703880666</v>
+        <v>1.085765213815885</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.080476699661862</v>
+        <v>1.083912511663329</v>
       </c>
       <c r="J9">
-        <v>1.109368157036057</v>
+        <v>1.08737490485221</v>
       </c>
       <c r="K9">
-        <v>1.104278995774293</v>
+        <v>1.085986068332522</v>
       </c>
       <c r="L9">
-        <v>1.118881520304149</v>
+        <v>1.09329029884706</v>
       </c>
       <c r="M9">
-        <v>1.121673013617593</v>
+        <v>1.097604806624312</v>
       </c>
       <c r="N9">
-        <v>1.110943587065354</v>
+        <v>1.088919101940745</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.101609489364928</v>
+        <v>1.049712502091765</v>
       </c>
       <c r="D10">
-        <v>1.099370819742478</v>
+        <v>1.062147534297797</v>
       </c>
       <c r="E10">
-        <v>1.113695943744549</v>
+        <v>1.068114275079782</v>
       </c>
       <c r="F10">
-        <v>1.116554551161839</v>
+        <v>1.072764471921157</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.079492488198634</v>
+        <v>1.07688249662683</v>
       </c>
       <c r="J10">
-        <v>1.107520136796509</v>
+        <v>1.07608370624702</v>
       </c>
       <c r="K10">
-        <v>1.102604298979394</v>
+        <v>1.075478574960284</v>
       </c>
       <c r="L10">
-        <v>1.116885127805522</v>
+        <v>1.08135374458974</v>
       </c>
       <c r="M10">
-        <v>1.119735044404867</v>
+        <v>1.085933474636842</v>
       </c>
       <c r="N10">
-        <v>1.109092942425095</v>
+        <v>1.077611868538417</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.100586594177711</v>
+        <v>1.043252483283424</v>
       </c>
       <c r="D11">
-        <v>1.098525246274916</v>
+        <v>1.056752095213273</v>
       </c>
       <c r="E11">
-        <v>1.112712975614104</v>
+        <v>1.062072019224157</v>
       </c>
       <c r="F11">
-        <v>1.115597199533686</v>
+        <v>1.066848011187212</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.079062907157615</v>
+        <v>1.07366201348014</v>
       </c>
       <c r="J11">
-        <v>1.106716197717674</v>
+        <v>1.07093038966383</v>
       </c>
       <c r="K11">
-        <v>1.101875049734831</v>
+        <v>1.070677636165515</v>
       </c>
       <c r="L11">
-        <v>1.116017195135485</v>
+        <v>1.075911166979219</v>
       </c>
       <c r="M11">
-        <v>1.118892307377779</v>
+        <v>1.080610539745729</v>
       </c>
       <c r="N11">
-        <v>1.108287861660556</v>
+        <v>1.072451233654586</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.10020615592443</v>
+        <v>1.040799742859997</v>
       </c>
       <c r="D12">
-        <v>1.098210640012821</v>
+        <v>1.054703556002337</v>
       </c>
       <c r="E12">
-        <v>1.112347418844308</v>
+        <v>1.059779053209366</v>
       </c>
       <c r="F12">
-        <v>1.115241144453077</v>
+        <v>1.064602703460249</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.078902823292175</v>
+        <v>1.072436626048242</v>
       </c>
       <c r="J12">
-        <v>1.106417008192202</v>
+        <v>1.068972417156556</v>
       </c>
       <c r="K12">
-        <v>1.101603549653959</v>
+        <v>1.068852756587055</v>
       </c>
       <c r="L12">
-        <v>1.115694273097265</v>
+        <v>1.073844098702472</v>
       </c>
       <c r="M12">
-        <v>1.118578728996673</v>
+        <v>1.078588725161347</v>
       </c>
       <c r="N12">
-        <v>1.10798824725164</v>
+        <v>1.070490480601769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.100287783559762</v>
+        <v>1.041328362708378</v>
       </c>
       <c r="D13">
-        <v>1.098278147931714</v>
+        <v>1.055145059404417</v>
       </c>
       <c r="E13">
-        <v>1.112425852035663</v>
+        <v>1.060273183945329</v>
       </c>
       <c r="F13">
-        <v>1.115317540103134</v>
+        <v>1.065086567235705</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.078937185375695</v>
+        <v>1.072700842092502</v>
       </c>
       <c r="J13">
-        <v>1.106481211346486</v>
+        <v>1.069394463870929</v>
       </c>
       <c r="K13">
-        <v>1.101661815750409</v>
+        <v>1.069246150294273</v>
       </c>
       <c r="L13">
-        <v>1.115763565262902</v>
+        <v>1.074289624674046</v>
       </c>
       <c r="M13">
-        <v>1.118646017597391</v>
+        <v>1.079024505635294</v>
       </c>
       <c r="N13">
-        <v>1.108052541581767</v>
+        <v>1.070913126670886</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.100555157085982</v>
+        <v>1.043050856846992</v>
       </c>
       <c r="D14">
-        <v>1.09849925154138</v>
+        <v>1.056583695190391</v>
       </c>
       <c r="E14">
-        <v>1.112682767588227</v>
+        <v>1.061883502818483</v>
       </c>
       <c r="F14">
-        <v>1.115567777192727</v>
+        <v>1.066663414530999</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.07904968518354</v>
+        <v>1.073561334091875</v>
       </c>
       <c r="J14">
-        <v>1.106691478318141</v>
+        <v>1.070769462584714</v>
       </c>
       <c r="K14">
-        <v>1.101852620245945</v>
+        <v>1.070527664062661</v>
       </c>
       <c r="L14">
-        <v>1.115990513235178</v>
+        <v>1.075741256809492</v>
       </c>
       <c r="M14">
-        <v>1.118866398134487</v>
+        <v>1.080444353091021</v>
       </c>
       <c r="N14">
-        <v>1.10826310715664</v>
+        <v>1.072290078040559</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.10071982953017</v>
+        <v>1.044104925374711</v>
       </c>
       <c r="D15">
-        <v>1.098635411225871</v>
+        <v>1.05746406251561</v>
       </c>
       <c r="E15">
-        <v>1.112841003291653</v>
+        <v>1.062869082055002</v>
       </c>
       <c r="F15">
-        <v>1.115721896303843</v>
+        <v>1.067628497860657</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.079118931166236</v>
+        <v>1.074087562120936</v>
       </c>
       <c r="J15">
-        <v>1.106820954815111</v>
+        <v>1.071610706986327</v>
       </c>
       <c r="K15">
-        <v>1.101970098168882</v>
+        <v>1.071311609400856</v>
       </c>
       <c r="L15">
-        <v>1.116130272412007</v>
+        <v>1.076629493055264</v>
       </c>
       <c r="M15">
-        <v>1.119002108899403</v>
+        <v>1.081313116479528</v>
       </c>
       <c r="N15">
-        <v>1.108392767525087</v>
+        <v>1.073132517105713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.101677307562886</v>
+        <v>1.050134071210951</v>
       </c>
       <c r="D16">
-        <v>1.099426864915441</v>
+        <v>1.062499624372337</v>
       </c>
       <c r="E16">
-        <v>1.113761119182181</v>
+        <v>1.068508734503197</v>
       </c>
       <c r="F16">
-        <v>1.116618024620884</v>
+        <v>1.073150707244328</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.079520925711646</v>
+        <v>1.077092294819043</v>
       </c>
       <c r="J16">
-        <v>1.107573412082079</v>
+        <v>1.07641981191679</v>
       </c>
       <c r="K16">
-        <v>1.102652609792965</v>
+        <v>1.075791589188894</v>
       </c>
       <c r="L16">
-        <v>1.116942655423243</v>
+        <v>1.081708826237654</v>
       </c>
       <c r="M16">
-        <v>1.119790897738358</v>
+        <v>1.086280724647156</v>
       </c>
       <c r="N16">
-        <v>1.109146293367681</v>
+        <v>1.07794845151679</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.102277048774934</v>
+        <v>1.053826960671858</v>
       </c>
       <c r="D17">
-        <v>1.099922402104445</v>
+        <v>1.065583811594213</v>
       </c>
       <c r="E17">
-        <v>1.11433751352169</v>
+        <v>1.07196494144217</v>
       </c>
       <c r="F17">
-        <v>1.117179348005921</v>
+        <v>1.076534786609354</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.079772168920801</v>
+        <v>1.078928095251944</v>
       </c>
       <c r="J17">
-        <v>1.108044402064794</v>
+        <v>1.079362994844214</v>
       </c>
       <c r="K17">
-        <v>1.103079628562561</v>
+        <v>1.078531971480953</v>
       </c>
       <c r="L17">
-        <v>1.117451302589558</v>
+        <v>1.084818771023354</v>
       </c>
       <c r="M17">
-        <v>1.120284717730454</v>
+        <v>1.089321932927988</v>
       </c>
       <c r="N17">
-        <v>1.109617952210195</v>
+        <v>1.080895814101559</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.102626561729409</v>
+        <v>1.055950485104164</v>
       </c>
       <c r="D18">
-        <v>1.100211111856211</v>
+        <v>1.067357232338976</v>
       </c>
       <c r="E18">
-        <v>1.114673440532749</v>
+        <v>1.073953009906067</v>
       </c>
       <c r="F18">
-        <v>1.117506475588988</v>
+        <v>1.078481306336075</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.079918386123905</v>
+        <v>1.07998206082765</v>
       </c>
       <c r="J18">
-        <v>1.108318762928385</v>
+        <v>1.081054524690642</v>
       </c>
       <c r="K18">
-        <v>1.103328306960869</v>
+        <v>1.080106449673405</v>
       </c>
       <c r="L18">
-        <v>1.11774765264777</v>
+        <v>1.086606636143275</v>
       </c>
       <c r="M18">
-        <v>1.120572409491115</v>
+        <v>1.091070161405276</v>
       </c>
       <c r="N18">
-        <v>1.109892702697683</v>
+        <v>1.08258974611439</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.102745685075506</v>
+        <v>1.056669527029208</v>
       </c>
       <c r="D19">
-        <v>1.10030949895989</v>
+        <v>1.067957709398491</v>
       </c>
       <c r="E19">
-        <v>1.114787936801705</v>
+        <v>1.074626291511902</v>
       </c>
       <c r="F19">
-        <v>1.117617969981082</v>
+        <v>1.07914050646345</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.079968186833498</v>
+        <v>1.080338656129228</v>
       </c>
       <c r="J19">
-        <v>1.108412252187434</v>
+        <v>1.081627137167046</v>
       </c>
       <c r="K19">
-        <v>1.103413033246492</v>
+        <v>1.080639353736891</v>
       </c>
       <c r="L19">
-        <v>1.117848643803744</v>
+        <v>1.087211942966539</v>
       </c>
       <c r="M19">
-        <v>1.12067044671327</v>
+        <v>1.09166202796882</v>
       </c>
       <c r="N19">
-        <v>1.109986324722202</v>
+        <v>1.08316317176619</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.102212733949659</v>
+        <v>1.053433935577961</v>
       </c>
       <c r="D20">
-        <v>1.099869269724046</v>
+        <v>1.06525557684171</v>
       </c>
       <c r="E20">
-        <v>1.114275700288685</v>
+        <v>1.07159703819192</v>
       </c>
       <c r="F20">
-        <v>1.117119152651637</v>
+        <v>1.07617456724652</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.079745246944738</v>
+        <v>1.078732889507221</v>
       </c>
       <c r="J20">
-        <v>1.107993906565222</v>
+        <v>1.079049851358541</v>
       </c>
       <c r="K20">
-        <v>1.103033854354315</v>
+        <v>1.078240456813044</v>
       </c>
       <c r="L20">
-        <v>1.117396764309949</v>
+        <v>1.08448783337953</v>
       </c>
       <c r="M20">
-        <v>1.120231771284484</v>
+        <v>1.088998322254259</v>
       </c>
       <c r="N20">
-        <v>1.109567385001223</v>
+        <v>1.080582225916218</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.100476435852724</v>
+        <v>1.04254513914337</v>
       </c>
       <c r="D21">
-        <v>1.098434156545121</v>
+        <v>1.056161316148327</v>
       </c>
       <c r="E21">
-        <v>1.112607124557015</v>
+        <v>1.061410686594981</v>
       </c>
       <c r="F21">
-        <v>1.115494101170865</v>
+        <v>1.066200428170325</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.079016571150323</v>
+        <v>1.073308768775357</v>
       </c>
       <c r="J21">
-        <v>1.106629575770173</v>
+        <v>1.07036580502209</v>
       </c>
       <c r="K21">
-        <v>1.10179645039041</v>
+        <v>1.070151472468273</v>
       </c>
       <c r="L21">
-        <v>1.115923697514708</v>
+        <v>1.075315079746596</v>
       </c>
       <c r="M21">
-        <v>1.118801516775925</v>
+        <v>1.080027512568895</v>
       </c>
       <c r="N21">
-        <v>1.108201116699954</v>
+        <v>1.071885847237896</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.099381918675029</v>
+        <v>1.035387957995632</v>
       </c>
       <c r="D22">
-        <v>1.097528815266636</v>
+        <v>1.050183759276784</v>
       </c>
       <c r="E22">
-        <v>1.111555481527888</v>
+        <v>1.054722075546237</v>
       </c>
       <c r="F22">
-        <v>1.114469746044366</v>
+        <v>1.059650704190957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.078555421849973</v>
+        <v>1.069728098461714</v>
       </c>
       <c r="J22">
-        <v>1.105768459732584</v>
+        <v>1.06464986245878</v>
       </c>
       <c r="K22">
-        <v>1.101014827910708</v>
+        <v>1.064822573195499</v>
       </c>
       <c r="L22">
-        <v>1.114994431931211</v>
+        <v>1.0692822058148</v>
       </c>
       <c r="M22">
-        <v>1.117899081560147</v>
+        <v>1.074126369632379</v>
       </c>
       <c r="N22">
-        <v>1.10733877777882</v>
+        <v>1.066161787380518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.099962415882054</v>
+        <v>1.039213523101116</v>
       </c>
       <c r="D23">
-        <v>1.098009044173164</v>
+        <v>1.053378755211146</v>
       </c>
       <c r="E23">
-        <v>1.112113222085683</v>
+        <v>1.058296503521875</v>
       </c>
       <c r="F23">
-        <v>1.115013028033319</v>
+        <v>1.063150947521235</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.078800172342692</v>
+        <v>1.071643416036422</v>
       </c>
       <c r="J23">
-        <v>1.106225270391864</v>
+        <v>1.067705795183006</v>
       </c>
       <c r="K23">
-        <v>1.10142952679817</v>
+        <v>1.067672010932234</v>
       </c>
       <c r="L23">
-        <v>1.115487349507625</v>
+        <v>1.072507131687501</v>
       </c>
       <c r="M23">
-        <v>1.11837778406924</v>
+        <v>1.077280976492353</v>
       </c>
       <c r="N23">
-        <v>1.107796237161633</v>
+        <v>1.069222059879733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.10224179599623</v>
+        <v>1.053611620498135</v>
       </c>
       <c r="D24">
-        <v>1.099893278975456</v>
+        <v>1.065403970594102</v>
       </c>
       <c r="E24">
-        <v>1.114303631874878</v>
+        <v>1.071763363643722</v>
       </c>
       <c r="F24">
-        <v>1.117146353215253</v>
+        <v>1.076337419074926</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.079757412842596</v>
+        <v>1.078821146381296</v>
       </c>
       <c r="J24">
-        <v>1.1080167244192</v>
+        <v>1.079191424926691</v>
       </c>
       <c r="K24">
-        <v>1.103054538967483</v>
+        <v>1.078372253440207</v>
       </c>
       <c r="L24">
-        <v>1.117421408846839</v>
+        <v>1.084637450235456</v>
       </c>
       <c r="M24">
-        <v>1.12025569657073</v>
+        <v>1.089144626964775</v>
       </c>
       <c r="N24">
-        <v>1.10959023525917</v>
+        <v>1.080724000535074</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.104874928805633</v>
+        <v>1.069136663260856</v>
       </c>
       <c r="D25">
-        <v>1.102066967777391</v>
+        <v>1.078367024702424</v>
       </c>
       <c r="E25">
-        <v>1.116834767057989</v>
+        <v>1.086308479315711</v>
       </c>
       <c r="F25">
-        <v>1.11961089900434</v>
+        <v>1.090577387845019</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.080855362815084</v>
+        <v>1.086496839761212</v>
       </c>
       <c r="J25">
-        <v>1.110081533414651</v>
+        <v>1.091542038779711</v>
       </c>
       <c r="K25">
-        <v>1.104924834721541</v>
+        <v>1.089859467209735</v>
       </c>
       <c r="L25">
-        <v>1.119652661744362</v>
+        <v>1.097699974309032</v>
       </c>
       <c r="M25">
-        <v>1.122421406791084</v>
+        <v>1.101915375994668</v>
       </c>
       <c r="N25">
-        <v>1.111657976520231</v>
+        <v>1.0930921536764</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.080720601621814</v>
+        <v>1.006189527281717</v>
       </c>
       <c r="D2">
-        <v>1.088033289539021</v>
+        <v>1.025643549696208</v>
       </c>
       <c r="E2">
-        <v>1.097177276071963</v>
+        <v>1.024890715391983</v>
       </c>
       <c r="F2">
-        <v>1.101215914590875</v>
+        <v>1.033825290478469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.092171862536917</v>
+        <v>1.050878223376111</v>
       </c>
       <c r="J2">
-        <v>1.100728642024546</v>
+        <v>1.028186673646118</v>
       </c>
       <c r="K2">
-        <v>1.098388710038764</v>
+        <v>1.036756825228335</v>
       </c>
       <c r="L2">
-        <v>1.107430535719121</v>
+        <v>1.036013841158165</v>
       </c>
       <c r="M2">
-        <v>1.111424716216834</v>
+        <v>1.04483267113008</v>
       </c>
       <c r="N2">
-        <v>1.102291802951561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013243835763486</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044054433852027</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037060519690621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.088731414408136</v>
+        <v>1.009896060945208</v>
       </c>
       <c r="D3">
-        <v>1.094713059928931</v>
+        <v>1.028081434576408</v>
       </c>
       <c r="E3">
-        <v>1.10470145626385</v>
+        <v>1.028014534431928</v>
       </c>
       <c r="F3">
-        <v>1.108579216930613</v>
+        <v>1.036745911526045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.096065712477869</v>
+        <v>1.051689371822303</v>
       </c>
       <c r="J3">
-        <v>1.107064296241387</v>
+        <v>1.030120537208835</v>
       </c>
       <c r="K3">
-        <v>1.104262200107263</v>
+        <v>1.038367186617719</v>
       </c>
       <c r="L3">
-        <v>1.11414949885689</v>
+        <v>1.038301085503652</v>
       </c>
       <c r="M3">
-        <v>1.117988607253803</v>
+        <v>1.04692925673373</v>
       </c>
       <c r="N3">
-        <v>1.108636454524099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013898186762006</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045713730774027</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038196519623608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.093747534201663</v>
+        <v>1.012252464674431</v>
       </c>
       <c r="D4">
-        <v>1.098893065274027</v>
+        <v>1.029632764572136</v>
       </c>
       <c r="E4">
-        <v>1.109416146051463</v>
+        <v>1.030006025082667</v>
       </c>
       <c r="F4">
-        <v>1.113192372376106</v>
+        <v>1.038608633712491</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.098489554832354</v>
+        <v>1.052191993782286</v>
       </c>
       <c r="J4">
-        <v>1.111023282466474</v>
+        <v>1.03134786046681</v>
       </c>
       <c r="K4">
-        <v>1.107928296058023</v>
+        <v>1.039386233859026</v>
       </c>
       <c r="L4">
-        <v>1.118351737004067</v>
+        <v>1.039755305166188</v>
       </c>
       <c r="M4">
-        <v>1.122092761423351</v>
+        <v>1.048262389733721</v>
       </c>
       <c r="N4">
-        <v>1.112601062963728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014313454178031</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046768807843044</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038917973061981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.095818600462638</v>
+        <v>1.01323591032539</v>
       </c>
       <c r="D5">
-        <v>1.100618222506487</v>
+        <v>1.030282363463239</v>
       </c>
       <c r="E5">
-        <v>1.111363494613737</v>
+        <v>1.030838610181235</v>
       </c>
       <c r="F5">
-        <v>1.115097602063822</v>
+        <v>1.03938712307581</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.099486842103143</v>
+        <v>1.052399800001545</v>
       </c>
       <c r="J5">
-        <v>1.112655879591373</v>
+        <v>1.031860719945477</v>
       </c>
       <c r="K5">
-        <v>1.109439124534546</v>
+        <v>1.039812751514298</v>
       </c>
       <c r="L5">
-        <v>1.120085536883372</v>
+        <v>1.040362921540012</v>
       </c>
       <c r="M5">
-        <v>1.123785825846991</v>
+        <v>1.048819048827301</v>
       </c>
       <c r="N5">
-        <v>1.114235978563806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014487350779041</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047209362272977</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039226735756801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.096164195137917</v>
+        <v>1.01340359620238</v>
       </c>
       <c r="D6">
-        <v>1.100906053793391</v>
+        <v>1.03039537949929</v>
       </c>
       <c r="E6">
-        <v>1.111688486738596</v>
+        <v>1.030980811262206</v>
       </c>
       <c r="F6">
-        <v>1.115415554138728</v>
+        <v>1.039519560935329</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0996530523082</v>
+        <v>1.052436528679191</v>
       </c>
       <c r="J6">
-        <v>1.112928189468854</v>
+        <v>1.03194955640107</v>
       </c>
       <c r="K6">
-        <v>1.109691065731554</v>
+        <v>1.039888306473711</v>
       </c>
       <c r="L6">
-        <v>1.120374779240303</v>
+        <v>1.040467372001099</v>
       </c>
       <c r="M6">
-        <v>1.124068256669421</v>
+        <v>1.048914265655869</v>
       </c>
       <c r="N6">
-        <v>1.114508675152547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014517928889286</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047284719311884</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039288912814243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.093775353094432</v>
+        <v>1.012274017794888</v>
       </c>
       <c r="D7">
-        <v>1.098916240672694</v>
+        <v>1.029652956242199</v>
       </c>
       <c r="E7">
-        <v>1.109442300292271</v>
+        <v>1.030024697881043</v>
       </c>
       <c r="F7">
-        <v>1.113217961657602</v>
+        <v>1.038624655022193</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.098502964347358</v>
+        <v>1.052200513393825</v>
       </c>
       <c r="J7">
-        <v>1.111045219720594</v>
+        <v>1.031362902297327</v>
       </c>
       <c r="K7">
-        <v>1.107948601021215</v>
+        <v>1.039403312928931</v>
       </c>
       <c r="L7">
-        <v>1.118375030596826</v>
+        <v>1.039770883996125</v>
       </c>
       <c r="M7">
-        <v>1.122115508798085</v>
+        <v>1.048275382261754</v>
       </c>
       <c r="N7">
-        <v>1.112623031371265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014319797145014</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046779090469369</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038950183467879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.083464053085609</v>
+        <v>1.007461367117897</v>
       </c>
       <c r="D8">
-        <v>1.090321427722165</v>
+        <v>1.026486960779393</v>
       </c>
       <c r="E8">
-        <v>1.099753344223694</v>
+        <v>1.025961973641345</v>
       </c>
       <c r="F8">
-        <v>1.103737052119324</v>
+        <v>1.034824897963062</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.093508403841079</v>
+        <v>1.051163963948504</v>
       </c>
       <c r="J8">
-        <v>1.102900119774803</v>
+        <v>1.028855322913947</v>
       </c>
       <c r="K8">
-        <v>1.10040265052131</v>
+        <v>1.037319714808657</v>
       </c>
       <c r="L8">
-        <v>1.109732595268169</v>
+        <v>1.03680139219353</v>
       </c>
       <c r="M8">
-        <v>1.113673874617136</v>
+        <v>1.045552934375358</v>
       </c>
       <c r="N8">
-        <v>1.104466364449296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013471711339541</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044624470903138</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037481477556177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063892811562262</v>
+        <v>0.9986324453075111</v>
       </c>
       <c r="D9">
-        <v>1.07398928763003</v>
+        <v>1.020683245309257</v>
       </c>
       <c r="E9">
-        <v>1.081392844190843</v>
+        <v>1.018553529645802</v>
       </c>
       <c r="F9">
-        <v>1.085765213815885</v>
+        <v>1.027904777876533</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.083912511663329</v>
+        <v>1.049155024211935</v>
       </c>
       <c r="J9">
-        <v>1.08737490485221</v>
+        <v>1.024233588052897</v>
       </c>
       <c r="K9">
-        <v>1.085986068332522</v>
+        <v>1.033449433242934</v>
       </c>
       <c r="L9">
-        <v>1.09329029884706</v>
+        <v>1.031352593576552</v>
       </c>
       <c r="M9">
-        <v>1.097604806624312</v>
+        <v>1.040560780461883</v>
       </c>
       <c r="N9">
-        <v>1.088919101940745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011906449701163</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.0406735275154</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034741737108989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049712502091765</v>
+        <v>0.9925677830066576</v>
       </c>
       <c r="D10">
-        <v>1.062147534297797</v>
+        <v>1.016713887597019</v>
       </c>
       <c r="E10">
-        <v>1.068114275079782</v>
+        <v>1.013534647420511</v>
       </c>
       <c r="F10">
-        <v>1.072764471921157</v>
+        <v>1.023268480450801</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.07688249662683</v>
+        <v>1.047726730431389</v>
       </c>
       <c r="J10">
-        <v>1.07608370624702</v>
+        <v>1.02107941297534</v>
       </c>
       <c r="K10">
-        <v>1.075478574960284</v>
+        <v>1.030787785554852</v>
       </c>
       <c r="L10">
-        <v>1.08135374458974</v>
+        <v>1.027663755277841</v>
       </c>
       <c r="M10">
-        <v>1.085933474636842</v>
+        <v>1.037229951077638</v>
       </c>
       <c r="N10">
-        <v>1.077611868538417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010844627984256</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03808885788744</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032876636955457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043252483283424</v>
+        <v>0.9904048578993887</v>
       </c>
       <c r="D11">
-        <v>1.056752095213273</v>
+        <v>1.015332652720547</v>
       </c>
       <c r="E11">
-        <v>1.062072019224157</v>
+        <v>1.01205032307068</v>
       </c>
       <c r="F11">
-        <v>1.066848011187212</v>
+        <v>1.022278344669668</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.07366201348014</v>
+        <v>1.0473299652784</v>
       </c>
       <c r="J11">
-        <v>1.07093038966383</v>
+        <v>1.02018232656259</v>
       </c>
       <c r="K11">
-        <v>1.070677636165515</v>
+        <v>1.029971096722944</v>
       </c>
       <c r="L11">
-        <v>1.075911166979219</v>
+        <v>1.026748510572633</v>
       </c>
       <c r="M11">
-        <v>1.080610539745729</v>
+        <v>1.036792008091285</v>
       </c>
       <c r="N11">
-        <v>1.072451233654586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010593784691605</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038178634394289</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03233215703527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040799742859997</v>
+        <v>0.9897787499999731</v>
       </c>
       <c r="D12">
-        <v>1.054703556002337</v>
+        <v>1.014939101377479</v>
       </c>
       <c r="E12">
-        <v>1.059779053209366</v>
+        <v>1.011751888810594</v>
       </c>
       <c r="F12">
-        <v>1.064602703460249</v>
+        <v>1.022284904543201</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.072436626048242</v>
+        <v>1.047264820186468</v>
       </c>
       <c r="J12">
-        <v>1.068972417156556</v>
+        <v>1.020022080635298</v>
       </c>
       <c r="K12">
-        <v>1.068852756587055</v>
+        <v>1.029785581296757</v>
       </c>
       <c r="L12">
-        <v>1.073844098702472</v>
+        <v>1.026657352148094</v>
       </c>
       <c r="M12">
-        <v>1.078588725161347</v>
+        <v>1.036997262371248</v>
       </c>
       <c r="N12">
-        <v>1.070490480601769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010579505233888</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038667415033704</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032200990749211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041328362708378</v>
+        <v>0.9903055801876431</v>
       </c>
       <c r="D13">
-        <v>1.055145059404417</v>
+        <v>1.01529389096026</v>
       </c>
       <c r="E13">
-        <v>1.060273183945329</v>
+        <v>1.012359162821531</v>
       </c>
       <c r="F13">
-        <v>1.065086567235705</v>
+        <v>1.023079041905691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.072700842092502</v>
+        <v>1.047463774086627</v>
       </c>
       <c r="J13">
-        <v>1.069394463870929</v>
+        <v>1.020431823633551</v>
       </c>
       <c r="K13">
-        <v>1.069246150294273</v>
+        <v>1.03009076433595</v>
       </c>
       <c r="L13">
-        <v>1.074289624674046</v>
+        <v>1.027210098293877</v>
       </c>
       <c r="M13">
-        <v>1.079024505635294</v>
+        <v>1.037734453912494</v>
       </c>
       <c r="N13">
-        <v>1.070913126670886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010752588443458</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039526935027972</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032414265042239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043050856846992</v>
+        <v>0.9911952699668215</v>
       </c>
       <c r="D14">
-        <v>1.056583695190391</v>
+        <v>1.015881408985355</v>
       </c>
       <c r="E14">
-        <v>1.061883502818483</v>
+        <v>1.013191748123888</v>
       </c>
       <c r="F14">
-        <v>1.066663414530999</v>
+        <v>1.023988739130055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.073561334091875</v>
+        <v>1.04772205453176</v>
       </c>
       <c r="J14">
-        <v>1.070769462584714</v>
+        <v>1.020975164252055</v>
       </c>
       <c r="K14">
-        <v>1.070527664062661</v>
+        <v>1.030526498325726</v>
       </c>
       <c r="L14">
-        <v>1.075741256809492</v>
+        <v>1.027885751207143</v>
       </c>
       <c r="M14">
-        <v>1.080444353091021</v>
+        <v>1.038488407031389</v>
       </c>
       <c r="N14">
-        <v>1.072290078040559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010958066785733</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040296186166234</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032723774873637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044104925374711</v>
+        <v>0.9916687682289901</v>
       </c>
       <c r="D15">
-        <v>1.05746406251561</v>
+        <v>1.016193792932656</v>
       </c>
       <c r="E15">
-        <v>1.062869082055002</v>
+        <v>1.013602445021927</v>
       </c>
       <c r="F15">
-        <v>1.067628497860657</v>
+        <v>1.024398423679153</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.074087562120936</v>
+        <v>1.047846569202373</v>
       </c>
       <c r="J15">
-        <v>1.071610706986327</v>
+        <v>1.021239076473486</v>
       </c>
       <c r="K15">
-        <v>1.071311609400856</v>
+        <v>1.030746377598404</v>
       </c>
       <c r="L15">
-        <v>1.076629493055264</v>
+        <v>1.02820179003553</v>
       </c>
       <c r="M15">
-        <v>1.081313116479528</v>
+        <v>1.038804980177215</v>
       </c>
       <c r="N15">
-        <v>1.073132517105713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011051990334714</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040583926361967</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032885128393493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050134071210951</v>
+        <v>0.994136033390118</v>
       </c>
       <c r="D16">
-        <v>1.062499624372337</v>
+        <v>1.017809644975167</v>
       </c>
       <c r="E16">
-        <v>1.068508734503197</v>
+        <v>1.015618490070737</v>
       </c>
       <c r="F16">
-        <v>1.073150707244328</v>
+        <v>1.026242402713525</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.077092294819043</v>
+        <v>1.04843341434169</v>
       </c>
       <c r="J16">
-        <v>1.07641981191679</v>
+        <v>1.022506717493218</v>
       </c>
       <c r="K16">
-        <v>1.075791589188894</v>
+        <v>1.031828861624738</v>
       </c>
       <c r="L16">
-        <v>1.081708826237654</v>
+        <v>1.029675493015326</v>
       </c>
       <c r="M16">
-        <v>1.086280724647156</v>
+        <v>1.040118138707186</v>
       </c>
       <c r="N16">
-        <v>1.07794845151679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011472320634112</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041583150082102</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033653664059942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053826960671858</v>
+        <v>0.9955648418650835</v>
       </c>
       <c r="D17">
-        <v>1.065583811594213</v>
+        <v>1.018743431241773</v>
       </c>
       <c r="E17">
-        <v>1.07196494144217</v>
+        <v>1.016730316788204</v>
       </c>
       <c r="F17">
-        <v>1.076534786609354</v>
+        <v>1.027176287308047</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.078928095251944</v>
+        <v>1.048745286103996</v>
       </c>
       <c r="J17">
-        <v>1.079362994844214</v>
+        <v>1.023194530084751</v>
       </c>
       <c r="K17">
-        <v>1.078531971480953</v>
+        <v>1.032430612193399</v>
       </c>
       <c r="L17">
-        <v>1.084818771023354</v>
+        <v>1.030451226905799</v>
       </c>
       <c r="M17">
-        <v>1.089321932927988</v>
+        <v>1.040724025245716</v>
       </c>
       <c r="N17">
-        <v>1.080895814101559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011687106372693</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041933115683984</v>
+      </c>
+      <c r="Q17">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R17">
+        <v>1.034081721708924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055950485104164</v>
+        <v>0.9962183767281551</v>
       </c>
       <c r="D18">
-        <v>1.067357232338976</v>
+        <v>1.019160378116611</v>
       </c>
       <c r="E18">
-        <v>1.073953009906067</v>
+        <v>1.01713363877979</v>
       </c>
       <c r="F18">
-        <v>1.078481306336075</v>
+        <v>1.027360541244237</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.07998206082765</v>
+        <v>1.048840409001385</v>
       </c>
       <c r="J18">
-        <v>1.081054524690642</v>
+        <v>1.023425014439734</v>
       </c>
       <c r="K18">
-        <v>1.080106449673405</v>
+        <v>1.032656376149228</v>
       </c>
       <c r="L18">
-        <v>1.086606636143275</v>
+        <v>1.030663034936211</v>
       </c>
       <c r="M18">
-        <v>1.091070161405276</v>
+        <v>1.040723136913628</v>
       </c>
       <c r="N18">
-        <v>1.08258974611439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011735309320249</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041694915381266</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034229675023914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056669527029208</v>
+        <v>0.9961719913013276</v>
       </c>
       <c r="D19">
-        <v>1.067957709398491</v>
+        <v>1.019117031828301</v>
       </c>
       <c r="E19">
-        <v>1.074626291511902</v>
+        <v>1.016890161215888</v>
       </c>
       <c r="F19">
-        <v>1.07914050646345</v>
+        <v>1.026857142693265</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.080338656129228</v>
+        <v>1.048745048290079</v>
       </c>
       <c r="J19">
-        <v>1.081627137167046</v>
+        <v>1.023244922299045</v>
       </c>
       <c r="K19">
-        <v>1.080639353736891</v>
+        <v>1.032550923196233</v>
       </c>
       <c r="L19">
-        <v>1.087211942966539</v>
+        <v>1.030360565865415</v>
       </c>
       <c r="M19">
-        <v>1.09166202796882</v>
+        <v>1.040165701880422</v>
       </c>
       <c r="N19">
-        <v>1.08316317176619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011637618358516</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040928894965072</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034161529145804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053433935577961</v>
+        <v>0.9941611573314898</v>
       </c>
       <c r="D20">
-        <v>1.06525557684171</v>
+        <v>1.017769622019639</v>
       </c>
       <c r="E20">
-        <v>1.07159703819192</v>
+        <v>1.014853802971248</v>
       </c>
       <c r="F20">
-        <v>1.07617456724652</v>
+        <v>1.024485603347887</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.078732889507221</v>
+        <v>1.048115896404036</v>
       </c>
       <c r="J20">
-        <v>1.079049851358541</v>
+        <v>1.021919026961434</v>
       </c>
       <c r="K20">
-        <v>1.078240456813044</v>
+        <v>1.031507048379301</v>
       </c>
       <c r="L20">
-        <v>1.08448783337953</v>
+        <v>1.028640399611884</v>
       </c>
       <c r="M20">
-        <v>1.088998322254259</v>
+        <v>1.038111146480512</v>
       </c>
       <c r="N20">
-        <v>1.080582225916218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011131211586674</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038775677552171</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033427398166877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04254513914337</v>
+        <v>0.9895071371022819</v>
       </c>
       <c r="D21">
-        <v>1.056161316148327</v>
+        <v>1.014719605437242</v>
       </c>
       <c r="E21">
-        <v>1.061410686594981</v>
+        <v>1.010956039263627</v>
       </c>
       <c r="F21">
-        <v>1.066200428170325</v>
+        <v>1.02081329778074</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.073308768775357</v>
+        <v>1.046971769533519</v>
       </c>
       <c r="J21">
-        <v>1.07036580502209</v>
+        <v>1.019450207055299</v>
       </c>
       <c r="K21">
-        <v>1.070151472468273</v>
+        <v>1.029427375319454</v>
       </c>
       <c r="L21">
-        <v>1.075315079746596</v>
+        <v>1.025732777060163</v>
       </c>
       <c r="M21">
-        <v>1.080027512568895</v>
+        <v>1.035410800790722</v>
       </c>
       <c r="N21">
-        <v>1.071885847237896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01029040786969</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036597653308906</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031960222777257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035387957995632</v>
+        <v>0.98654689936326</v>
       </c>
       <c r="D22">
-        <v>1.050183759276784</v>
+        <v>1.012779684593105</v>
       </c>
       <c r="E22">
-        <v>1.054722075546237</v>
+        <v>1.008502773253783</v>
       </c>
       <c r="F22">
-        <v>1.059650704190957</v>
+        <v>1.018528321592739</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.069728098461714</v>
+        <v>1.046235736662884</v>
       </c>
       <c r="J22">
-        <v>1.06464986245878</v>
+        <v>1.017889133176614</v>
       </c>
       <c r="K22">
-        <v>1.064822573195499</v>
+        <v>1.028102154602548</v>
       </c>
       <c r="L22">
-        <v>1.0692822058148</v>
+        <v>1.023907649681354</v>
       </c>
       <c r="M22">
-        <v>1.074126369632379</v>
+        <v>1.033741452981127</v>
       </c>
       <c r="N22">
-        <v>1.066161787380518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009760127958659</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035276468009994</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031009669735747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039213523101116</v>
+        <v>0.9881144229481239</v>
       </c>
       <c r="D23">
-        <v>1.053378755211146</v>
+        <v>1.01380179294955</v>
       </c>
       <c r="E23">
-        <v>1.058296503521875</v>
+        <v>1.00980068082651</v>
       </c>
       <c r="F23">
-        <v>1.063150947521235</v>
+        <v>1.019738414911005</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.071643416036422</v>
+        <v>1.046623771519935</v>
       </c>
       <c r="J23">
-        <v>1.067705795183006</v>
+        <v>1.018712697311948</v>
       </c>
       <c r="K23">
-        <v>1.067672010932234</v>
+        <v>1.028798106443209</v>
       </c>
       <c r="L23">
-        <v>1.072507131687501</v>
+        <v>1.024872079415567</v>
       </c>
       <c r="M23">
-        <v>1.077280976492353</v>
+        <v>1.034624735830568</v>
       </c>
       <c r="N23">
-        <v>1.069222059879733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010038503455943</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035975531932329</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031492066719578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053611620498135</v>
+        <v>0.9941751429549125</v>
       </c>
       <c r="D24">
-        <v>1.065403970594102</v>
+        <v>1.017768275384572</v>
       </c>
       <c r="E24">
-        <v>1.071763363643722</v>
+        <v>1.014835332469171</v>
       </c>
       <c r="F24">
-        <v>1.076337419074926</v>
+        <v>1.02443287172997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.078821146381296</v>
+        <v>1.04810238024202</v>
       </c>
       <c r="J24">
-        <v>1.079191424926691</v>
+        <v>1.021899274508362</v>
       </c>
       <c r="K24">
-        <v>1.078372253440207</v>
+        <v>1.031490383380954</v>
       </c>
       <c r="L24">
-        <v>1.084637450235456</v>
+        <v>1.028606837284934</v>
       </c>
       <c r="M24">
-        <v>1.089144626964775</v>
+        <v>1.038044087282958</v>
       </c>
       <c r="N24">
-        <v>1.080724000535074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011117925195324</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038681731326119</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033388119879957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.069136663260856</v>
+        <v>1.000969651548408</v>
       </c>
       <c r="D25">
-        <v>1.078367024702424</v>
+        <v>1.02222650040303</v>
       </c>
       <c r="E25">
-        <v>1.086308479315711</v>
+        <v>1.020509863196177</v>
       </c>
       <c r="F25">
-        <v>1.090577387845019</v>
+        <v>1.029729052589869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.086496839761212</v>
+        <v>1.049703996698893</v>
       </c>
       <c r="J25">
-        <v>1.091542038779711</v>
+        <v>1.025464427057982</v>
       </c>
       <c r="K25">
-        <v>1.089859467209735</v>
+        <v>1.034489305540831</v>
       </c>
       <c r="L25">
-        <v>1.097699974309032</v>
+        <v>1.032797919557199</v>
       </c>
       <c r="M25">
-        <v>1.101915375994668</v>
+        <v>1.041882749264753</v>
       </c>
       <c r="N25">
-        <v>1.0930921536764</v>
+        <v>1.012325472176452</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041719776177758</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035505652395571</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006189527281717</v>
+        <v>1.005966075621217</v>
       </c>
       <c r="D2">
-        <v>1.025643549696208</v>
+        <v>1.024957295269348</v>
       </c>
       <c r="E2">
-        <v>1.024890715391983</v>
+        <v>1.024681231980158</v>
       </c>
       <c r="F2">
-        <v>1.033825290478469</v>
+        <v>1.033643513114984</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050878223376111</v>
+        <v>1.05053679660418</v>
       </c>
       <c r="J2">
-        <v>1.028186673646118</v>
+        <v>1.027969795004728</v>
       </c>
       <c r="K2">
-        <v>1.036756825228335</v>
+        <v>1.036079549160305</v>
       </c>
       <c r="L2">
-        <v>1.036013841158165</v>
+        <v>1.035807101894731</v>
       </c>
       <c r="M2">
-        <v>1.04483267113008</v>
+        <v>1.04465322371629</v>
       </c>
       <c r="N2">
-        <v>1.013243835763486</v>
+        <v>1.014573604007569</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044054433852027</v>
+        <v>1.043912413937631</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037060519690621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036590416972424</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021699300346317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009896060945208</v>
+        <v>1.009535047525198</v>
       </c>
       <c r="D3">
-        <v>1.028081434576408</v>
+        <v>1.027216451180043</v>
       </c>
       <c r="E3">
-        <v>1.028014534431928</v>
+        <v>1.027680572536423</v>
       </c>
       <c r="F3">
-        <v>1.036745911526045</v>
+        <v>1.036468056289826</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051689371822303</v>
+        <v>1.051256671421299</v>
       </c>
       <c r="J3">
-        <v>1.030120537208835</v>
+        <v>1.029769109972681</v>
       </c>
       <c r="K3">
-        <v>1.038367186617719</v>
+        <v>1.037512544216223</v>
       </c>
       <c r="L3">
-        <v>1.038301085503652</v>
+        <v>1.037971114254161</v>
       </c>
       <c r="M3">
-        <v>1.04692925673373</v>
+        <v>1.046654652633119</v>
       </c>
       <c r="N3">
-        <v>1.013898186762006</v>
+        <v>1.015057231014407</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045713730774027</v>
+        <v>1.045496401565097</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038196519623608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037600725845647</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021979681595589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012252464674431</v>
+        <v>1.011804945175637</v>
       </c>
       <c r="D4">
-        <v>1.029632764572136</v>
+        <v>1.028654808812478</v>
       </c>
       <c r="E4">
-        <v>1.030006025082667</v>
+        <v>1.029593652322311</v>
       </c>
       <c r="F4">
-        <v>1.038608633712491</v>
+        <v>1.038270270312827</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052191993782286</v>
+        <v>1.05170149370819</v>
       </c>
       <c r="J4">
-        <v>1.03134786046681</v>
+        <v>1.030911424935553</v>
       </c>
       <c r="K4">
-        <v>1.039386233859026</v>
+        <v>1.038419271719256</v>
       </c>
       <c r="L4">
-        <v>1.039755305166188</v>
+        <v>1.039347560793036</v>
       </c>
       <c r="M4">
-        <v>1.048262389733721</v>
+        <v>1.047927746801101</v>
       </c>
       <c r="N4">
-        <v>1.014313454178031</v>
+        <v>1.015364305619806</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046768807843044</v>
+        <v>1.046503962628777</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038917973061981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038242841144783</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022154585558589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01323591032539</v>
+        <v>1.012752495320282</v>
       </c>
       <c r="D5">
-        <v>1.030282363463239</v>
+        <v>1.029257470115259</v>
       </c>
       <c r="E5">
-        <v>1.030838610181235</v>
+        <v>1.030393673655588</v>
       </c>
       <c r="F5">
-        <v>1.03938712307581</v>
+        <v>1.039023637118822</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052399800001545</v>
+        <v>1.05188525890914</v>
       </c>
       <c r="J5">
-        <v>1.031860719945477</v>
+        <v>1.031388922310839</v>
       </c>
       <c r="K5">
-        <v>1.039812751514298</v>
+        <v>1.038799075690074</v>
       </c>
       <c r="L5">
-        <v>1.040362921540012</v>
+        <v>1.039922845058789</v>
       </c>
       <c r="M5">
-        <v>1.048819048827301</v>
+        <v>1.048459453230046</v>
       </c>
       <c r="N5">
-        <v>1.014487350779041</v>
+        <v>1.015492959250354</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047209362272977</v>
+        <v>1.04692476903011</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039226735756801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038519284367539</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022227635593309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01340359620238</v>
+        <v>1.012914063271399</v>
       </c>
       <c r="D6">
-        <v>1.03039537949929</v>
+        <v>1.029362564255893</v>
       </c>
       <c r="E6">
-        <v>1.030980811262206</v>
+        <v>1.030530325154322</v>
       </c>
       <c r="F6">
-        <v>1.039519560935329</v>
+        <v>1.039151798845091</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052436528679191</v>
+        <v>1.051917927557816</v>
       </c>
       <c r="J6">
-        <v>1.03194955640107</v>
+        <v>1.03147172773374</v>
       </c>
       <c r="K6">
-        <v>1.039888306473711</v>
+        <v>1.038866744177515</v>
       </c>
       <c r="L6">
-        <v>1.040467372001099</v>
+        <v>1.040021783884776</v>
       </c>
       <c r="M6">
-        <v>1.048914265655869</v>
+        <v>1.048550421693453</v>
       </c>
       <c r="N6">
-        <v>1.014517928889286</v>
+        <v>1.015515617566752</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047284719311884</v>
+        <v>1.046996763831841</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039288912814243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038576754135961</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022241098801336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012274017794888</v>
+        <v>1.011833370604517</v>
       </c>
       <c r="D7">
-        <v>1.029652956242199</v>
+        <v>1.028679369621972</v>
       </c>
       <c r="E7">
-        <v>1.030024697881043</v>
+        <v>1.029618486311459</v>
       </c>
       <c r="F7">
-        <v>1.038624655022193</v>
+        <v>1.038290971796668</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052200513393825</v>
+        <v>1.051712383921365</v>
       </c>
       <c r="J7">
-        <v>1.031362902297327</v>
+        <v>1.030933164156166</v>
       </c>
       <c r="K7">
-        <v>1.039403312928931</v>
+        <v>1.038440666577179</v>
       </c>
       <c r="L7">
-        <v>1.039770883996125</v>
+        <v>1.039369229904423</v>
       </c>
       <c r="M7">
-        <v>1.048275382261754</v>
+        <v>1.047945366662555</v>
       </c>
       <c r="N7">
-        <v>1.014319797145014</v>
+        <v>1.015397069158725</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046779090469369</v>
+        <v>1.046517907452712</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038950183467879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038280102723447</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02216055022269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007461367117897</v>
+        <v>1.007214130525243</v>
       </c>
       <c r="D8">
-        <v>1.026486960779393</v>
+        <v>1.025755519115566</v>
       </c>
       <c r="E8">
-        <v>1.025961973641345</v>
+        <v>1.025730792252562</v>
       </c>
       <c r="F8">
-        <v>1.034824897963062</v>
+        <v>1.034626138924246</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051163963948504</v>
+        <v>1.050799912410118</v>
       </c>
       <c r="J8">
-        <v>1.028855322913947</v>
+        <v>1.028615115949701</v>
       </c>
       <c r="K8">
-        <v>1.037319714808657</v>
+        <v>1.03659756086753</v>
       </c>
       <c r="L8">
-        <v>1.03680139219353</v>
+        <v>1.036573148271107</v>
       </c>
       <c r="M8">
-        <v>1.045552934375358</v>
+        <v>1.04535664712049</v>
       </c>
       <c r="N8">
-        <v>1.013471711339541</v>
+        <v>1.014827249404519</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044624470903138</v>
+        <v>1.044469123567368</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037481477556177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036981909325175</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02180439297005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9986324453075111</v>
+        <v>0.9987224725891035</v>
       </c>
       <c r="D9">
-        <v>1.020683245309257</v>
+        <v>1.020383767769865</v>
       </c>
       <c r="E9">
-        <v>1.018553529645802</v>
+        <v>1.018626544415317</v>
       </c>
       <c r="F9">
-        <v>1.027904777876533</v>
+        <v>1.027940932957112</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049155024211935</v>
+        <v>1.049011008819734</v>
       </c>
       <c r="J9">
-        <v>1.024233588052897</v>
+        <v>1.024320424439014</v>
       </c>
       <c r="K9">
-        <v>1.033449433242934</v>
+        <v>1.033154568092908</v>
       </c>
       <c r="L9">
-        <v>1.031352593576552</v>
+        <v>1.031424478324927</v>
       </c>
       <c r="M9">
-        <v>1.040560780461883</v>
+        <v>1.040596388853922</v>
       </c>
       <c r="N9">
-        <v>1.011906449701163</v>
+        <v>1.013681712809717</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.0406735275154</v>
+        <v>1.040701709162893</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034741737108989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034544016682085</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021115460818036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9925677830066576</v>
+        <v>0.992928146677537</v>
       </c>
       <c r="D10">
-        <v>1.016713887597019</v>
+        <v>1.016736933110711</v>
       </c>
       <c r="E10">
-        <v>1.013534647420511</v>
+        <v>1.013850151831098</v>
       </c>
       <c r="F10">
-        <v>1.023268480450801</v>
+        <v>1.023491957360388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047726730431389</v>
+        <v>1.047747114054215</v>
       </c>
       <c r="J10">
-        <v>1.02107941297534</v>
+        <v>1.021425180981178</v>
       </c>
       <c r="K10">
-        <v>1.030787785554852</v>
+        <v>1.030810432496478</v>
       </c>
       <c r="L10">
-        <v>1.027663755277841</v>
+        <v>1.027973760679118</v>
       </c>
       <c r="M10">
-        <v>1.037229951077638</v>
+        <v>1.03744962758642</v>
       </c>
       <c r="N10">
-        <v>1.010844627984256</v>
+        <v>1.01302557039095</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03808885788744</v>
+        <v>1.03826270683188</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032876636955457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032905101262093</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020640062470189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9904048578993887</v>
+        <v>0.990901442325956</v>
       </c>
       <c r="D11">
-        <v>1.015332652720547</v>
+        <v>1.015495351438925</v>
       </c>
       <c r="E11">
-        <v>1.01205032307068</v>
+        <v>1.012487432372424</v>
       </c>
       <c r="F11">
-        <v>1.022278344669668</v>
+        <v>1.02259654612915</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.0473299652784</v>
+        <v>1.047422858099137</v>
       </c>
       <c r="J11">
-        <v>1.02018232656259</v>
+        <v>1.020657692441246</v>
       </c>
       <c r="K11">
-        <v>1.029971096722944</v>
+        <v>1.030130847137949</v>
       </c>
       <c r="L11">
-        <v>1.026748510572633</v>
+        <v>1.027177634702116</v>
       </c>
       <c r="M11">
-        <v>1.036792008091285</v>
+        <v>1.037104545708485</v>
       </c>
       <c r="N11">
-        <v>1.010593784691605</v>
+        <v>1.013086048394021</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038178634394289</v>
+        <v>1.038425847901984</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03233215703527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032460775424725</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020533017967142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9897787499999731</v>
+        <v>0.9903169143567548</v>
       </c>
       <c r="D12">
-        <v>1.014939101377479</v>
+        <v>1.015142557249559</v>
       </c>
       <c r="E12">
-        <v>1.011751888810594</v>
+        <v>1.012226065449972</v>
       </c>
       <c r="F12">
-        <v>1.022284904543201</v>
+        <v>1.022632519959249</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047264820186468</v>
+        <v>1.047379230739157</v>
       </c>
       <c r="J12">
-        <v>1.020022080635298</v>
+        <v>1.020536809533469</v>
       </c>
       <c r="K12">
-        <v>1.029785581296757</v>
+        <v>1.029985288346867</v>
       </c>
       <c r="L12">
-        <v>1.026657352148094</v>
+        <v>1.027122722871706</v>
       </c>
       <c r="M12">
-        <v>1.036997262371248</v>
+        <v>1.037338592993357</v>
       </c>
       <c r="N12">
-        <v>1.010579505233888</v>
+        <v>1.013183298629786</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038667415033704</v>
+        <v>1.038937312072934</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032200990749211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032357862164451</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020523920403875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9903055801876431</v>
+        <v>0.9908040432709024</v>
       </c>
       <c r="D13">
-        <v>1.01529389096026</v>
+        <v>1.015457097167207</v>
       </c>
       <c r="E13">
-        <v>1.012359162821531</v>
+        <v>1.012797995547355</v>
       </c>
       <c r="F13">
-        <v>1.023079041905691</v>
+        <v>1.023400289541326</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047463774086627</v>
+        <v>1.047557885901161</v>
       </c>
       <c r="J13">
-        <v>1.020431823633551</v>
+        <v>1.020908691348905</v>
       </c>
       <c r="K13">
-        <v>1.03009076433595</v>
+        <v>1.030250975985834</v>
       </c>
       <c r="L13">
-        <v>1.027210098293877</v>
+        <v>1.027640821094908</v>
       </c>
       <c r="M13">
-        <v>1.037734453912494</v>
+        <v>1.038049924346515</v>
       </c>
       <c r="N13">
-        <v>1.010752588443458</v>
+        <v>1.013283989684941</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039526935027972</v>
+        <v>1.039776321242654</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032414265042239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032542965459801</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020594114255747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9911952699668215</v>
+        <v>0.9916302108922461</v>
       </c>
       <c r="D14">
-        <v>1.015881408985355</v>
+        <v>1.015980652032507</v>
       </c>
       <c r="E14">
-        <v>1.013191748123888</v>
+        <v>1.013574020109004</v>
       </c>
       <c r="F14">
-        <v>1.023988739130055</v>
+        <v>1.024267053279209</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04772205453176</v>
+        <v>1.047783487108393</v>
       </c>
       <c r="J14">
-        <v>1.020975164252055</v>
+        <v>1.021391534605273</v>
       </c>
       <c r="K14">
-        <v>1.030526498325726</v>
+        <v>1.030623942998193</v>
       </c>
       <c r="L14">
-        <v>1.027885751207143</v>
+        <v>1.028261050657129</v>
       </c>
       <c r="M14">
-        <v>1.038488407031389</v>
+        <v>1.038761782078163</v>
       </c>
       <c r="N14">
-        <v>1.010958066785733</v>
+        <v>1.013357137630222</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040296186166234</v>
+        <v>1.040512265931975</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032723774873637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032808229570407</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020679447703899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9916687682289901</v>
+        <v>0.9920710858735923</v>
       </c>
       <c r="D15">
-        <v>1.016193792932656</v>
+        <v>1.016260063066145</v>
       </c>
       <c r="E15">
-        <v>1.013602445021927</v>
+        <v>1.013955638308373</v>
       </c>
       <c r="F15">
-        <v>1.024398423679153</v>
+        <v>1.024654505390499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047846569202373</v>
+        <v>1.047891081743797</v>
       </c>
       <c r="J15">
-        <v>1.021239076473486</v>
+        <v>1.021624367485151</v>
       </c>
       <c r="K15">
-        <v>1.030746377598404</v>
+        <v>1.030811455964499</v>
       </c>
       <c r="L15">
-        <v>1.02820179003553</v>
+        <v>1.028548591727253</v>
       </c>
       <c r="M15">
-        <v>1.038804980177215</v>
+        <v>1.039056552864404</v>
       </c>
       <c r="N15">
-        <v>1.011051990334714</v>
+        <v>1.013381066625256</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040583926361967</v>
+        <v>1.040782767992726</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032885128393493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032947266840547</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020719782993478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.994136033390118</v>
+        <v>0.9943808145289981</v>
       </c>
       <c r="D16">
-        <v>1.017809644975167</v>
+        <v>1.017712753064593</v>
       </c>
       <c r="E16">
-        <v>1.015618490070737</v>
+        <v>1.015830931352644</v>
       </c>
       <c r="F16">
-        <v>1.026242402713525</v>
+        <v>1.026390056121504</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04843341434169</v>
+        <v>1.048393973138429</v>
       </c>
       <c r="J16">
-        <v>1.022506717493218</v>
+        <v>1.022741658687229</v>
       </c>
       <c r="K16">
-        <v>1.031828861624738</v>
+        <v>1.031733636162209</v>
       </c>
       <c r="L16">
-        <v>1.029675493015326</v>
+        <v>1.029884261532859</v>
       </c>
       <c r="M16">
-        <v>1.040118138707186</v>
+        <v>1.040263306925032</v>
       </c>
       <c r="N16">
-        <v>1.011472320634112</v>
+        <v>1.013468134767295</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041583150082102</v>
+        <v>1.041697893513053</v>
       </c>
       <c r="Q16">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R16">
-        <v>1.033653664059942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03360275760372</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020905628611584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9955648418650835</v>
+        <v>0.9957302343142491</v>
       </c>
       <c r="D17">
-        <v>1.018743431241773</v>
+        <v>1.018560281499035</v>
       </c>
       <c r="E17">
-        <v>1.016730316788204</v>
+        <v>1.016871617969274</v>
       </c>
       <c r="F17">
-        <v>1.027176287308047</v>
+        <v>1.027268736155225</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048745286103996</v>
+        <v>1.048661415853144</v>
       </c>
       <c r="J17">
-        <v>1.023194530084751</v>
+        <v>1.023353487953829</v>
       </c>
       <c r="K17">
-        <v>1.032430612193399</v>
+        <v>1.032250523968472</v>
       </c>
       <c r="L17">
-        <v>1.030451226905799</v>
+        <v>1.030590155006763</v>
       </c>
       <c r="M17">
-        <v>1.040724025245716</v>
+        <v>1.040814961696408</v>
       </c>
       <c r="N17">
-        <v>1.011687106372693</v>
+        <v>1.013525531466037</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041933115683984</v>
+        <v>1.042005000560013</v>
       </c>
       <c r="Q17">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034081721708924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033971059601838</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021004002828955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9962183767281551</v>
+        <v>0.9963545108872174</v>
       </c>
       <c r="D18">
-        <v>1.019160378116611</v>
+        <v>1.018943088018259</v>
       </c>
       <c r="E18">
-        <v>1.01713363877979</v>
+        <v>1.017248556999229</v>
       </c>
       <c r="F18">
-        <v>1.027360541244237</v>
+        <v>1.027431881037173</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048840409001385</v>
+        <v>1.048738751932403</v>
       </c>
       <c r="J18">
-        <v>1.023425014439734</v>
+        <v>1.023555951380038</v>
       </c>
       <c r="K18">
-        <v>1.032656376149228</v>
+        <v>1.032442658540821</v>
       </c>
       <c r="L18">
-        <v>1.030663034936211</v>
+        <v>1.030776054867539</v>
       </c>
       <c r="M18">
-        <v>1.040723136913628</v>
+        <v>1.040793328120964</v>
       </c>
       <c r="N18">
-        <v>1.011735309320249</v>
+        <v>1.013517697566727</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041694915381266</v>
+        <v>1.041750412779507</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034229675023914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034094100082334</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021029150722885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9961719913013276</v>
+        <v>0.9963188987198102</v>
       </c>
       <c r="D19">
-        <v>1.019117031828301</v>
+        <v>1.018909747624901</v>
       </c>
       <c r="E19">
-        <v>1.016890161215888</v>
+        <v>1.017014575619315</v>
       </c>
       <c r="F19">
-        <v>1.026857142693265</v>
+        <v>1.026934821651193</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048745048290079</v>
+        <v>1.048648098416757</v>
       </c>
       <c r="J19">
-        <v>1.023244922299045</v>
+        <v>1.023386253393161</v>
       </c>
       <c r="K19">
-        <v>1.032550923196233</v>
+        <v>1.032347029105646</v>
       </c>
       <c r="L19">
-        <v>1.030360565865415</v>
+        <v>1.030482934861971</v>
       </c>
       <c r="M19">
-        <v>1.040165701880422</v>
+        <v>1.040242135297946</v>
       </c>
       <c r="N19">
-        <v>1.011637618358516</v>
+        <v>1.013434461580581</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040928894965072</v>
+        <v>1.040989347547871</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034161529145804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03403352426867</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020990145905089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9941611573314898</v>
+        <v>0.9944281890205438</v>
       </c>
       <c r="D20">
-        <v>1.017769622019639</v>
+        <v>1.017693305859594</v>
       </c>
       <c r="E20">
-        <v>1.014853802971248</v>
+        <v>1.01508578735943</v>
       </c>
       <c r="F20">
-        <v>1.024485603347887</v>
+        <v>1.024644762049321</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048115896404036</v>
+        <v>1.048085281584331</v>
       </c>
       <c r="J20">
-        <v>1.021919026961434</v>
+        <v>1.022175597232679</v>
       </c>
       <c r="K20">
-        <v>1.031507048379301</v>
+        <v>1.031432014530306</v>
       </c>
       <c r="L20">
-        <v>1.028640399611884</v>
+        <v>1.028868458635162</v>
       </c>
       <c r="M20">
-        <v>1.038111146480512</v>
+        <v>1.038267676610658</v>
       </c>
       <c r="N20">
-        <v>1.011131211586674</v>
+        <v>1.013130063742772</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038775677552171</v>
+        <v>1.038899554802357</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033427398166877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033390894942787</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020768699668573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9895071371022819</v>
+        <v>0.9900919385076575</v>
       </c>
       <c r="D21">
-        <v>1.014719605437242</v>
+        <v>1.014966200780483</v>
       </c>
       <c r="E21">
-        <v>1.010956039263627</v>
+        <v>1.011472078002393</v>
       </c>
       <c r="F21">
-        <v>1.02081329778074</v>
+        <v>1.021191105034933</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046971769533519</v>
+        <v>1.047107333399795</v>
       </c>
       <c r="J21">
-        <v>1.019450207055299</v>
+        <v>1.020009833124304</v>
       </c>
       <c r="K21">
-        <v>1.029427375319454</v>
+        <v>1.029669475002811</v>
       </c>
       <c r="L21">
-        <v>1.025732777060163</v>
+        <v>1.026239319755709</v>
       </c>
       <c r="M21">
-        <v>1.035410800790722</v>
+        <v>1.035781827811662</v>
       </c>
       <c r="N21">
-        <v>1.01029040786969</v>
+        <v>1.012964789707884</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036597653308906</v>
+        <v>1.036891297859828</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031960222777257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032148279424274</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020407497156484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.98654689936326</v>
+        <v>0.9873335159262762</v>
       </c>
       <c r="D22">
-        <v>1.012779684593105</v>
+        <v>1.013231214715992</v>
       </c>
       <c r="E22">
-        <v>1.008502773253783</v>
+        <v>1.009198771530642</v>
       </c>
       <c r="F22">
-        <v>1.018528321592739</v>
+        <v>1.019044984011907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046235736662884</v>
+        <v>1.04647664245592</v>
       </c>
       <c r="J22">
-        <v>1.017889133176614</v>
+        <v>1.018639899522528</v>
       </c>
       <c r="K22">
-        <v>1.028102154602548</v>
+        <v>1.028545037895894</v>
       </c>
       <c r="L22">
-        <v>1.023907649681354</v>
+        <v>1.024590175292633</v>
       </c>
       <c r="M22">
-        <v>1.033741452981127</v>
+        <v>1.034248367458837</v>
       </c>
       <c r="N22">
-        <v>1.009760127958659</v>
+        <v>1.012855408086645</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035276468009994</v>
+        <v>1.035677659653003</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031009669735747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031338394481799</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020175303756917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9881144229481239</v>
+        <v>0.9887815342653119</v>
       </c>
       <c r="D23">
-        <v>1.01380179294955</v>
+        <v>1.014135972531252</v>
       </c>
       <c r="E23">
-        <v>1.00980068082651</v>
+        <v>1.010390154360309</v>
       </c>
       <c r="F23">
-        <v>1.019738414911005</v>
+        <v>1.020172895010075</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046623771519935</v>
+        <v>1.046804182166836</v>
       </c>
       <c r="J23">
-        <v>1.018712697311948</v>
+        <v>1.019350303093451</v>
       </c>
       <c r="K23">
-        <v>1.028798106443209</v>
+        <v>1.029126049775376</v>
       </c>
       <c r="L23">
-        <v>1.024872079415567</v>
+        <v>1.025450442059789</v>
       </c>
       <c r="M23">
-        <v>1.034624735830568</v>
+        <v>1.035051231453387</v>
       </c>
       <c r="N23">
-        <v>1.010038503455943</v>
+        <v>1.012868252060764</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035975531932329</v>
+        <v>1.036313076678133</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031492066719578</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031738579726603</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020293687404907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9941751429549125</v>
+        <v>0.9944425450770895</v>
       </c>
       <c r="D24">
-        <v>1.017768275384572</v>
+        <v>1.017691860217633</v>
       </c>
       <c r="E24">
-        <v>1.014835332469171</v>
+        <v>1.015067647204889</v>
       </c>
       <c r="F24">
-        <v>1.02443287172997</v>
+        <v>1.02459216107453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04810238024202</v>
+        <v>1.04807166276293</v>
       </c>
       <c r="J24">
-        <v>1.021899274508362</v>
+        <v>1.02215621585921</v>
       </c>
       <c r="K24">
-        <v>1.031490383380954</v>
+        <v>1.031415250546142</v>
       </c>
       <c r="L24">
-        <v>1.028606837284934</v>
+        <v>1.02883522592982</v>
       </c>
       <c r="M24">
-        <v>1.038044087282958</v>
+        <v>1.038200748918957</v>
       </c>
       <c r="N24">
-        <v>1.011117925195324</v>
+        <v>1.013116138884658</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038681731326119</v>
+        <v>1.038805718810228</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033388119879957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033348875168293</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020760748739136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000969651548408</v>
+        <v>1.000959798329724</v>
       </c>
       <c r="D25">
-        <v>1.02222650040303</v>
+        <v>1.021805835369412</v>
       </c>
       <c r="E25">
-        <v>1.020509863196177</v>
+        <v>1.020493031037469</v>
       </c>
       <c r="F25">
-        <v>1.029729052589869</v>
+        <v>1.029695912134236</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049703996698893</v>
+        <v>1.049498167605041</v>
       </c>
       <c r="J25">
-        <v>1.025464427057982</v>
+        <v>1.025454904550169</v>
       </c>
       <c r="K25">
-        <v>1.034489305540831</v>
+        <v>1.034074818400208</v>
       </c>
       <c r="L25">
-        <v>1.032797919557199</v>
+        <v>1.032781335528737</v>
       </c>
       <c r="M25">
-        <v>1.041882749264753</v>
+        <v>1.041850086336427</v>
       </c>
       <c r="N25">
-        <v>1.012325472176452</v>
+        <v>1.013955325946935</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041719776177758</v>
+        <v>1.041693925703161</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035505652395571</v>
+        <v>1.035226153283341</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021303099661591</v>
       </c>
     </row>
   </sheetData>
